--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D805BF28-89DC-4952-A542-55DEA1651195}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8AA7D-B671-4106-9DE4-9B3135DF04D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
+    <workbookView xWindow="480" yWindow="495" windowWidth="18015" windowHeight="14955" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5228" uniqueCount="466">
   <si>
     <t>Session</t>
   </si>
@@ -1362,6 +1362,75 @@
   <si>
     <t>F20171024</t>
   </si>
+  <si>
+    <t>F20171026</t>
+  </si>
+  <si>
+    <t>Strong positivity before trough</t>
+  </si>
+  <si>
+    <t>Positivity before trough, but could be NS cell</t>
+  </si>
+  <si>
+    <t>Very difficult to sort. Lots of overlapping clusters and drift</t>
+  </si>
+  <si>
+    <t>Looks like NS cell</t>
+  </si>
+  <si>
+    <t>Slightly triphasic, hard to tell</t>
+  </si>
+  <si>
+    <t>Sharp triphasic, trough to peak duration 175 ms</t>
+  </si>
+  <si>
+    <t>Slightly triphasic, hard to tell, but pretty transient, so it may be an axon</t>
+  </si>
+  <si>
+    <t>Too hard to separate from noise cluster</t>
+  </si>
+  <si>
+    <t>No clear unit. Definitely a MUA in there but hard to separate</t>
+  </si>
+  <si>
+    <t>Has positivity before trough, but looks normal</t>
+  </si>
+  <si>
+    <t>a, b, and c combine into d</t>
+  </si>
+  <si>
+    <t>F20171028</t>
+  </si>
+  <si>
+    <t>no clear unit</t>
+  </si>
+  <si>
+    <t>Triphasic, trough to peak duration 200 ms, could be unit</t>
+  </si>
+  <si>
+    <t>Kinda triphasic, post trough peak is too sharp and too early at 175 ms</t>
+  </si>
+  <si>
+    <t>Low amplitude, biphasic, post trough peak is too sharp and too early at 175 ms</t>
+  </si>
+  <si>
+    <t>Could be NS or axon, hard to say, biphasic, trough to peak duration 175 ms, kinda sharp</t>
+  </si>
+  <si>
+    <t>Hard to say if axon because of early positivity that shifts over time</t>
+  </si>
+  <si>
+    <t>Possibly axon or could be NS cell, trough to peak duration 200 ms, strong, drifty</t>
+  </si>
+  <si>
+    <t>Combined early and late trough</t>
+  </si>
+  <si>
+    <t>May be axonal, because pre-trough peak is a bit early</t>
+  </si>
+  <si>
+    <t>Super sparse</t>
+  </si>
 </sst>
 </file>
 
@@ -1724,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
-  <dimension ref="A1:H3643"/>
+  <dimension ref="A1:H3854"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3491" workbookViewId="0">
-      <selection activeCell="A3512" sqref="A3512:A3643"/>
+    <sheetView tabSelected="1" topLeftCell="A3723" workbookViewId="0">
+      <selection activeCell="A3743" sqref="A3743:A3854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69776,6 +69845,4235 @@
       </c>
       <c r="F3643">
         <v>13500</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3644" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3644">
+        <v>1</v>
+      </c>
+      <c r="C3644">
+        <v>0</v>
+      </c>
+      <c r="D3644">
+        <v>0</v>
+      </c>
+      <c r="E3644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3645" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3645">
+        <v>1</v>
+      </c>
+      <c r="C3645">
+        <v>1</v>
+      </c>
+      <c r="D3645">
+        <v>1</v>
+      </c>
+      <c r="E3645">
+        <v>3</v>
+      </c>
+      <c r="F3645">
+        <v>1800</v>
+      </c>
+      <c r="G3645">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3646" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3646">
+        <v>1</v>
+      </c>
+      <c r="C3646">
+        <v>2</v>
+      </c>
+      <c r="D3646">
+        <v>1</v>
+      </c>
+      <c r="E3646">
+        <v>3</v>
+      </c>
+      <c r="F3646">
+        <v>1800</v>
+      </c>
+      <c r="H3646" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3647" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3647">
+        <v>2</v>
+      </c>
+      <c r="C3647">
+        <v>0</v>
+      </c>
+      <c r="D3647">
+        <v>0</v>
+      </c>
+      <c r="E3647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3648" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3648">
+        <v>2</v>
+      </c>
+      <c r="C3648">
+        <v>1</v>
+      </c>
+      <c r="D3648">
+        <v>1</v>
+      </c>
+      <c r="E3648">
+        <v>2</v>
+      </c>
+      <c r="F3648">
+        <v>900</v>
+      </c>
+      <c r="G3648">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3649" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3649">
+        <v>3</v>
+      </c>
+      <c r="C3649">
+        <v>0</v>
+      </c>
+      <c r="D3649">
+        <v>0</v>
+      </c>
+      <c r="E3649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3650" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3650">
+        <v>3</v>
+      </c>
+      <c r="C3650">
+        <v>1</v>
+      </c>
+      <c r="D3650">
+        <v>1</v>
+      </c>
+      <c r="E3650">
+        <v>3</v>
+      </c>
+      <c r="F3650">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3651" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3651">
+        <v>4</v>
+      </c>
+      <c r="C3651">
+        <v>0</v>
+      </c>
+      <c r="D3651">
+        <v>0</v>
+      </c>
+      <c r="E3651">
+        <v>0</v>
+      </c>
+      <c r="H3651" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3652" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3652">
+        <v>5</v>
+      </c>
+      <c r="C3652">
+        <v>0</v>
+      </c>
+      <c r="D3652">
+        <v>0</v>
+      </c>
+      <c r="E3652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3653" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3653">
+        <v>5</v>
+      </c>
+      <c r="C3653">
+        <v>1</v>
+      </c>
+      <c r="D3653">
+        <v>1</v>
+      </c>
+      <c r="E3653">
+        <v>3</v>
+      </c>
+      <c r="G3653">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3654" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3654">
+        <v>5</v>
+      </c>
+      <c r="C3654">
+        <v>2</v>
+      </c>
+      <c r="D3654">
+        <v>1</v>
+      </c>
+      <c r="E3654">
+        <v>3</v>
+      </c>
+      <c r="F3654">
+        <v>4500</v>
+      </c>
+      <c r="G3654">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3655" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3655">
+        <v>5</v>
+      </c>
+      <c r="C3655">
+        <v>3</v>
+      </c>
+      <c r="D3655">
+        <v>1</v>
+      </c>
+      <c r="E3655">
+        <v>3</v>
+      </c>
+      <c r="F3655">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3656" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3656">
+        <v>6</v>
+      </c>
+      <c r="C3656">
+        <v>0</v>
+      </c>
+      <c r="D3656">
+        <v>0</v>
+      </c>
+      <c r="E3656">
+        <v>0</v>
+      </c>
+      <c r="H3656" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3657" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3657">
+        <v>7</v>
+      </c>
+      <c r="C3657">
+        <v>0</v>
+      </c>
+      <c r="D3657">
+        <v>0</v>
+      </c>
+      <c r="E3657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3658" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3658">
+        <v>7</v>
+      </c>
+      <c r="C3658">
+        <v>1</v>
+      </c>
+      <c r="D3658">
+        <v>1</v>
+      </c>
+      <c r="E3658">
+        <v>3</v>
+      </c>
+      <c r="F3658">
+        <v>5400</v>
+      </c>
+      <c r="H3658" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3659" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3659">
+        <v>7</v>
+      </c>
+      <c r="C3659">
+        <v>2</v>
+      </c>
+      <c r="D3659">
+        <v>1</v>
+      </c>
+      <c r="E3659">
+        <v>2</v>
+      </c>
+      <c r="F3659">
+        <v>900</v>
+      </c>
+      <c r="G3659">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3660" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3660">
+        <v>7</v>
+      </c>
+      <c r="C3660">
+        <v>3</v>
+      </c>
+      <c r="D3660">
+        <v>1</v>
+      </c>
+      <c r="E3660">
+        <v>3</v>
+      </c>
+      <c r="F3660">
+        <v>2700</v>
+      </c>
+      <c r="G3660">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3661" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3661">
+        <v>7</v>
+      </c>
+      <c r="C3661">
+        <v>4</v>
+      </c>
+      <c r="D3661">
+        <v>1</v>
+      </c>
+      <c r="E3661">
+        <v>3</v>
+      </c>
+      <c r="F3661">
+        <v>5400</v>
+      </c>
+      <c r="H3661" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3662" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3662">
+        <v>8</v>
+      </c>
+      <c r="C3662">
+        <v>0</v>
+      </c>
+      <c r="D3662">
+        <v>0</v>
+      </c>
+      <c r="E3662">
+        <v>0</v>
+      </c>
+      <c r="H3662" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3663" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3663">
+        <v>9</v>
+      </c>
+      <c r="C3663">
+        <v>0</v>
+      </c>
+      <c r="D3663">
+        <v>0</v>
+      </c>
+      <c r="E3663">
+        <v>0</v>
+      </c>
+      <c r="H3663" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3664" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3664">
+        <v>10</v>
+      </c>
+      <c r="C3664">
+        <v>0</v>
+      </c>
+      <c r="D3664">
+        <v>0</v>
+      </c>
+      <c r="E3664">
+        <v>0</v>
+      </c>
+      <c r="H3664" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3665" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3665">
+        <v>11</v>
+      </c>
+      <c r="C3665">
+        <v>0</v>
+      </c>
+      <c r="D3665">
+        <v>0</v>
+      </c>
+      <c r="E3665">
+        <v>0</v>
+      </c>
+      <c r="H3665" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3666" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3666">
+        <v>12</v>
+      </c>
+      <c r="C3666">
+        <v>0</v>
+      </c>
+      <c r="D3666">
+        <v>0</v>
+      </c>
+      <c r="E3666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3667" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3667">
+        <v>12</v>
+      </c>
+      <c r="C3667">
+        <v>1</v>
+      </c>
+      <c r="D3667">
+        <v>0</v>
+      </c>
+      <c r="E3667">
+        <v>3</v>
+      </c>
+      <c r="F3667">
+        <v>900</v>
+      </c>
+      <c r="G3667">
+        <v>3600</v>
+      </c>
+      <c r="H3667" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3668" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3668">
+        <v>12</v>
+      </c>
+      <c r="C3668">
+        <v>2</v>
+      </c>
+      <c r="D3668">
+        <v>0</v>
+      </c>
+      <c r="E3668">
+        <v>3</v>
+      </c>
+      <c r="F3668">
+        <v>8100</v>
+      </c>
+      <c r="G3668">
+        <v>10800</v>
+      </c>
+      <c r="H3668" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3669" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3669">
+        <v>13</v>
+      </c>
+      <c r="C3669">
+        <v>0</v>
+      </c>
+      <c r="D3669">
+        <v>0</v>
+      </c>
+      <c r="E3669">
+        <v>0</v>
+      </c>
+      <c r="H3669" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3670" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3670">
+        <v>14</v>
+      </c>
+      <c r="C3670">
+        <v>0</v>
+      </c>
+      <c r="D3670">
+        <v>0</v>
+      </c>
+      <c r="E3670">
+        <v>0</v>
+      </c>
+      <c r="H3670" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3671" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3671">
+        <v>15</v>
+      </c>
+      <c r="C3671">
+        <v>0</v>
+      </c>
+      <c r="D3671">
+        <v>0</v>
+      </c>
+      <c r="E3671">
+        <v>0</v>
+      </c>
+      <c r="H3671" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3672" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3672">
+        <v>16</v>
+      </c>
+      <c r="C3672">
+        <v>0</v>
+      </c>
+      <c r="D3672">
+        <v>0</v>
+      </c>
+      <c r="E3672">
+        <v>0</v>
+      </c>
+      <c r="H3672" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3673" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3673">
+        <v>17</v>
+      </c>
+      <c r="C3673">
+        <v>0</v>
+      </c>
+      <c r="D3673">
+        <v>0</v>
+      </c>
+      <c r="E3673">
+        <v>0</v>
+      </c>
+      <c r="H3673" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3674" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3674">
+        <v>18</v>
+      </c>
+      <c r="C3674">
+        <v>0</v>
+      </c>
+      <c r="D3674">
+        <v>0</v>
+      </c>
+      <c r="E3674">
+        <v>0</v>
+      </c>
+      <c r="H3674" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3675" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3675">
+        <v>19</v>
+      </c>
+      <c r="C3675">
+        <v>0</v>
+      </c>
+      <c r="D3675">
+        <v>0</v>
+      </c>
+      <c r="E3675">
+        <v>0</v>
+      </c>
+      <c r="H3675" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3676" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3676">
+        <v>20</v>
+      </c>
+      <c r="C3676">
+        <v>0</v>
+      </c>
+      <c r="D3676">
+        <v>0</v>
+      </c>
+      <c r="E3676">
+        <v>0</v>
+      </c>
+      <c r="H3676" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3677" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3677">
+        <v>21</v>
+      </c>
+      <c r="C3677">
+        <v>0</v>
+      </c>
+      <c r="D3677">
+        <v>0</v>
+      </c>
+      <c r="E3677">
+        <v>0</v>
+      </c>
+      <c r="H3677" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3678" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3678">
+        <v>22</v>
+      </c>
+      <c r="C3678">
+        <v>0</v>
+      </c>
+      <c r="D3678">
+        <v>0</v>
+      </c>
+      <c r="E3678">
+        <v>0</v>
+      </c>
+      <c r="H3678" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3679" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3679">
+        <v>23</v>
+      </c>
+      <c r="C3679">
+        <v>0</v>
+      </c>
+      <c r="D3679">
+        <v>0</v>
+      </c>
+      <c r="E3679">
+        <v>0</v>
+      </c>
+      <c r="H3679" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3680" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3680">
+        <v>24</v>
+      </c>
+      <c r="C3680">
+        <v>0</v>
+      </c>
+      <c r="D3680">
+        <v>0</v>
+      </c>
+      <c r="E3680">
+        <v>0</v>
+      </c>
+      <c r="H3680" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3681" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3681">
+        <v>25</v>
+      </c>
+      <c r="C3681">
+        <v>0</v>
+      </c>
+      <c r="D3681">
+        <v>0</v>
+      </c>
+      <c r="E3681">
+        <v>0</v>
+      </c>
+      <c r="H3681" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3682" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3682">
+        <v>26</v>
+      </c>
+      <c r="C3682">
+        <v>0</v>
+      </c>
+      <c r="D3682">
+        <v>0</v>
+      </c>
+      <c r="E3682">
+        <v>0</v>
+      </c>
+      <c r="H3682" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3683" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3683">
+        <v>27</v>
+      </c>
+      <c r="C3683">
+        <v>0</v>
+      </c>
+      <c r="D3683">
+        <v>0</v>
+      </c>
+      <c r="E3683">
+        <v>0</v>
+      </c>
+      <c r="H3683" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3684" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3684">
+        <v>28</v>
+      </c>
+      <c r="C3684">
+        <v>0</v>
+      </c>
+      <c r="D3684">
+        <v>0</v>
+      </c>
+      <c r="E3684">
+        <v>0</v>
+      </c>
+      <c r="H3684" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3685" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3685">
+        <v>29</v>
+      </c>
+      <c r="C3685">
+        <v>0</v>
+      </c>
+      <c r="D3685">
+        <v>0</v>
+      </c>
+      <c r="E3685">
+        <v>0</v>
+      </c>
+      <c r="H3685" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3686" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3686">
+        <v>30</v>
+      </c>
+      <c r="C3686">
+        <v>0</v>
+      </c>
+      <c r="D3686">
+        <v>0</v>
+      </c>
+      <c r="E3686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3687" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3687">
+        <v>30</v>
+      </c>
+      <c r="C3687">
+        <v>1</v>
+      </c>
+      <c r="D3687">
+        <v>1</v>
+      </c>
+      <c r="E3687">
+        <v>3</v>
+      </c>
+      <c r="F3687">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3688" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3688">
+        <v>31</v>
+      </c>
+      <c r="C3688">
+        <v>0</v>
+      </c>
+      <c r="D3688">
+        <v>0</v>
+      </c>
+      <c r="E3688">
+        <v>0</v>
+      </c>
+      <c r="H3688" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3689" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3689">
+        <v>32</v>
+      </c>
+      <c r="C3689">
+        <v>0</v>
+      </c>
+      <c r="D3689">
+        <v>0</v>
+      </c>
+      <c r="E3689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3690" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3690">
+        <v>32</v>
+      </c>
+      <c r="C3690">
+        <v>1</v>
+      </c>
+      <c r="D3690">
+        <v>1</v>
+      </c>
+      <c r="E3690">
+        <v>2</v>
+      </c>
+      <c r="H3690" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3691" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3691">
+        <v>33</v>
+      </c>
+      <c r="C3691">
+        <v>0</v>
+      </c>
+      <c r="D3691">
+        <v>0</v>
+      </c>
+      <c r="E3691">
+        <v>0</v>
+      </c>
+      <c r="H3691" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3692" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3692">
+        <v>33</v>
+      </c>
+      <c r="C3692">
+        <v>1</v>
+      </c>
+      <c r="D3692">
+        <v>1</v>
+      </c>
+      <c r="E3692">
+        <v>4</v>
+      </c>
+      <c r="G3692">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3693" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3693">
+        <v>34</v>
+      </c>
+      <c r="C3693">
+        <v>0</v>
+      </c>
+      <c r="D3693">
+        <v>0</v>
+      </c>
+      <c r="E3693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3694" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3694">
+        <v>35</v>
+      </c>
+      <c r="C3694">
+        <v>0</v>
+      </c>
+      <c r="D3694">
+        <v>0</v>
+      </c>
+      <c r="E3694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3695" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3695">
+        <v>35</v>
+      </c>
+      <c r="C3695">
+        <v>1</v>
+      </c>
+      <c r="D3695">
+        <v>1</v>
+      </c>
+      <c r="E3695">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3696" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3696">
+        <v>36</v>
+      </c>
+      <c r="C3696">
+        <v>0</v>
+      </c>
+      <c r="D3696">
+        <v>0</v>
+      </c>
+      <c r="E3696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3697" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3697">
+        <v>36</v>
+      </c>
+      <c r="C3697">
+        <v>1</v>
+      </c>
+      <c r="D3697">
+        <v>1</v>
+      </c>
+      <c r="E3697">
+        <v>2</v>
+      </c>
+      <c r="F3697">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3698" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3698">
+        <v>37</v>
+      </c>
+      <c r="C3698">
+        <v>0</v>
+      </c>
+      <c r="D3698">
+        <v>0</v>
+      </c>
+      <c r="E3698">
+        <v>0</v>
+      </c>
+      <c r="H3698" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3699" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3699">
+        <v>38</v>
+      </c>
+      <c r="C3699">
+        <v>0</v>
+      </c>
+      <c r="D3699">
+        <v>0</v>
+      </c>
+      <c r="E3699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3700" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3700">
+        <v>38</v>
+      </c>
+      <c r="C3700">
+        <v>1</v>
+      </c>
+      <c r="D3700">
+        <v>1</v>
+      </c>
+      <c r="E3700">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3701" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3701">
+        <v>39</v>
+      </c>
+      <c r="C3701">
+        <v>0</v>
+      </c>
+      <c r="D3701">
+        <v>0</v>
+      </c>
+      <c r="E3701">
+        <v>0</v>
+      </c>
+      <c r="H3701" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3702" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3702">
+        <v>40</v>
+      </c>
+      <c r="C3702">
+        <v>0</v>
+      </c>
+      <c r="D3702">
+        <v>0</v>
+      </c>
+      <c r="E3702">
+        <v>0</v>
+      </c>
+      <c r="H3702" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3703" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3703">
+        <v>40</v>
+      </c>
+      <c r="C3703">
+        <v>1</v>
+      </c>
+      <c r="D3703">
+        <v>1</v>
+      </c>
+      <c r="E3703">
+        <v>3</v>
+      </c>
+      <c r="F3703">
+        <v>900</v>
+      </c>
+      <c r="G3703">
+        <v>2700</v>
+      </c>
+      <c r="H3703" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3704" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3704">
+        <v>40</v>
+      </c>
+      <c r="C3704">
+        <v>2</v>
+      </c>
+      <c r="D3704">
+        <v>1</v>
+      </c>
+      <c r="E3704">
+        <v>3</v>
+      </c>
+      <c r="F3704">
+        <v>3600</v>
+      </c>
+      <c r="G3704">
+        <v>7200</v>
+      </c>
+      <c r="H3704" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3705" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3705">
+        <v>40</v>
+      </c>
+      <c r="C3705">
+        <v>3</v>
+      </c>
+      <c r="D3705">
+        <v>0</v>
+      </c>
+      <c r="E3705">
+        <v>4</v>
+      </c>
+      <c r="F3705">
+        <v>7200</v>
+      </c>
+      <c r="H3705" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3706" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3706">
+        <v>40</v>
+      </c>
+      <c r="C3706">
+        <v>4</v>
+      </c>
+      <c r="D3706">
+        <v>1</v>
+      </c>
+      <c r="E3706">
+        <v>2</v>
+      </c>
+      <c r="F3706">
+        <v>7200</v>
+      </c>
+      <c r="G3706">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3707" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3707">
+        <v>40</v>
+      </c>
+      <c r="C3707">
+        <v>5</v>
+      </c>
+      <c r="D3707">
+        <v>1</v>
+      </c>
+      <c r="E3707">
+        <v>2</v>
+      </c>
+      <c r="F3707">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3708" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3708">
+        <v>40</v>
+      </c>
+      <c r="C3708">
+        <v>6</v>
+      </c>
+      <c r="D3708">
+        <v>1</v>
+      </c>
+      <c r="E3708">
+        <v>3</v>
+      </c>
+      <c r="F3708">
+        <v>9900</v>
+      </c>
+      <c r="H3708" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3709" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3709">
+        <v>41</v>
+      </c>
+      <c r="C3709">
+        <v>0</v>
+      </c>
+      <c r="D3709">
+        <v>0</v>
+      </c>
+      <c r="E3709">
+        <v>0</v>
+      </c>
+      <c r="H3709" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3710" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3710">
+        <v>42</v>
+      </c>
+      <c r="C3710">
+        <v>0</v>
+      </c>
+      <c r="D3710">
+        <v>0</v>
+      </c>
+      <c r="E3710">
+        <v>0</v>
+      </c>
+      <c r="H3710" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3711" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3711">
+        <v>43</v>
+      </c>
+      <c r="C3711">
+        <v>0</v>
+      </c>
+      <c r="D3711">
+        <v>0</v>
+      </c>
+      <c r="E3711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3712" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3712">
+        <v>43</v>
+      </c>
+      <c r="C3712">
+        <v>1</v>
+      </c>
+      <c r="D3712">
+        <v>0</v>
+      </c>
+      <c r="E3712">
+        <v>3</v>
+      </c>
+      <c r="F3712">
+        <v>2700</v>
+      </c>
+      <c r="G3712">
+        <v>9900</v>
+      </c>
+      <c r="H3712" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3713" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3713">
+        <v>43</v>
+      </c>
+      <c r="C3713">
+        <v>2</v>
+      </c>
+      <c r="D3713">
+        <v>1</v>
+      </c>
+      <c r="E3713">
+        <v>3</v>
+      </c>
+      <c r="F3713">
+        <v>1800</v>
+      </c>
+      <c r="G3713">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3714" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3714">
+        <v>44</v>
+      </c>
+      <c r="C3714">
+        <v>0</v>
+      </c>
+      <c r="D3714">
+        <v>0</v>
+      </c>
+      <c r="E3714">
+        <v>0</v>
+      </c>
+      <c r="H3714" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3715" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3715">
+        <v>45</v>
+      </c>
+      <c r="C3715">
+        <v>0</v>
+      </c>
+      <c r="D3715">
+        <v>0</v>
+      </c>
+      <c r="E3715">
+        <v>0</v>
+      </c>
+      <c r="H3715" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3716" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3716">
+        <v>46</v>
+      </c>
+      <c r="C3716">
+        <v>0</v>
+      </c>
+      <c r="D3716">
+        <v>0</v>
+      </c>
+      <c r="E3716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3717" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3717">
+        <v>46</v>
+      </c>
+      <c r="C3717">
+        <v>1</v>
+      </c>
+      <c r="D3717">
+        <v>1</v>
+      </c>
+      <c r="E3717">
+        <v>5</v>
+      </c>
+      <c r="F3717">
+        <v>2700</v>
+      </c>
+      <c r="G3717">
+        <v>7200</v>
+      </c>
+      <c r="H3717" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3718" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3718">
+        <v>47</v>
+      </c>
+      <c r="C3718">
+        <v>0</v>
+      </c>
+      <c r="D3718">
+        <v>0</v>
+      </c>
+      <c r="E3718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3719" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3719">
+        <v>47</v>
+      </c>
+      <c r="C3719">
+        <v>1</v>
+      </c>
+      <c r="D3719">
+        <v>1</v>
+      </c>
+      <c r="E3719">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3720" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3720">
+        <v>48</v>
+      </c>
+      <c r="C3720">
+        <v>0</v>
+      </c>
+      <c r="D3720">
+        <v>0</v>
+      </c>
+      <c r="E3720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3721" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3721">
+        <v>48</v>
+      </c>
+      <c r="C3721">
+        <v>1</v>
+      </c>
+      <c r="D3721">
+        <v>1</v>
+      </c>
+      <c r="E3721">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3722" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3722">
+        <v>49</v>
+      </c>
+      <c r="C3722">
+        <v>0</v>
+      </c>
+      <c r="D3722">
+        <v>0</v>
+      </c>
+      <c r="E3722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3723" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3723">
+        <v>49</v>
+      </c>
+      <c r="C3723">
+        <v>1</v>
+      </c>
+      <c r="D3723">
+        <v>1</v>
+      </c>
+      <c r="E3723">
+        <v>3</v>
+      </c>
+      <c r="F3723">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3724" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3724">
+        <v>50</v>
+      </c>
+      <c r="C3724">
+        <v>0</v>
+      </c>
+      <c r="D3724">
+        <v>0</v>
+      </c>
+      <c r="E3724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3725" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3725">
+        <v>50</v>
+      </c>
+      <c r="C3725">
+        <v>1</v>
+      </c>
+      <c r="D3725">
+        <v>1</v>
+      </c>
+      <c r="E3725">
+        <v>4</v>
+      </c>
+      <c r="F3725">
+        <v>2700</v>
+      </c>
+      <c r="H3725" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3726" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3726">
+        <v>51</v>
+      </c>
+      <c r="C3726">
+        <v>0</v>
+      </c>
+      <c r="D3726">
+        <v>0</v>
+      </c>
+      <c r="E3726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3727" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3727">
+        <v>51</v>
+      </c>
+      <c r="C3727">
+        <v>1</v>
+      </c>
+      <c r="D3727">
+        <v>1</v>
+      </c>
+      <c r="E3727">
+        <v>4</v>
+      </c>
+      <c r="F3727">
+        <v>6300</v>
+      </c>
+      <c r="H3727" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3728" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3728">
+        <v>52</v>
+      </c>
+      <c r="C3728">
+        <v>0</v>
+      </c>
+      <c r="D3728">
+        <v>0</v>
+      </c>
+      <c r="E3728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3729" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3729">
+        <v>52</v>
+      </c>
+      <c r="C3729">
+        <v>1</v>
+      </c>
+      <c r="D3729">
+        <v>0</v>
+      </c>
+      <c r="E3729">
+        <v>4</v>
+      </c>
+      <c r="G3729">
+        <v>9000</v>
+      </c>
+      <c r="H3729" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3730" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3730">
+        <v>53</v>
+      </c>
+      <c r="C3730">
+        <v>0</v>
+      </c>
+      <c r="D3730">
+        <v>0</v>
+      </c>
+      <c r="E3730">
+        <v>0</v>
+      </c>
+      <c r="H3730" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3731" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3731">
+        <v>54</v>
+      </c>
+      <c r="C3731">
+        <v>0</v>
+      </c>
+      <c r="D3731">
+        <v>0</v>
+      </c>
+      <c r="E3731">
+        <v>0</v>
+      </c>
+      <c r="H3731" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3732" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3732">
+        <v>55</v>
+      </c>
+      <c r="C3732">
+        <v>0</v>
+      </c>
+      <c r="D3732">
+        <v>0</v>
+      </c>
+      <c r="E3732">
+        <v>0</v>
+      </c>
+      <c r="H3732" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3733" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3733">
+        <v>56</v>
+      </c>
+      <c r="C3733">
+        <v>0</v>
+      </c>
+      <c r="D3733">
+        <v>0</v>
+      </c>
+      <c r="E3733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3734" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3734">
+        <v>56</v>
+      </c>
+      <c r="C3734">
+        <v>1</v>
+      </c>
+      <c r="D3734">
+        <v>1</v>
+      </c>
+      <c r="E3734">
+        <v>2</v>
+      </c>
+      <c r="F3734">
+        <v>1800</v>
+      </c>
+      <c r="G3734">
+        <v>7200</v>
+      </c>
+      <c r="H3734" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3735" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3735">
+        <v>57</v>
+      </c>
+      <c r="C3735">
+        <v>0</v>
+      </c>
+      <c r="D3735">
+        <v>0</v>
+      </c>
+      <c r="E3735">
+        <v>0</v>
+      </c>
+      <c r="H3735" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3736" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3736">
+        <v>58</v>
+      </c>
+      <c r="C3736">
+        <v>0</v>
+      </c>
+      <c r="D3736">
+        <v>0</v>
+      </c>
+      <c r="E3736">
+        <v>0</v>
+      </c>
+      <c r="H3736" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3737" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3737">
+        <v>59</v>
+      </c>
+      <c r="C3737">
+        <v>0</v>
+      </c>
+      <c r="D3737">
+        <v>0</v>
+      </c>
+      <c r="E3737">
+        <v>0</v>
+      </c>
+      <c r="H3737" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3738" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3738">
+        <v>60</v>
+      </c>
+      <c r="C3738">
+        <v>0</v>
+      </c>
+      <c r="D3738">
+        <v>0</v>
+      </c>
+      <c r="E3738">
+        <v>0</v>
+      </c>
+      <c r="H3738" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3739" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3739">
+        <v>61</v>
+      </c>
+      <c r="C3739">
+        <v>0</v>
+      </c>
+      <c r="D3739">
+        <v>0</v>
+      </c>
+      <c r="E3739">
+        <v>0</v>
+      </c>
+      <c r="H3739" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3740" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3740">
+        <v>62</v>
+      </c>
+      <c r="C3740">
+        <v>0</v>
+      </c>
+      <c r="D3740">
+        <v>0</v>
+      </c>
+      <c r="E3740">
+        <v>0</v>
+      </c>
+      <c r="H3740" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3741" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3741">
+        <v>63</v>
+      </c>
+      <c r="C3741">
+        <v>0</v>
+      </c>
+      <c r="D3741">
+        <v>0</v>
+      </c>
+      <c r="E3741">
+        <v>0</v>
+      </c>
+      <c r="H3741" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3742" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3742">
+        <v>64</v>
+      </c>
+      <c r="C3742">
+        <v>0</v>
+      </c>
+      <c r="D3742">
+        <v>0</v>
+      </c>
+      <c r="E3742">
+        <v>0</v>
+      </c>
+      <c r="H3742" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3743" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3743">
+        <v>1</v>
+      </c>
+      <c r="C3743">
+        <v>0</v>
+      </c>
+      <c r="D3743">
+        <v>0</v>
+      </c>
+      <c r="E3743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3744" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3744">
+        <v>1</v>
+      </c>
+      <c r="C3744">
+        <v>1</v>
+      </c>
+      <c r="D3744">
+        <v>1</v>
+      </c>
+      <c r="E3744">
+        <v>3</v>
+      </c>
+      <c r="F3744">
+        <v>4500</v>
+      </c>
+      <c r="G3744">
+        <v>9900</v>
+      </c>
+      <c r="H3744" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3745" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3745">
+        <v>2</v>
+      </c>
+      <c r="C3745">
+        <v>0</v>
+      </c>
+      <c r="D3745">
+        <v>0</v>
+      </c>
+      <c r="E3745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3746" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3746">
+        <v>2</v>
+      </c>
+      <c r="C3746">
+        <v>1</v>
+      </c>
+      <c r="D3746">
+        <v>1</v>
+      </c>
+      <c r="E3746">
+        <v>5</v>
+      </c>
+      <c r="F3746">
+        <v>900</v>
+      </c>
+      <c r="G3746">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3747" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3747">
+        <v>3</v>
+      </c>
+      <c r="C3747">
+        <v>0</v>
+      </c>
+      <c r="D3747">
+        <v>0</v>
+      </c>
+      <c r="E3747">
+        <v>0</v>
+      </c>
+      <c r="H3747" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3748" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3748">
+        <v>4</v>
+      </c>
+      <c r="C3748">
+        <v>0</v>
+      </c>
+      <c r="D3748">
+        <v>0</v>
+      </c>
+      <c r="E3748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3749" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3749">
+        <v>4</v>
+      </c>
+      <c r="C3749">
+        <v>1</v>
+      </c>
+      <c r="D3749">
+        <v>1</v>
+      </c>
+      <c r="E3749">
+        <v>4</v>
+      </c>
+      <c r="F3749">
+        <v>900</v>
+      </c>
+      <c r="G3749">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3750" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3750">
+        <v>4</v>
+      </c>
+      <c r="C3750">
+        <v>2</v>
+      </c>
+      <c r="D3750">
+        <v>1</v>
+      </c>
+      <c r="E3750">
+        <v>4</v>
+      </c>
+      <c r="F3750">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3751" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3751">
+        <v>4</v>
+      </c>
+      <c r="C3751">
+        <v>3</v>
+      </c>
+      <c r="D3751">
+        <v>1</v>
+      </c>
+      <c r="E3751">
+        <v>3</v>
+      </c>
+      <c r="F3751">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3752" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3752">
+        <v>5</v>
+      </c>
+      <c r="C3752">
+        <v>0</v>
+      </c>
+      <c r="D3752">
+        <v>0</v>
+      </c>
+      <c r="E3752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3753" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3753">
+        <v>5</v>
+      </c>
+      <c r="C3753">
+        <v>1</v>
+      </c>
+      <c r="D3753">
+        <v>1</v>
+      </c>
+      <c r="E3753">
+        <v>5</v>
+      </c>
+      <c r="G3753">
+        <v>10800</v>
+      </c>
+      <c r="H3753" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3754" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3754">
+        <v>5</v>
+      </c>
+      <c r="C3754">
+        <v>2</v>
+      </c>
+      <c r="D3754">
+        <v>1</v>
+      </c>
+      <c r="E3754">
+        <v>3</v>
+      </c>
+      <c r="F3754">
+        <v>12600</v>
+      </c>
+      <c r="H3754" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3755" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3755">
+        <v>6</v>
+      </c>
+      <c r="C3755">
+        <v>0</v>
+      </c>
+      <c r="D3755">
+        <v>0</v>
+      </c>
+      <c r="E3755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3756" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3756">
+        <v>6</v>
+      </c>
+      <c r="C3756">
+        <v>1</v>
+      </c>
+      <c r="D3756">
+        <v>1</v>
+      </c>
+      <c r="E3756">
+        <v>2</v>
+      </c>
+      <c r="F3756">
+        <v>6300</v>
+      </c>
+      <c r="G3756">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3757" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3757">
+        <v>7</v>
+      </c>
+      <c r="C3757">
+        <v>0</v>
+      </c>
+      <c r="D3757">
+        <v>0</v>
+      </c>
+      <c r="E3757">
+        <v>0</v>
+      </c>
+      <c r="H3757" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3758" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3758">
+        <v>8</v>
+      </c>
+      <c r="C3758">
+        <v>0</v>
+      </c>
+      <c r="D3758">
+        <v>0</v>
+      </c>
+      <c r="E3758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3759" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3759">
+        <v>8</v>
+      </c>
+      <c r="C3759">
+        <v>1</v>
+      </c>
+      <c r="D3759">
+        <v>1</v>
+      </c>
+      <c r="E3759">
+        <v>3</v>
+      </c>
+      <c r="F3759">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3760" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3760">
+        <v>9</v>
+      </c>
+      <c r="C3760">
+        <v>0</v>
+      </c>
+      <c r="D3760">
+        <v>0</v>
+      </c>
+      <c r="E3760">
+        <v>0</v>
+      </c>
+      <c r="H3760" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3761" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3761">
+        <v>10</v>
+      </c>
+      <c r="C3761">
+        <v>0</v>
+      </c>
+      <c r="D3761">
+        <v>0</v>
+      </c>
+      <c r="E3761">
+        <v>0</v>
+      </c>
+      <c r="H3761" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3762" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3762">
+        <v>11</v>
+      </c>
+      <c r="C3762">
+        <v>0</v>
+      </c>
+      <c r="D3762">
+        <v>0</v>
+      </c>
+      <c r="E3762">
+        <v>0</v>
+      </c>
+      <c r="H3762" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3763" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3763">
+        <v>12</v>
+      </c>
+      <c r="C3763">
+        <v>0</v>
+      </c>
+      <c r="D3763">
+        <v>0</v>
+      </c>
+      <c r="E3763">
+        <v>0</v>
+      </c>
+      <c r="H3763" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3764" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3764">
+        <v>12</v>
+      </c>
+      <c r="C3764">
+        <v>1</v>
+      </c>
+      <c r="D3764">
+        <v>1</v>
+      </c>
+      <c r="E3764">
+        <v>5</v>
+      </c>
+      <c r="F3764">
+        <v>11700</v>
+      </c>
+      <c r="H3764" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3765" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3765">
+        <v>13</v>
+      </c>
+      <c r="C3765">
+        <v>0</v>
+      </c>
+      <c r="D3765">
+        <v>0</v>
+      </c>
+      <c r="E3765">
+        <v>0</v>
+      </c>
+      <c r="H3765" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3766" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3766">
+        <v>14</v>
+      </c>
+      <c r="C3766">
+        <v>0</v>
+      </c>
+      <c r="D3766">
+        <v>0</v>
+      </c>
+      <c r="E3766">
+        <v>0</v>
+      </c>
+      <c r="H3766" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3767" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3767">
+        <v>14</v>
+      </c>
+      <c r="C3767">
+        <v>1</v>
+      </c>
+      <c r="D3767">
+        <v>1</v>
+      </c>
+      <c r="E3767">
+        <v>2</v>
+      </c>
+      <c r="F3767">
+        <v>2700</v>
+      </c>
+      <c r="G3767">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3768" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3768">
+        <v>15</v>
+      </c>
+      <c r="C3768">
+        <v>0</v>
+      </c>
+      <c r="D3768">
+        <v>0</v>
+      </c>
+      <c r="E3768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3769" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3769">
+        <v>15</v>
+      </c>
+      <c r="C3769">
+        <v>1</v>
+      </c>
+      <c r="D3769">
+        <v>1</v>
+      </c>
+      <c r="E3769">
+        <v>1</v>
+      </c>
+      <c r="F3769">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3770" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3770">
+        <v>16</v>
+      </c>
+      <c r="C3770">
+        <v>0</v>
+      </c>
+      <c r="D3770">
+        <v>0</v>
+      </c>
+      <c r="E3770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3771" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3771">
+        <v>16</v>
+      </c>
+      <c r="C3771">
+        <v>1</v>
+      </c>
+      <c r="D3771">
+        <v>1</v>
+      </c>
+      <c r="E3771">
+        <v>5</v>
+      </c>
+      <c r="F3771">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3772" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3772">
+        <v>17</v>
+      </c>
+      <c r="C3772">
+        <v>0</v>
+      </c>
+      <c r="D3772">
+        <v>0</v>
+      </c>
+      <c r="E3772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3773" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3773">
+        <v>17</v>
+      </c>
+      <c r="C3773">
+        <v>1</v>
+      </c>
+      <c r="D3773">
+        <v>1</v>
+      </c>
+      <c r="E3773">
+        <v>4</v>
+      </c>
+      <c r="F3773">
+        <v>900</v>
+      </c>
+      <c r="G3773">
+        <v>6300</v>
+      </c>
+      <c r="H3773" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3774" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3774">
+        <v>17</v>
+      </c>
+      <c r="C3774">
+        <v>2</v>
+      </c>
+      <c r="D3774">
+        <v>1</v>
+      </c>
+      <c r="E3774">
+        <v>4</v>
+      </c>
+      <c r="F3774">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3775" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3775">
+        <v>17</v>
+      </c>
+      <c r="C3775">
+        <v>3</v>
+      </c>
+      <c r="D3775">
+        <v>1</v>
+      </c>
+      <c r="E3775">
+        <v>3</v>
+      </c>
+      <c r="F3775">
+        <v>6300</v>
+      </c>
+      <c r="G3775">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3776" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3776">
+        <v>18</v>
+      </c>
+      <c r="C3776">
+        <v>0</v>
+      </c>
+      <c r="D3776">
+        <v>0</v>
+      </c>
+      <c r="E3776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3777" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3777">
+        <v>18</v>
+      </c>
+      <c r="C3777">
+        <v>1</v>
+      </c>
+      <c r="D3777">
+        <v>1</v>
+      </c>
+      <c r="E3777">
+        <v>4</v>
+      </c>
+      <c r="F3777">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3778" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3778">
+        <v>19</v>
+      </c>
+      <c r="C3778">
+        <v>0</v>
+      </c>
+      <c r="D3778">
+        <v>0</v>
+      </c>
+      <c r="E3778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3779" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3779">
+        <v>19</v>
+      </c>
+      <c r="C3779">
+        <v>1</v>
+      </c>
+      <c r="D3779">
+        <v>1</v>
+      </c>
+      <c r="E3779">
+        <v>2</v>
+      </c>
+      <c r="F3779">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3780" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3780">
+        <v>19</v>
+      </c>
+      <c r="C3780">
+        <v>2</v>
+      </c>
+      <c r="D3780">
+        <v>1</v>
+      </c>
+      <c r="E3780">
+        <v>4</v>
+      </c>
+      <c r="F3780">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3781" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3781">
+        <v>20</v>
+      </c>
+      <c r="C3781">
+        <v>0</v>
+      </c>
+      <c r="D3781">
+        <v>0</v>
+      </c>
+      <c r="E3781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3782" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3782">
+        <v>20</v>
+      </c>
+      <c r="C3782">
+        <v>1</v>
+      </c>
+      <c r="D3782">
+        <v>1</v>
+      </c>
+      <c r="E3782">
+        <v>3</v>
+      </c>
+      <c r="F3782">
+        <v>5400</v>
+      </c>
+      <c r="H3782" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3783" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3783">
+        <v>21</v>
+      </c>
+      <c r="C3783">
+        <v>0</v>
+      </c>
+      <c r="D3783">
+        <v>0</v>
+      </c>
+      <c r="E3783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3784" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3784">
+        <v>21</v>
+      </c>
+      <c r="C3784">
+        <v>1</v>
+      </c>
+      <c r="D3784">
+        <v>1</v>
+      </c>
+      <c r="E3784">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3785" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3785">
+        <v>22</v>
+      </c>
+      <c r="C3785">
+        <v>0</v>
+      </c>
+      <c r="D3785">
+        <v>0</v>
+      </c>
+      <c r="E3785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3786" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3786">
+        <v>22</v>
+      </c>
+      <c r="C3786">
+        <v>1</v>
+      </c>
+      <c r="D3786">
+        <v>0</v>
+      </c>
+      <c r="E3786">
+        <v>4</v>
+      </c>
+      <c r="G3786">
+        <v>10800</v>
+      </c>
+      <c r="H3786" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3787" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3787">
+        <v>23</v>
+      </c>
+      <c r="C3787">
+        <v>0</v>
+      </c>
+      <c r="D3787">
+        <v>0</v>
+      </c>
+      <c r="E3787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3788" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3788">
+        <v>23</v>
+      </c>
+      <c r="C3788">
+        <v>1</v>
+      </c>
+      <c r="D3788">
+        <v>1</v>
+      </c>
+      <c r="E3788">
+        <v>4</v>
+      </c>
+      <c r="F3788">
+        <v>1800</v>
+      </c>
+      <c r="G3788">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3789" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3789">
+        <v>24</v>
+      </c>
+      <c r="C3789">
+        <v>0</v>
+      </c>
+      <c r="D3789">
+        <v>0</v>
+      </c>
+      <c r="E3789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3790" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3790">
+        <v>24</v>
+      </c>
+      <c r="C3790">
+        <v>1</v>
+      </c>
+      <c r="D3790">
+        <v>1</v>
+      </c>
+      <c r="E3790">
+        <v>5</v>
+      </c>
+      <c r="F3790">
+        <v>900</v>
+      </c>
+      <c r="G3790">
+        <v>6300</v>
+      </c>
+      <c r="H3790" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3791" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3791">
+        <v>24</v>
+      </c>
+      <c r="C3791">
+        <v>2</v>
+      </c>
+      <c r="D3791">
+        <v>1</v>
+      </c>
+      <c r="E3791">
+        <v>4</v>
+      </c>
+      <c r="F3791">
+        <v>4500</v>
+      </c>
+      <c r="G3791">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3792" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3792">
+        <v>25</v>
+      </c>
+      <c r="C3792">
+        <v>0</v>
+      </c>
+      <c r="D3792">
+        <v>0</v>
+      </c>
+      <c r="E3792">
+        <v>0</v>
+      </c>
+      <c r="H3792" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3793" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3793">
+        <v>26</v>
+      </c>
+      <c r="C3793">
+        <v>0</v>
+      </c>
+      <c r="D3793">
+        <v>0</v>
+      </c>
+      <c r="E3793">
+        <v>0</v>
+      </c>
+      <c r="H3793" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3794" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3794">
+        <v>27</v>
+      </c>
+      <c r="C3794">
+        <v>0</v>
+      </c>
+      <c r="D3794">
+        <v>0</v>
+      </c>
+      <c r="E3794">
+        <v>0</v>
+      </c>
+      <c r="H3794" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3795" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3795">
+        <v>28</v>
+      </c>
+      <c r="C3795">
+        <v>0</v>
+      </c>
+      <c r="D3795">
+        <v>0</v>
+      </c>
+      <c r="E3795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3796" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3796">
+        <v>28</v>
+      </c>
+      <c r="C3796">
+        <v>1</v>
+      </c>
+      <c r="D3796">
+        <v>1</v>
+      </c>
+      <c r="E3796">
+        <v>3</v>
+      </c>
+      <c r="H3796" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3797" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3797">
+        <v>29</v>
+      </c>
+      <c r="C3797">
+        <v>0</v>
+      </c>
+      <c r="D3797">
+        <v>0</v>
+      </c>
+      <c r="E3797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3798" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3798">
+        <v>29</v>
+      </c>
+      <c r="C3798">
+        <v>1</v>
+      </c>
+      <c r="D3798">
+        <v>1</v>
+      </c>
+      <c r="E3798">
+        <v>3</v>
+      </c>
+      <c r="F3798">
+        <v>900</v>
+      </c>
+      <c r="G3798">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3799" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3799">
+        <v>30</v>
+      </c>
+      <c r="C3799">
+        <v>0</v>
+      </c>
+      <c r="D3799">
+        <v>0</v>
+      </c>
+      <c r="E3799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3800" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3800">
+        <v>30</v>
+      </c>
+      <c r="C3800">
+        <v>1</v>
+      </c>
+      <c r="D3800">
+        <v>1</v>
+      </c>
+      <c r="E3800">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3801" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3801">
+        <v>31</v>
+      </c>
+      <c r="C3801">
+        <v>0</v>
+      </c>
+      <c r="D3801">
+        <v>0</v>
+      </c>
+      <c r="E3801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3802" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3802">
+        <v>31</v>
+      </c>
+      <c r="C3802">
+        <v>1</v>
+      </c>
+      <c r="D3802">
+        <v>1</v>
+      </c>
+      <c r="E3802">
+        <v>3</v>
+      </c>
+      <c r="F3802">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3803" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3803">
+        <v>32</v>
+      </c>
+      <c r="C3803">
+        <v>0</v>
+      </c>
+      <c r="D3803">
+        <v>0</v>
+      </c>
+      <c r="E3803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3804" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3804">
+        <v>32</v>
+      </c>
+      <c r="C3804">
+        <v>1</v>
+      </c>
+      <c r="D3804">
+        <v>0</v>
+      </c>
+      <c r="E3804">
+        <v>2</v>
+      </c>
+      <c r="F3804">
+        <v>2700</v>
+      </c>
+      <c r="G3804">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3805" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3805">
+        <v>32</v>
+      </c>
+      <c r="C3805">
+        <v>2</v>
+      </c>
+      <c r="D3805">
+        <v>1</v>
+      </c>
+      <c r="E3805">
+        <v>2</v>
+      </c>
+      <c r="F3805">
+        <v>2700</v>
+      </c>
+      <c r="G3805">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3806" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3806">
+        <v>33</v>
+      </c>
+      <c r="C3806">
+        <v>0</v>
+      </c>
+      <c r="D3806">
+        <v>0</v>
+      </c>
+      <c r="E3806">
+        <v>0</v>
+      </c>
+      <c r="H3806" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3807" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3807">
+        <v>34</v>
+      </c>
+      <c r="C3807">
+        <v>0</v>
+      </c>
+      <c r="D3807">
+        <v>0</v>
+      </c>
+      <c r="E3807">
+        <v>0</v>
+      </c>
+      <c r="H3807" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3808" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3808">
+        <v>35</v>
+      </c>
+      <c r="C3808">
+        <v>0</v>
+      </c>
+      <c r="D3808">
+        <v>0</v>
+      </c>
+      <c r="E3808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3809" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3809">
+        <v>35</v>
+      </c>
+      <c r="C3809">
+        <v>1</v>
+      </c>
+      <c r="D3809">
+        <v>0</v>
+      </c>
+      <c r="E3809">
+        <v>4</v>
+      </c>
+      <c r="F3809">
+        <v>900</v>
+      </c>
+      <c r="H3809" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3810" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3810">
+        <v>36</v>
+      </c>
+      <c r="C3810">
+        <v>0</v>
+      </c>
+      <c r="D3810">
+        <v>0</v>
+      </c>
+      <c r="E3810">
+        <v>0</v>
+      </c>
+      <c r="H3810" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3811" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3811">
+        <v>37</v>
+      </c>
+      <c r="C3811">
+        <v>0</v>
+      </c>
+      <c r="D3811">
+        <v>0</v>
+      </c>
+      <c r="E3811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3812" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3812">
+        <v>37</v>
+      </c>
+      <c r="C3812">
+        <v>1</v>
+      </c>
+      <c r="D3812">
+        <v>0</v>
+      </c>
+      <c r="E3812">
+        <v>4</v>
+      </c>
+      <c r="F3812">
+        <v>7200</v>
+      </c>
+      <c r="H3812" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3813" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3813">
+        <v>38</v>
+      </c>
+      <c r="C3813">
+        <v>0</v>
+      </c>
+      <c r="D3813">
+        <v>0</v>
+      </c>
+      <c r="E3813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3814">
+        <v>38</v>
+      </c>
+      <c r="C3814">
+        <v>1</v>
+      </c>
+      <c r="D3814">
+        <v>1</v>
+      </c>
+      <c r="E3814">
+        <v>3</v>
+      </c>
+      <c r="F3814">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3815">
+        <v>39</v>
+      </c>
+      <c r="C3815">
+        <v>0</v>
+      </c>
+      <c r="D3815">
+        <v>0</v>
+      </c>
+      <c r="E3815">
+        <v>0</v>
+      </c>
+      <c r="H3815" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3816">
+        <v>40</v>
+      </c>
+      <c r="C3816">
+        <v>0</v>
+      </c>
+      <c r="D3816">
+        <v>0</v>
+      </c>
+      <c r="E3816">
+        <v>0</v>
+      </c>
+      <c r="H3816" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3817">
+        <v>41</v>
+      </c>
+      <c r="C3817">
+        <v>0</v>
+      </c>
+      <c r="D3817">
+        <v>0</v>
+      </c>
+      <c r="E3817">
+        <v>0</v>
+      </c>
+      <c r="H3817" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3818">
+        <v>42</v>
+      </c>
+      <c r="C3818">
+        <v>0</v>
+      </c>
+      <c r="D3818">
+        <v>0</v>
+      </c>
+      <c r="E3818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3819">
+        <v>42</v>
+      </c>
+      <c r="C3819">
+        <v>1</v>
+      </c>
+      <c r="D3819">
+        <v>1</v>
+      </c>
+      <c r="E3819">
+        <v>3</v>
+      </c>
+      <c r="F3819">
+        <v>2700</v>
+      </c>
+      <c r="G3819">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3820">
+        <v>43</v>
+      </c>
+      <c r="C3820">
+        <v>0</v>
+      </c>
+      <c r="D3820">
+        <v>0</v>
+      </c>
+      <c r="E3820">
+        <v>0</v>
+      </c>
+      <c r="H3820" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3821">
+        <v>44</v>
+      </c>
+      <c r="C3821">
+        <v>0</v>
+      </c>
+      <c r="D3821">
+        <v>0</v>
+      </c>
+      <c r="E3821">
+        <v>0</v>
+      </c>
+      <c r="H3821" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3822">
+        <v>45</v>
+      </c>
+      <c r="C3822">
+        <v>0</v>
+      </c>
+      <c r="D3822">
+        <v>0</v>
+      </c>
+      <c r="E3822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3823">
+        <v>45</v>
+      </c>
+      <c r="C3823">
+        <v>1</v>
+      </c>
+      <c r="D3823">
+        <v>0</v>
+      </c>
+      <c r="E3823">
+        <v>2</v>
+      </c>
+      <c r="F3823">
+        <v>12600</v>
+      </c>
+      <c r="H3823" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3824">
+        <v>46</v>
+      </c>
+      <c r="C3824">
+        <v>0</v>
+      </c>
+      <c r="D3824">
+        <v>0</v>
+      </c>
+      <c r="E3824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3825">
+        <v>46</v>
+      </c>
+      <c r="C3825">
+        <v>1</v>
+      </c>
+      <c r="D3825">
+        <v>1</v>
+      </c>
+      <c r="E3825">
+        <v>4</v>
+      </c>
+      <c r="G3825">
+        <v>3600</v>
+      </c>
+      <c r="H3825" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3826">
+        <v>46</v>
+      </c>
+      <c r="C3826">
+        <v>2</v>
+      </c>
+      <c r="D3826">
+        <v>0</v>
+      </c>
+      <c r="E3826">
+        <v>2</v>
+      </c>
+      <c r="F3826">
+        <v>9900</v>
+      </c>
+      <c r="G3826">
+        <v>15300</v>
+      </c>
+      <c r="H3826" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3827">
+        <v>47</v>
+      </c>
+      <c r="C3827">
+        <v>0</v>
+      </c>
+      <c r="D3827">
+        <v>0</v>
+      </c>
+      <c r="E3827">
+        <v>0</v>
+      </c>
+      <c r="H3827" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3828">
+        <v>48</v>
+      </c>
+      <c r="C3828">
+        <v>0</v>
+      </c>
+      <c r="D3828">
+        <v>0</v>
+      </c>
+      <c r="E3828">
+        <v>0</v>
+      </c>
+      <c r="H3828" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3829">
+        <v>49</v>
+      </c>
+      <c r="C3829">
+        <v>0</v>
+      </c>
+      <c r="D3829">
+        <v>0</v>
+      </c>
+      <c r="E3829">
+        <v>0</v>
+      </c>
+      <c r="H3829" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3830">
+        <v>50</v>
+      </c>
+      <c r="C3830">
+        <v>0</v>
+      </c>
+      <c r="D3830">
+        <v>0</v>
+      </c>
+      <c r="E3830">
+        <v>0</v>
+      </c>
+      <c r="H3830" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3831">
+        <v>51</v>
+      </c>
+      <c r="C3831">
+        <v>0</v>
+      </c>
+      <c r="D3831">
+        <v>0</v>
+      </c>
+      <c r="E3831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3832">
+        <v>51</v>
+      </c>
+      <c r="C3832">
+        <v>1</v>
+      </c>
+      <c r="D3832">
+        <v>0</v>
+      </c>
+      <c r="E3832">
+        <v>4</v>
+      </c>
+      <c r="F3832">
+        <v>4500</v>
+      </c>
+      <c r="G3832">
+        <v>9900</v>
+      </c>
+      <c r="H3832" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3833">
+        <v>52</v>
+      </c>
+      <c r="C3833">
+        <v>0</v>
+      </c>
+      <c r="D3833">
+        <v>0</v>
+      </c>
+      <c r="E3833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3834">
+        <v>52</v>
+      </c>
+      <c r="C3834">
+        <v>1</v>
+      </c>
+      <c r="D3834">
+        <v>1</v>
+      </c>
+      <c r="E3834">
+        <v>4</v>
+      </c>
+      <c r="F3834">
+        <v>900</v>
+      </c>
+      <c r="G3834">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3835">
+        <v>53</v>
+      </c>
+      <c r="C3835">
+        <v>0</v>
+      </c>
+      <c r="D3835">
+        <v>0</v>
+      </c>
+      <c r="E3835">
+        <v>0</v>
+      </c>
+      <c r="H3835" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3836">
+        <v>54</v>
+      </c>
+      <c r="C3836">
+        <v>0</v>
+      </c>
+      <c r="D3836">
+        <v>0</v>
+      </c>
+      <c r="E3836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3837">
+        <v>54</v>
+      </c>
+      <c r="C3837">
+        <v>1</v>
+      </c>
+      <c r="D3837">
+        <v>0</v>
+      </c>
+      <c r="E3837">
+        <v>4</v>
+      </c>
+      <c r="G3837">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3838">
+        <v>54</v>
+      </c>
+      <c r="C3838">
+        <v>2</v>
+      </c>
+      <c r="D3838">
+        <v>1</v>
+      </c>
+      <c r="E3838">
+        <v>3</v>
+      </c>
+      <c r="F3838">
+        <v>9900</v>
+      </c>
+      <c r="G3838">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3839">
+        <v>55</v>
+      </c>
+      <c r="C3839">
+        <v>0</v>
+      </c>
+      <c r="D3839">
+        <v>0</v>
+      </c>
+      <c r="E3839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3840">
+        <v>55</v>
+      </c>
+      <c r="C3840">
+        <v>1</v>
+      </c>
+      <c r="D3840">
+        <v>1</v>
+      </c>
+      <c r="E3840">
+        <v>3</v>
+      </c>
+      <c r="G3840">
+        <v>13500</v>
+      </c>
+      <c r="H3840" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3841">
+        <v>55</v>
+      </c>
+      <c r="C3841">
+        <v>2</v>
+      </c>
+      <c r="D3841">
+        <v>0</v>
+      </c>
+      <c r="E3841">
+        <v>5</v>
+      </c>
+      <c r="H3841" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3842">
+        <v>56</v>
+      </c>
+      <c r="C3842">
+        <v>0</v>
+      </c>
+      <c r="D3842">
+        <v>0</v>
+      </c>
+      <c r="E3842">
+        <v>0</v>
+      </c>
+      <c r="H3842" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3843">
+        <v>57</v>
+      </c>
+      <c r="C3843">
+        <v>0</v>
+      </c>
+      <c r="D3843">
+        <v>0</v>
+      </c>
+      <c r="E3843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3844">
+        <v>57</v>
+      </c>
+      <c r="C3844">
+        <v>1</v>
+      </c>
+      <c r="D3844">
+        <v>0</v>
+      </c>
+      <c r="E3844">
+        <v>4</v>
+      </c>
+      <c r="G3844">
+        <v>4500</v>
+      </c>
+      <c r="H3844" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3845">
+        <v>58</v>
+      </c>
+      <c r="C3845">
+        <v>0</v>
+      </c>
+      <c r="D3845">
+        <v>0</v>
+      </c>
+      <c r="E3845">
+        <v>0</v>
+      </c>
+      <c r="H3845" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3846">
+        <v>59</v>
+      </c>
+      <c r="C3846">
+        <v>0</v>
+      </c>
+      <c r="D3846">
+        <v>0</v>
+      </c>
+      <c r="E3846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3847" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3847">
+        <v>59</v>
+      </c>
+      <c r="C3847">
+        <v>1</v>
+      </c>
+      <c r="D3847">
+        <v>1</v>
+      </c>
+      <c r="E3847">
+        <v>4</v>
+      </c>
+      <c r="F3847">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3848">
+        <v>60</v>
+      </c>
+      <c r="C3848">
+        <v>0</v>
+      </c>
+      <c r="D3848">
+        <v>0</v>
+      </c>
+      <c r="E3848">
+        <v>0</v>
+      </c>
+      <c r="H3848" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3849">
+        <v>61</v>
+      </c>
+      <c r="C3849">
+        <v>0</v>
+      </c>
+      <c r="D3849">
+        <v>0</v>
+      </c>
+      <c r="E3849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3850">
+        <v>61</v>
+      </c>
+      <c r="C3850">
+        <v>1</v>
+      </c>
+      <c r="D3850">
+        <v>0</v>
+      </c>
+      <c r="E3850">
+        <v>3</v>
+      </c>
+      <c r="F3850">
+        <v>900</v>
+      </c>
+      <c r="G3850">
+        <v>4500</v>
+      </c>
+      <c r="H3850" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3851">
+        <v>62</v>
+      </c>
+      <c r="C3851">
+        <v>0</v>
+      </c>
+      <c r="D3851">
+        <v>0</v>
+      </c>
+      <c r="E3851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3852">
+        <v>62</v>
+      </c>
+      <c r="C3852">
+        <v>1</v>
+      </c>
+      <c r="D3852">
+        <v>1</v>
+      </c>
+      <c r="E3852">
+        <v>4</v>
+      </c>
+      <c r="G3852">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3853">
+        <v>63</v>
+      </c>
+      <c r="C3853">
+        <v>0</v>
+      </c>
+      <c r="D3853">
+        <v>0</v>
+      </c>
+      <c r="E3853">
+        <v>0</v>
+      </c>
+      <c r="H3853" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3854">
+        <v>64</v>
+      </c>
+      <c r="C3854">
+        <v>0</v>
+      </c>
+      <c r="D3854">
+        <v>0</v>
+      </c>
+      <c r="E3854">
+        <v>0</v>
+      </c>
+      <c r="H3854" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8AA7D-B671-4106-9DE4-9B3135DF04D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEF50D9-3AFC-422C-9D93-7B04ECB2239F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="495" windowWidth="18015" windowHeight="14955" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5228" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5229" uniqueCount="466">
   <si>
     <t>Session</t>
   </si>
@@ -1793,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
-  <dimension ref="A1:H3854"/>
+  <dimension ref="A1:H3855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3723" workbookViewId="0">
-      <selection activeCell="A3743" sqref="A3743:A3854"/>
+    <sheetView tabSelected="1" topLeftCell="A3315" workbookViewId="0">
+      <selection activeCell="H3351" sqref="H3351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64064,19 +64064,22 @@
         <v>416</v>
       </c>
       <c r="B3351">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3351">
-        <v>0</v>
-      </c>
-      <c r="H3351" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F3351">
+        <v>2700</v>
+      </c>
+      <c r="G3351">
+        <v>6300</v>
       </c>
     </row>
     <row r="3352" spans="1:8" x14ac:dyDescent="0.25">
@@ -64084,7 +64087,7 @@
         <v>416</v>
       </c>
       <c r="B3352">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3352">
         <v>0</v>
@@ -64104,7 +64107,7 @@
         <v>416</v>
       </c>
       <c r="B3353">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3353">
         <v>0</v>
@@ -64124,7 +64127,7 @@
         <v>416</v>
       </c>
       <c r="B3354">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3354">
         <v>0</v>
@@ -64134,6 +64137,9 @@
       </c>
       <c r="E3354">
         <v>0</v>
+      </c>
+      <c r="H3354" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3355" spans="1:8" x14ac:dyDescent="0.25">
@@ -64144,19 +64150,13 @@
         <v>83</v>
       </c>
       <c r="C3355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3355">
         <v>0</v>
       </c>
       <c r="E3355">
-        <v>2</v>
-      </c>
-      <c r="F3355">
-        <v>8100</v>
-      </c>
-      <c r="H3355" t="s">
-        <v>417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3356" spans="1:8" x14ac:dyDescent="0.25">
@@ -64164,19 +64164,22 @@
         <v>416</v>
       </c>
       <c r="B3356">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3356">
         <v>0</v>
       </c>
       <c r="E3356">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3356">
+        <v>8100</v>
       </c>
       <c r="H3356" t="s">
-        <v>12</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3357" spans="1:8" x14ac:dyDescent="0.25">
@@ -64184,7 +64187,7 @@
         <v>416</v>
       </c>
       <c r="B3357">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3357">
         <v>0</v>
@@ -64194,6 +64197,9 @@
       </c>
       <c r="E3357">
         <v>0</v>
+      </c>
+      <c r="H3357" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3358" spans="1:8" x14ac:dyDescent="0.25">
@@ -64204,19 +64210,13 @@
         <v>85</v>
       </c>
       <c r="C3358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3358">
         <v>0</v>
       </c>
       <c r="E3358">
-        <v>3</v>
-      </c>
-      <c r="F3358">
-        <v>7200</v>
-      </c>
-      <c r="H3358" t="s">
-        <v>418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3359" spans="1:8" x14ac:dyDescent="0.25">
@@ -64224,19 +64224,22 @@
         <v>416</v>
       </c>
       <c r="B3359">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3359">
         <v>0</v>
       </c>
       <c r="E3359">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3359">
+        <v>7200</v>
       </c>
       <c r="H3359" t="s">
-        <v>12</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3360" spans="1:8" x14ac:dyDescent="0.25">
@@ -64244,7 +64247,7 @@
         <v>416</v>
       </c>
       <c r="B3360">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3360">
         <v>0</v>
@@ -64264,7 +64267,7 @@
         <v>416</v>
       </c>
       <c r="B3361">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3361">
         <v>0</v>
@@ -64284,7 +64287,7 @@
         <v>416</v>
       </c>
       <c r="B3362">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3362">
         <v>0</v>
@@ -64294,6 +64297,9 @@
       </c>
       <c r="E3362">
         <v>0</v>
+      </c>
+      <c r="H3362" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3363" spans="1:8" x14ac:dyDescent="0.25">
@@ -64304,19 +64310,13 @@
         <v>89</v>
       </c>
       <c r="C3363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3363">
-        <v>5</v>
-      </c>
-      <c r="F3363">
-        <v>9900</v>
-      </c>
-      <c r="H3363" t="s">
-        <v>419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3364" spans="1:8" x14ac:dyDescent="0.25">
@@ -64324,19 +64324,22 @@
         <v>416</v>
       </c>
       <c r="B3364">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3364">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3364">
+        <v>9900</v>
       </c>
       <c r="H3364" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3365" spans="1:8" x14ac:dyDescent="0.25">
@@ -64344,7 +64347,7 @@
         <v>416</v>
       </c>
       <c r="B3365">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3365">
         <v>0</v>
@@ -64364,7 +64367,7 @@
         <v>416</v>
       </c>
       <c r="B3366">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3366">
         <v>0</v>
@@ -64384,7 +64387,7 @@
         <v>416</v>
       </c>
       <c r="B3367">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3367">
         <v>0</v>
@@ -64404,7 +64407,7 @@
         <v>416</v>
       </c>
       <c r="B3368">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3368">
         <v>0</v>
@@ -64424,7 +64427,7 @@
         <v>416</v>
       </c>
       <c r="B3369">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3369">
         <v>0</v>
@@ -64444,7 +64447,7 @@
         <v>416</v>
       </c>
       <c r="B3370">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3370">
         <v>0</v>
@@ -64454,6 +64457,9 @@
       </c>
       <c r="E3370">
         <v>0</v>
+      </c>
+      <c r="H3370" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3371" spans="1:8" x14ac:dyDescent="0.25">
@@ -64464,36 +64470,36 @@
         <v>96</v>
       </c>
       <c r="C3371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3371">
         <v>0</v>
       </c>
       <c r="E3371">
-        <v>5</v>
-      </c>
-      <c r="F3371">
-        <v>10800</v>
-      </c>
-      <c r="H3371" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3372" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B3372">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C3372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3372">
         <v>0</v>
       </c>
       <c r="E3372">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3372">
+        <v>10800</v>
+      </c>
+      <c r="H3372" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="3373" spans="1:8" x14ac:dyDescent="0.25">
@@ -64504,19 +64510,13 @@
         <v>1</v>
       </c>
       <c r="C3373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3373">
         <v>0</v>
       </c>
       <c r="E3373">
-        <v>3</v>
-      </c>
-      <c r="F3373">
-        <v>14400</v>
-      </c>
-      <c r="H3373" t="s">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3374" spans="1:8" x14ac:dyDescent="0.25">
@@ -64527,7 +64527,7 @@
         <v>1</v>
       </c>
       <c r="C3374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3374">
         <v>0</v>
@@ -64539,7 +64539,7 @@
         <v>14400</v>
       </c>
       <c r="H3374" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3375" spans="1:8" x14ac:dyDescent="0.25">
@@ -64547,16 +64547,22 @@
         <v>427</v>
       </c>
       <c r="B3375">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3375">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3375">
         <v>0</v>
       </c>
       <c r="E3375">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3375">
+        <v>14400</v>
+      </c>
+      <c r="H3375" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="3376" spans="1:8" x14ac:dyDescent="0.25">
@@ -64567,22 +64573,13 @@
         <v>2</v>
       </c>
       <c r="C3376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3376">
-        <v>3</v>
-      </c>
-      <c r="F3376">
-        <v>7200</v>
-      </c>
-      <c r="G3376">
-        <v>15300</v>
-      </c>
-      <c r="H3376" t="s">
-        <v>434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3377" spans="1:8" x14ac:dyDescent="0.25">
@@ -64590,19 +64587,25 @@
         <v>427</v>
       </c>
       <c r="B3377">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3377">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3377">
+        <v>7200</v>
+      </c>
+      <c r="G3377">
+        <v>15300</v>
       </c>
       <c r="H3377" t="s">
-        <v>12</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3378" spans="1:8" x14ac:dyDescent="0.25">
@@ -64610,7 +64613,7 @@
         <v>427</v>
       </c>
       <c r="B3378">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3378">
         <v>0</v>
@@ -64620,6 +64623,9 @@
       </c>
       <c r="E3378">
         <v>0</v>
+      </c>
+      <c r="H3378" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3379" spans="1:8" x14ac:dyDescent="0.25">
@@ -64630,19 +64636,13 @@
         <v>4</v>
       </c>
       <c r="C3379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3379">
         <v>0</v>
       </c>
       <c r="E3379">
-        <v>3</v>
-      </c>
-      <c r="G3379">
-        <v>5400</v>
-      </c>
-      <c r="H3379" t="s">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3380" spans="1:8" x14ac:dyDescent="0.25">
@@ -64653,7 +64653,7 @@
         <v>4</v>
       </c>
       <c r="C3380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3380">
         <v>0</v>
@@ -64661,14 +64661,11 @@
       <c r="E3380">
         <v>3</v>
       </c>
-      <c r="F3380">
-        <v>10800</v>
-      </c>
       <c r="G3380">
-        <v>13500</v>
+        <v>5400</v>
       </c>
       <c r="H3380" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3381" spans="1:8" x14ac:dyDescent="0.25">
@@ -64676,19 +64673,25 @@
         <v>427</v>
       </c>
       <c r="B3381">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3381">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3381">
         <v>0</v>
       </c>
       <c r="E3381">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3381">
+        <v>10800</v>
+      </c>
+      <c r="G3381">
+        <v>13500</v>
       </c>
       <c r="H3381" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3382" spans="1:8" x14ac:dyDescent="0.25">
@@ -64696,7 +64699,7 @@
         <v>427</v>
       </c>
       <c r="B3382">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3382">
         <v>0</v>
@@ -64716,7 +64719,7 @@
         <v>427</v>
       </c>
       <c r="B3383">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3383">
         <v>0</v>
@@ -64726,6 +64729,9 @@
       </c>
       <c r="E3383">
         <v>0</v>
+      </c>
+      <c r="H3383" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3384" spans="1:8" x14ac:dyDescent="0.25">
@@ -64736,19 +64742,13 @@
         <v>7</v>
       </c>
       <c r="C3384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3384">
         <v>0</v>
       </c>
       <c r="E3384">
-        <v>3</v>
-      </c>
-      <c r="G3384">
-        <v>8100</v>
-      </c>
-      <c r="H3384" t="s">
-        <v>433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3385" spans="1:8" x14ac:dyDescent="0.25">
@@ -64756,19 +64756,22 @@
         <v>427</v>
       </c>
       <c r="B3385">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3385">
         <v>0</v>
       </c>
       <c r="E3385">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G3385">
+        <v>8100</v>
       </c>
       <c r="H3385" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3386" spans="1:8" x14ac:dyDescent="0.25">
@@ -64776,7 +64779,7 @@
         <v>427</v>
       </c>
       <c r="B3386">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3386">
         <v>0</v>
@@ -64796,7 +64799,7 @@
         <v>427</v>
       </c>
       <c r="B3387">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3387">
         <v>0</v>
@@ -64806,6 +64809,9 @@
       </c>
       <c r="E3387">
         <v>0</v>
+      </c>
+      <c r="H3387" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3388" spans="1:8" x14ac:dyDescent="0.25">
@@ -64816,19 +64822,13 @@
         <v>10</v>
       </c>
       <c r="C3388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3388">
         <v>0</v>
       </c>
       <c r="E3388">
-        <v>4</v>
-      </c>
-      <c r="F3388">
-        <v>900</v>
-      </c>
-      <c r="H3388" t="s">
-        <v>433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3389" spans="1:8" x14ac:dyDescent="0.25">
@@ -64836,19 +64836,22 @@
         <v>427</v>
       </c>
       <c r="B3389">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3389">
         <v>0</v>
       </c>
       <c r="E3389">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3389">
+        <v>900</v>
       </c>
       <c r="H3389" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3390" spans="1:8" x14ac:dyDescent="0.25">
@@ -64856,16 +64859,19 @@
         <v>427</v>
       </c>
       <c r="B3390">
+        <v>11</v>
+      </c>
+      <c r="C3390">
+        <v>0</v>
+      </c>
+      <c r="D3390">
+        <v>0</v>
+      </c>
+      <c r="E3390">
+        <v>0</v>
+      </c>
+      <c r="H3390" t="s">
         <v>12</v>
-      </c>
-      <c r="C3390">
-        <v>0</v>
-      </c>
-      <c r="D3390">
-        <v>0</v>
-      </c>
-      <c r="E3390">
-        <v>0</v>
       </c>
     </row>
     <row r="3391" spans="1:8" x14ac:dyDescent="0.25">
@@ -64876,19 +64882,13 @@
         <v>12</v>
       </c>
       <c r="C3391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3391">
-        <v>4</v>
-      </c>
-      <c r="G3391">
-        <v>900</v>
-      </c>
-      <c r="H3391" t="s">
-        <v>435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3392" spans="1:8" x14ac:dyDescent="0.25">
@@ -64896,16 +64896,22 @@
         <v>427</v>
       </c>
       <c r="B3392">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3392">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3392">
+        <v>900</v>
+      </c>
+      <c r="H3392" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="3393" spans="1:8" x14ac:dyDescent="0.25">
@@ -64916,13 +64922,13 @@
         <v>13</v>
       </c>
       <c r="C3393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3394" spans="1:8" x14ac:dyDescent="0.25">
@@ -64930,16 +64936,16 @@
         <v>427</v>
       </c>
       <c r="B3394">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3395" spans="1:8" x14ac:dyDescent="0.25">
@@ -64950,19 +64956,13 @@
         <v>14</v>
       </c>
       <c r="C3395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3395">
-        <v>2</v>
-      </c>
-      <c r="F3395">
-        <v>2700</v>
-      </c>
-      <c r="G3395">
-        <v>12600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3396" spans="1:8" x14ac:dyDescent="0.25">
@@ -64970,19 +64970,22 @@
         <v>427</v>
       </c>
       <c r="B3396">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3396">
-        <v>0</v>
-      </c>
-      <c r="H3396" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F3396">
+        <v>2700</v>
+      </c>
+      <c r="G3396">
+        <v>12600</v>
       </c>
     </row>
     <row r="3397" spans="1:8" x14ac:dyDescent="0.25">
@@ -64990,7 +64993,7 @@
         <v>427</v>
       </c>
       <c r="B3397">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3397">
         <v>0</v>
@@ -65010,7 +65013,7 @@
         <v>427</v>
       </c>
       <c r="B3398">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3398">
         <v>0</v>
@@ -65030,7 +65033,7 @@
         <v>427</v>
       </c>
       <c r="B3399">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3399">
         <v>0</v>
@@ -65040,6 +65043,9 @@
       </c>
       <c r="E3399">
         <v>0</v>
+      </c>
+      <c r="H3399" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3400" spans="1:8" x14ac:dyDescent="0.25">
@@ -65050,22 +65056,13 @@
         <v>18</v>
       </c>
       <c r="C3400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3400">
         <v>0</v>
       </c>
       <c r="E3400">
-        <v>2</v>
-      </c>
-      <c r="F3400">
-        <v>4500</v>
-      </c>
-      <c r="G3400">
-        <v>13500</v>
-      </c>
-      <c r="H3400" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3401" spans="1:8" x14ac:dyDescent="0.25">
@@ -65073,16 +65070,25 @@
         <v>427</v>
       </c>
       <c r="B3401">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3401">
         <v>0</v>
       </c>
       <c r="E3401">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3401">
+        <v>4500</v>
+      </c>
+      <c r="G3401">
+        <v>13500</v>
+      </c>
+      <c r="H3401" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="3402" spans="1:8" x14ac:dyDescent="0.25">
@@ -65093,19 +65099,13 @@
         <v>19</v>
       </c>
       <c r="C3402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3402">
-        <v>2</v>
-      </c>
-      <c r="G3402">
-        <v>3600</v>
-      </c>
-      <c r="H3402" t="s">
-        <v>431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3403" spans="1:8" x14ac:dyDescent="0.25">
@@ -65113,16 +65113,22 @@
         <v>427</v>
       </c>
       <c r="B3403">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3403">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G3403">
+        <v>3600</v>
+      </c>
+      <c r="H3403" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="3404" spans="1:8" x14ac:dyDescent="0.25">
@@ -65133,22 +65139,13 @@
         <v>20</v>
       </c>
       <c r="C3404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3404">
-        <v>3</v>
-      </c>
-      <c r="F3404">
-        <v>1800</v>
-      </c>
-      <c r="G3404">
-        <v>5400</v>
-      </c>
-      <c r="H3404" t="s">
-        <v>397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3405" spans="1:8" x14ac:dyDescent="0.25">
@@ -65156,19 +65153,25 @@
         <v>427</v>
       </c>
       <c r="B3405">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3405">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3405">
+        <v>1800</v>
+      </c>
+      <c r="G3405">
+        <v>5400</v>
       </c>
       <c r="H3405" t="s">
-        <v>12</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3406" spans="1:8" x14ac:dyDescent="0.25">
@@ -65176,7 +65179,7 @@
         <v>427</v>
       </c>
       <c r="B3406">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3406">
         <v>0</v>
@@ -65186,6 +65189,9 @@
       </c>
       <c r="E3406">
         <v>0</v>
+      </c>
+      <c r="H3406" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3407" spans="1:8" x14ac:dyDescent="0.25">
@@ -65196,19 +65202,13 @@
         <v>22</v>
       </c>
       <c r="C3407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3407">
-        <v>2</v>
-      </c>
-      <c r="F3407">
-        <v>4500</v>
-      </c>
-      <c r="G3407">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3408" spans="1:8" x14ac:dyDescent="0.25">
@@ -65216,19 +65216,22 @@
         <v>427</v>
       </c>
       <c r="B3408">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3408">
-        <v>0</v>
-      </c>
-      <c r="H3408" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F3408">
+        <v>4500</v>
+      </c>
+      <c r="G3408">
+        <v>8100</v>
       </c>
     </row>
     <row r="3409" spans="1:8" x14ac:dyDescent="0.25">
@@ -65236,7 +65239,7 @@
         <v>427</v>
       </c>
       <c r="B3409">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3409">
         <v>0</v>
@@ -65256,7 +65259,7 @@
         <v>427</v>
       </c>
       <c r="B3410">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3410">
         <v>0</v>
@@ -65276,7 +65279,7 @@
         <v>427</v>
       </c>
       <c r="B3411">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3411">
         <v>0</v>
@@ -65296,7 +65299,7 @@
         <v>427</v>
       </c>
       <c r="B3412">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3412">
         <v>0</v>
@@ -65306,6 +65309,9 @@
       </c>
       <c r="E3412">
         <v>0</v>
+      </c>
+      <c r="H3412" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3413" spans="1:8" x14ac:dyDescent="0.25">
@@ -65316,19 +65322,13 @@
         <v>27</v>
       </c>
       <c r="C3413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3413">
-        <v>3</v>
-      </c>
-      <c r="F3413">
-        <v>900</v>
-      </c>
-      <c r="G3413">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3414" spans="1:8" x14ac:dyDescent="0.25">
@@ -65336,16 +65336,22 @@
         <v>427</v>
       </c>
       <c r="B3414">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3414">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3414">
+        <v>900</v>
+      </c>
+      <c r="G3414">
+        <v>5400</v>
       </c>
     </row>
     <row r="3415" spans="1:8" x14ac:dyDescent="0.25">
@@ -65356,19 +65362,13 @@
         <v>28</v>
       </c>
       <c r="C3415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3415">
-        <v>4</v>
-      </c>
-      <c r="F3415">
-        <v>3600</v>
-      </c>
-      <c r="G3415">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3416" spans="1:8" x14ac:dyDescent="0.25">
@@ -65376,19 +65376,22 @@
         <v>427</v>
       </c>
       <c r="B3416">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3416">
-        <v>0</v>
-      </c>
-      <c r="H3416" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="F3416">
+        <v>3600</v>
+      </c>
+      <c r="G3416">
+        <v>5400</v>
       </c>
     </row>
     <row r="3417" spans="1:8" x14ac:dyDescent="0.25">
@@ -65396,7 +65399,7 @@
         <v>427</v>
       </c>
       <c r="B3417">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3417">
         <v>0</v>
@@ -65416,7 +65419,7 @@
         <v>427</v>
       </c>
       <c r="B3418">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3418">
         <v>0</v>
@@ -65426,6 +65429,9 @@
       </c>
       <c r="E3418">
         <v>0</v>
+      </c>
+      <c r="H3418" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3419" spans="1:8" x14ac:dyDescent="0.25">
@@ -65436,16 +65442,13 @@
         <v>31</v>
       </c>
       <c r="C3419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3419">
-        <v>4</v>
-      </c>
-      <c r="G3419">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3420" spans="1:8" x14ac:dyDescent="0.25">
@@ -65453,19 +65456,19 @@
         <v>427</v>
       </c>
       <c r="B3420">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3420">
-        <v>0</v>
-      </c>
-      <c r="H3420" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G3420">
+        <v>2700</v>
       </c>
     </row>
     <row r="3421" spans="1:8" x14ac:dyDescent="0.25">
@@ -65473,7 +65476,7 @@
         <v>427</v>
       </c>
       <c r="B3421">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3421">
         <v>0</v>
@@ -65493,7 +65496,7 @@
         <v>427</v>
       </c>
       <c r="B3422">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3422">
         <v>0</v>
@@ -65513,7 +65516,7 @@
         <v>427</v>
       </c>
       <c r="B3423">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3423">
         <v>0</v>
@@ -65533,7 +65536,7 @@
         <v>427</v>
       </c>
       <c r="B3424">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3424">
         <v>0</v>
@@ -65553,7 +65556,7 @@
         <v>427</v>
       </c>
       <c r="B3425">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3425">
         <v>0</v>
@@ -65573,7 +65576,7 @@
         <v>427</v>
       </c>
       <c r="B3426">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3426">
         <v>0</v>
@@ -65593,7 +65596,7 @@
         <v>427</v>
       </c>
       <c r="B3427">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3427">
         <v>0</v>
@@ -65613,7 +65616,7 @@
         <v>427</v>
       </c>
       <c r="B3428">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3428">
         <v>0</v>
@@ -65633,7 +65636,7 @@
         <v>427</v>
       </c>
       <c r="B3429">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3429">
         <v>0</v>
@@ -65653,7 +65656,7 @@
         <v>427</v>
       </c>
       <c r="B3430">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3430">
         <v>0</v>
@@ -65673,7 +65676,7 @@
         <v>427</v>
       </c>
       <c r="B3431">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3431">
         <v>0</v>
@@ -65693,7 +65696,7 @@
         <v>427</v>
       </c>
       <c r="B3432">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3432">
         <v>0</v>
@@ -65713,7 +65716,7 @@
         <v>427</v>
       </c>
       <c r="B3433">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3433">
         <v>0</v>
@@ -65733,7 +65736,7 @@
         <v>427</v>
       </c>
       <c r="B3434">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3434">
         <v>0</v>
@@ -65753,7 +65756,7 @@
         <v>427</v>
       </c>
       <c r="B3435">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3435">
         <v>0</v>
@@ -65773,7 +65776,7 @@
         <v>427</v>
       </c>
       <c r="B3436">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3436">
         <v>0</v>
@@ -65793,7 +65796,7 @@
         <v>427</v>
       </c>
       <c r="B3437">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3437">
         <v>0</v>
@@ -65813,7 +65816,7 @@
         <v>427</v>
       </c>
       <c r="B3438">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3438">
         <v>0</v>
@@ -65833,7 +65836,7 @@
         <v>427</v>
       </c>
       <c r="B3439">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3439">
         <v>0</v>
@@ -65853,7 +65856,7 @@
         <v>427</v>
       </c>
       <c r="B3440">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3440">
         <v>0</v>
@@ -65873,7 +65876,7 @@
         <v>427</v>
       </c>
       <c r="B3441">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3441">
         <v>0</v>
@@ -65893,7 +65896,7 @@
         <v>427</v>
       </c>
       <c r="B3442">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3442">
         <v>0</v>
@@ -65913,7 +65916,7 @@
         <v>427</v>
       </c>
       <c r="B3443">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3443">
         <v>0</v>
@@ -65933,7 +65936,7 @@
         <v>427</v>
       </c>
       <c r="B3444">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3444">
         <v>0</v>
@@ -65953,7 +65956,7 @@
         <v>427</v>
       </c>
       <c r="B3445">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3445">
         <v>0</v>
@@ -65973,7 +65976,7 @@
         <v>427</v>
       </c>
       <c r="B3446">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3446">
         <v>0</v>
@@ -65993,7 +65996,7 @@
         <v>427</v>
       </c>
       <c r="B3447">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3447">
         <v>0</v>
@@ -66013,7 +66016,7 @@
         <v>427</v>
       </c>
       <c r="B3448">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3448">
         <v>0</v>
@@ -66033,7 +66036,7 @@
         <v>427</v>
       </c>
       <c r="B3449">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3449">
         <v>0</v>
@@ -66053,7 +66056,7 @@
         <v>427</v>
       </c>
       <c r="B3450">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3450">
         <v>0</v>
@@ -66073,7 +66076,7 @@
         <v>427</v>
       </c>
       <c r="B3451">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3451">
         <v>0</v>
@@ -66093,7 +66096,7 @@
         <v>427</v>
       </c>
       <c r="B3452">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3452">
         <v>0</v>
@@ -66113,7 +66116,7 @@
         <v>427</v>
       </c>
       <c r="B3453">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3453">
         <v>0</v>
@@ -66133,7 +66136,7 @@
         <v>427</v>
       </c>
       <c r="B3454">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3454">
         <v>0</v>
@@ -66153,7 +66156,7 @@
         <v>427</v>
       </c>
       <c r="B3455">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3455">
         <v>0</v>
@@ -66173,7 +66176,7 @@
         <v>427</v>
       </c>
       <c r="B3456">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3456">
         <v>0</v>
@@ -66183,6 +66186,9 @@
       </c>
       <c r="E3456">
         <v>0</v>
+      </c>
+      <c r="H3456" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3457" spans="1:8" x14ac:dyDescent="0.25">
@@ -66193,19 +66199,13 @@
         <v>68</v>
       </c>
       <c r="C3457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3457">
         <v>0</v>
       </c>
       <c r="E3457">
-        <v>2</v>
-      </c>
-      <c r="G3457">
-        <v>2700</v>
-      </c>
-      <c r="H3457" t="s">
-        <v>347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3458" spans="1:8" x14ac:dyDescent="0.25">
@@ -66213,16 +66213,22 @@
         <v>427</v>
       </c>
       <c r="B3458">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3458">
         <v>0</v>
       </c>
       <c r="E3458">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G3458">
+        <v>2700</v>
+      </c>
+      <c r="H3458" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="3459" spans="1:8" x14ac:dyDescent="0.25">
@@ -66233,16 +66239,13 @@
         <v>69</v>
       </c>
       <c r="C3459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3459">
-        <v>4</v>
-      </c>
-      <c r="G3459">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3460" spans="1:8" x14ac:dyDescent="0.25">
@@ -66250,16 +66253,19 @@
         <v>427</v>
       </c>
       <c r="B3460">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3460">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3460">
+        <v>11700</v>
       </c>
     </row>
     <row r="3461" spans="1:8" x14ac:dyDescent="0.25">
@@ -66270,16 +66276,13 @@
         <v>70</v>
       </c>
       <c r="C3461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3461">
-        <v>5</v>
-      </c>
-      <c r="F3461">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3462" spans="1:8" x14ac:dyDescent="0.25">
@@ -66287,19 +66290,19 @@
         <v>427</v>
       </c>
       <c r="B3462">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3462">
-        <v>0</v>
-      </c>
-      <c r="H3462" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="F3462">
+        <v>2700</v>
       </c>
     </row>
     <row r="3463" spans="1:8" x14ac:dyDescent="0.25">
@@ -66307,7 +66310,7 @@
         <v>427</v>
       </c>
       <c r="B3463">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3463">
         <v>0</v>
@@ -66317,6 +66320,9 @@
       </c>
       <c r="E3463">
         <v>0</v>
+      </c>
+      <c r="H3463" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3464" spans="1:8" x14ac:dyDescent="0.25">
@@ -66327,13 +66333,13 @@
         <v>72</v>
       </c>
       <c r="C3464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3465" spans="1:8" x14ac:dyDescent="0.25">
@@ -66341,19 +66347,16 @@
         <v>427</v>
       </c>
       <c r="B3465">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3465">
-        <v>0</v>
-      </c>
-      <c r="H3465" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3466" spans="1:8" x14ac:dyDescent="0.25">
@@ -66361,7 +66364,7 @@
         <v>427</v>
       </c>
       <c r="B3466">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3466">
         <v>0</v>
@@ -66371,6 +66374,9 @@
       </c>
       <c r="E3466">
         <v>0</v>
+      </c>
+      <c r="H3466" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3467" spans="1:8" x14ac:dyDescent="0.25">
@@ -66381,19 +66387,13 @@
         <v>74</v>
       </c>
       <c r="C3467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3467">
-        <v>3</v>
-      </c>
-      <c r="G3467">
-        <v>8100</v>
-      </c>
-      <c r="H3467" t="s">
-        <v>430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3468" spans="1:8" x14ac:dyDescent="0.25">
@@ -66401,16 +66401,22 @@
         <v>427</v>
       </c>
       <c r="B3468">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3468">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G3468">
+        <v>8100</v>
+      </c>
+      <c r="H3468" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="3469" spans="1:8" x14ac:dyDescent="0.25">
@@ -66421,16 +66427,13 @@
         <v>75</v>
       </c>
       <c r="C3469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3469">
-        <v>2</v>
-      </c>
-      <c r="F3469">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3470" spans="1:8" x14ac:dyDescent="0.25">
@@ -66438,16 +66441,19 @@
         <v>427</v>
       </c>
       <c r="B3470">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3470">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3470">
+        <v>2700</v>
       </c>
     </row>
     <row r="3471" spans="1:8" x14ac:dyDescent="0.25">
@@ -66458,16 +66464,13 @@
         <v>76</v>
       </c>
       <c r="C3471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3471">
-        <v>2</v>
-      </c>
-      <c r="F3471">
-        <v>13500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3472" spans="1:8" x14ac:dyDescent="0.25">
@@ -66475,16 +66478,19 @@
         <v>427</v>
       </c>
       <c r="B3472">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3472">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3472">
+        <v>13500</v>
       </c>
     </row>
     <row r="3473" spans="1:8" x14ac:dyDescent="0.25">
@@ -66495,16 +66501,13 @@
         <v>77</v>
       </c>
       <c r="C3473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3473">
-        <v>3</v>
-      </c>
-      <c r="F3473">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3474" spans="1:8" x14ac:dyDescent="0.25">
@@ -66512,16 +66515,19 @@
         <v>427</v>
       </c>
       <c r="B3474">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3474">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3474">
+        <v>2700</v>
       </c>
     </row>
     <row r="3475" spans="1:8" x14ac:dyDescent="0.25">
@@ -66532,19 +66538,13 @@
         <v>78</v>
       </c>
       <c r="C3475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3475">
         <v>0</v>
       </c>
       <c r="E3475">
-        <v>5</v>
-      </c>
-      <c r="G3475">
-        <v>2700</v>
-      </c>
-      <c r="H3475" t="s">
-        <v>394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3476" spans="1:8" x14ac:dyDescent="0.25">
@@ -66552,16 +66552,22 @@
         <v>427</v>
       </c>
       <c r="B3476">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3476">
         <v>0</v>
       </c>
       <c r="E3476">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G3476">
+        <v>2700</v>
+      </c>
+      <c r="H3476" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="3477" spans="1:8" x14ac:dyDescent="0.25">
@@ -66572,19 +66578,13 @@
         <v>79</v>
       </c>
       <c r="C3477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3477">
         <v>0</v>
       </c>
       <c r="E3477">
-        <v>5</v>
-      </c>
-      <c r="F3477">
-        <v>5400</v>
-      </c>
-      <c r="H3477" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3478" spans="1:8" x14ac:dyDescent="0.25">
@@ -66592,19 +66592,22 @@
         <v>427</v>
       </c>
       <c r="B3478">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3478">
         <v>0</v>
       </c>
       <c r="E3478">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3478">
+        <v>5400</v>
       </c>
       <c r="H3478" t="s">
-        <v>12</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3479" spans="1:8" x14ac:dyDescent="0.25">
@@ -66612,7 +66615,7 @@
         <v>427</v>
       </c>
       <c r="B3479">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3479">
         <v>0</v>
@@ -66622,6 +66625,9 @@
       </c>
       <c r="E3479">
         <v>0</v>
+      </c>
+      <c r="H3479" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3480" spans="1:8" x14ac:dyDescent="0.25">
@@ -66632,16 +66638,13 @@
         <v>81</v>
       </c>
       <c r="C3480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3480">
-        <v>3</v>
-      </c>
-      <c r="G3480">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3481" spans="1:8" x14ac:dyDescent="0.25">
@@ -66649,19 +66652,19 @@
         <v>427</v>
       </c>
       <c r="B3481">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3481">
-        <v>0</v>
-      </c>
-      <c r="H3481" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G3481">
+        <v>5400</v>
       </c>
     </row>
     <row r="3482" spans="1:8" x14ac:dyDescent="0.25">
@@ -66669,7 +66672,7 @@
         <v>427</v>
       </c>
       <c r="B3482">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3482">
         <v>0</v>
@@ -66689,7 +66692,7 @@
         <v>427</v>
       </c>
       <c r="B3483">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3483">
         <v>0</v>
@@ -66699,6 +66702,9 @@
       </c>
       <c r="E3483">
         <v>0</v>
+      </c>
+      <c r="H3483" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3484" spans="1:8" x14ac:dyDescent="0.25">
@@ -66709,16 +66715,13 @@
         <v>84</v>
       </c>
       <c r="C3484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3484">
         <v>0</v>
       </c>
       <c r="E3484">
-        <v>5</v>
-      </c>
-      <c r="H3484" t="s">
-        <v>413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3485" spans="1:8" x14ac:dyDescent="0.25">
@@ -66729,19 +66732,16 @@
         <v>84</v>
       </c>
       <c r="C3485">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3485">
         <v>0</v>
       </c>
       <c r="E3485">
-        <v>3</v>
-      </c>
-      <c r="G3485">
-        <v>5400</v>
+        <v>5</v>
       </c>
       <c r="H3485" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3486" spans="1:8" x14ac:dyDescent="0.25">
@@ -66749,16 +66749,22 @@
         <v>427</v>
       </c>
       <c r="B3486">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3486">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3486">
         <v>0</v>
       </c>
       <c r="E3486">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G3486">
+        <v>5400</v>
+      </c>
+      <c r="H3486" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="3487" spans="1:8" x14ac:dyDescent="0.25">
@@ -66769,16 +66775,13 @@
         <v>85</v>
       </c>
       <c r="C3487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3487">
-        <v>2</v>
-      </c>
-      <c r="H3487" t="s">
-        <v>428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3488" spans="1:8" x14ac:dyDescent="0.25">
@@ -66786,19 +66789,19 @@
         <v>427</v>
       </c>
       <c r="B3488">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3488">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3488" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3489" spans="1:8" x14ac:dyDescent="0.25">
@@ -66806,7 +66809,7 @@
         <v>427</v>
       </c>
       <c r="B3489">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3489">
         <v>0</v>
@@ -66816,6 +66819,9 @@
       </c>
       <c r="E3489">
         <v>0</v>
+      </c>
+      <c r="H3489" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3490" spans="1:8" x14ac:dyDescent="0.25">
@@ -66826,19 +66832,13 @@
         <v>87</v>
       </c>
       <c r="C3490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3490">
-        <v>3</v>
-      </c>
-      <c r="F3490">
-        <v>5400</v>
-      </c>
-      <c r="G3490">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3491" spans="1:8" x14ac:dyDescent="0.25">
@@ -66849,7 +66849,7 @@
         <v>87</v>
       </c>
       <c r="C3491">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3491">
         <v>1</v>
@@ -66857,8 +66857,11 @@
       <c r="E3491">
         <v>3</v>
       </c>
+      <c r="F3491">
+        <v>5400</v>
+      </c>
       <c r="G3491">
-        <v>2700</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="3492" spans="1:8" x14ac:dyDescent="0.25">
@@ -66866,16 +66869,19 @@
         <v>427</v>
       </c>
       <c r="B3492">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3492">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3492">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G3492">
+        <v>2700</v>
       </c>
     </row>
     <row r="3493" spans="1:8" x14ac:dyDescent="0.25">
@@ -66886,19 +66892,13 @@
         <v>88</v>
       </c>
       <c r="C3493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3493">
-        <v>3</v>
-      </c>
-      <c r="F3493">
-        <v>2700</v>
-      </c>
-      <c r="G3493">
-        <v>10800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3494" spans="1:8" x14ac:dyDescent="0.25">
@@ -66909,7 +66909,7 @@
         <v>88</v>
       </c>
       <c r="C3494">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3494">
         <v>1</v>
@@ -66932,7 +66932,7 @@
         <v>88</v>
       </c>
       <c r="C3495">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3495">
         <v>1</v>
@@ -66944,10 +66944,7 @@
         <v>2700</v>
       </c>
       <c r="G3495">
-        <v>4500</v>
-      </c>
-      <c r="H3495" t="s">
-        <v>428</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="3496" spans="1:8" x14ac:dyDescent="0.25">
@@ -66955,16 +66952,25 @@
         <v>427</v>
       </c>
       <c r="B3496">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3496">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3496">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3496">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3496">
+        <v>2700</v>
+      </c>
+      <c r="G3496">
+        <v>4500</v>
+      </c>
+      <c r="H3496" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="3497" spans="1:8" x14ac:dyDescent="0.25">
@@ -66975,16 +66981,13 @@
         <v>89</v>
       </c>
       <c r="C3497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3497">
         <v>0</v>
       </c>
       <c r="E3497">
-        <v>4</v>
-      </c>
-      <c r="G3497">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3498" spans="1:8" x14ac:dyDescent="0.25">
@@ -66995,22 +66998,16 @@
         <v>89</v>
       </c>
       <c r="C3498">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3498">
-        <v>3</v>
-      </c>
-      <c r="F3498">
-        <v>900</v>
+        <v>4</v>
       </c>
       <c r="G3498">
-        <v>2700</v>
-      </c>
-      <c r="H3498" t="s">
-        <v>428</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3499" spans="1:8" x14ac:dyDescent="0.25">
@@ -67021,7 +67018,7 @@
         <v>89</v>
       </c>
       <c r="C3499">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3499">
         <v>1</v>
@@ -67034,6 +67031,9 @@
       </c>
       <c r="G3499">
         <v>2700</v>
+      </c>
+      <c r="H3499" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="3500" spans="1:8" x14ac:dyDescent="0.25">
@@ -67041,19 +67041,22 @@
         <v>427</v>
       </c>
       <c r="B3500">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3500">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3500">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3500">
-        <v>0</v>
-      </c>
-      <c r="H3500" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3500">
+        <v>900</v>
+      </c>
+      <c r="G3500">
+        <v>2700</v>
       </c>
     </row>
     <row r="3501" spans="1:8" x14ac:dyDescent="0.25">
@@ -67061,7 +67064,7 @@
         <v>427</v>
       </c>
       <c r="B3501">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3501">
         <v>0</v>
@@ -67071,6 +67074,9 @@
       </c>
       <c r="E3501">
         <v>0</v>
+      </c>
+      <c r="H3501" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3502" spans="1:8" x14ac:dyDescent="0.25">
@@ -67081,13 +67087,13 @@
         <v>91</v>
       </c>
       <c r="C3502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3503" spans="1:8" x14ac:dyDescent="0.25">
@@ -67095,16 +67101,16 @@
         <v>427</v>
       </c>
       <c r="B3503">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3504" spans="1:8" x14ac:dyDescent="0.25">
@@ -67115,22 +67121,13 @@
         <v>92</v>
       </c>
       <c r="C3504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3504">
-        <v>4</v>
-      </c>
-      <c r="F3504">
-        <v>900</v>
-      </c>
-      <c r="G3504">
-        <v>5400</v>
-      </c>
-      <c r="H3504" t="s">
-        <v>429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3505" spans="1:8" x14ac:dyDescent="0.25">
@@ -67138,19 +67135,25 @@
         <v>427</v>
       </c>
       <c r="B3505">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3505">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3505">
+        <v>900</v>
+      </c>
+      <c r="G3505">
+        <v>5400</v>
       </c>
       <c r="H3505" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3506" spans="1:8" x14ac:dyDescent="0.25">
@@ -67158,7 +67161,7 @@
         <v>427</v>
       </c>
       <c r="B3506">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3506">
         <v>0</v>
@@ -67168,6 +67171,9 @@
       </c>
       <c r="E3506">
         <v>0</v>
+      </c>
+      <c r="H3506" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3507" spans="1:8" x14ac:dyDescent="0.25">
@@ -67178,16 +67184,13 @@
         <v>94</v>
       </c>
       <c r="C3507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3507">
-        <v>1</v>
-      </c>
-      <c r="F3507">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3508" spans="1:8" x14ac:dyDescent="0.25">
@@ -67195,16 +67198,19 @@
         <v>427</v>
       </c>
       <c r="B3508">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3508">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F3508">
+        <v>6300</v>
       </c>
     </row>
     <row r="3509" spans="1:8" x14ac:dyDescent="0.25">
@@ -67215,16 +67221,13 @@
         <v>95</v>
       </c>
       <c r="C3509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3509">
-        <v>2</v>
-      </c>
-      <c r="F3509">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3510" spans="1:8" x14ac:dyDescent="0.25">
@@ -67232,16 +67235,19 @@
         <v>427</v>
       </c>
       <c r="B3510">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3510">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3510">
+        <v>4500</v>
       </c>
     </row>
     <row r="3511" spans="1:8" x14ac:dyDescent="0.25">
@@ -67252,33 +67258,30 @@
         <v>96</v>
       </c>
       <c r="C3511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3512" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B3512">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C3512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3512">
-        <v>0</v>
-      </c>
-      <c r="H3512" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3513" spans="1:8" x14ac:dyDescent="0.25">
@@ -67286,7 +67289,7 @@
         <v>442</v>
       </c>
       <c r="B3513">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3513">
         <v>0</v>
@@ -67306,7 +67309,7 @@
         <v>442</v>
       </c>
       <c r="B3514">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3514">
         <v>0</v>
@@ -67326,7 +67329,7 @@
         <v>442</v>
       </c>
       <c r="B3515">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3515">
         <v>0</v>
@@ -67346,7 +67349,7 @@
         <v>442</v>
       </c>
       <c r="B3516">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3516">
         <v>0</v>
@@ -67366,7 +67369,7 @@
         <v>442</v>
       </c>
       <c r="B3517">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3517">
         <v>0</v>
@@ -67376,6 +67379,9 @@
       </c>
       <c r="E3517">
         <v>0</v>
+      </c>
+      <c r="H3517" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3518" spans="1:8" x14ac:dyDescent="0.25">
@@ -67386,16 +67392,13 @@
         <v>6</v>
       </c>
       <c r="C3518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3518">
-        <v>4</v>
-      </c>
-      <c r="G3518">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3519" spans="1:8" x14ac:dyDescent="0.25">
@@ -67403,16 +67406,19 @@
         <v>442</v>
       </c>
       <c r="B3519">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3519">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3519">
+        <v>11700</v>
       </c>
     </row>
     <row r="3520" spans="1:8" x14ac:dyDescent="0.25">
@@ -67423,16 +67429,13 @@
         <v>7</v>
       </c>
       <c r="C3520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3520">
-        <v>3</v>
-      </c>
-      <c r="G3520">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3521" spans="1:8" x14ac:dyDescent="0.25">
@@ -67440,19 +67443,19 @@
         <v>442</v>
       </c>
       <c r="B3521">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3521">
-        <v>0</v>
-      </c>
-      <c r="H3521" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G3521">
+        <v>4500</v>
       </c>
     </row>
     <row r="3522" spans="1:8" x14ac:dyDescent="0.25">
@@ -67460,7 +67463,7 @@
         <v>442</v>
       </c>
       <c r="B3522">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3522">
         <v>0</v>
@@ -67470,6 +67473,9 @@
       </c>
       <c r="E3522">
         <v>0</v>
+      </c>
+      <c r="H3522" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3523" spans="1:8" x14ac:dyDescent="0.25">
@@ -67480,13 +67486,13 @@
         <v>9</v>
       </c>
       <c r="C3523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3523">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3524" spans="1:8" x14ac:dyDescent="0.25">
@@ -67494,16 +67500,16 @@
         <v>442</v>
       </c>
       <c r="B3524">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3524">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3524">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3524">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3525" spans="1:8" x14ac:dyDescent="0.25">
@@ -67511,7 +67517,7 @@
         <v>442</v>
       </c>
       <c r="B3525">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3525">
         <v>0</v>
@@ -67521,9 +67527,6 @@
       </c>
       <c r="E3525">
         <v>0</v>
-      </c>
-      <c r="H3525" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3526" spans="1:8" x14ac:dyDescent="0.25">
@@ -67531,16 +67534,19 @@
         <v>442</v>
       </c>
       <c r="B3526">
+        <v>11</v>
+      </c>
+      <c r="C3526">
+        <v>0</v>
+      </c>
+      <c r="D3526">
+        <v>0</v>
+      </c>
+      <c r="E3526">
+        <v>0</v>
+      </c>
+      <c r="H3526" t="s">
         <v>12</v>
-      </c>
-      <c r="C3526">
-        <v>0</v>
-      </c>
-      <c r="D3526">
-        <v>0</v>
-      </c>
-      <c r="E3526">
-        <v>0</v>
       </c>
     </row>
     <row r="3527" spans="1:8" x14ac:dyDescent="0.25">
@@ -67551,16 +67557,13 @@
         <v>12</v>
       </c>
       <c r="C3527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3527">
-        <v>3</v>
-      </c>
-      <c r="H3527" t="s">
-        <v>441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3528" spans="1:8" x14ac:dyDescent="0.25">
@@ -67571,7 +67574,7 @@
         <v>12</v>
       </c>
       <c r="C3528">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3528">
         <v>1</v>
@@ -67579,8 +67582,8 @@
       <c r="E3528">
         <v>3</v>
       </c>
-      <c r="F3528">
-        <v>4500</v>
+      <c r="H3528" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="3529" spans="1:8" x14ac:dyDescent="0.25">
@@ -67591,7 +67594,7 @@
         <v>12</v>
       </c>
       <c r="C3529">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3529">
         <v>1</v>
@@ -67611,7 +67614,7 @@
         <v>12</v>
       </c>
       <c r="C3530">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3530">
         <v>1</v>
@@ -67620,13 +67623,7 @@
         <v>3</v>
       </c>
       <c r="F3530">
-        <v>900</v>
-      </c>
-      <c r="G3530">
-        <v>5400</v>
-      </c>
-      <c r="H3530" t="s">
-        <v>440</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3531" spans="1:8" x14ac:dyDescent="0.25">
@@ -67634,16 +67631,25 @@
         <v>442</v>
       </c>
       <c r="B3531">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3531">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3531">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3531">
+        <v>900</v>
+      </c>
+      <c r="G3531">
+        <v>5400</v>
+      </c>
+      <c r="H3531" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="3532" spans="1:8" x14ac:dyDescent="0.25">
@@ -67654,16 +67660,13 @@
         <v>13</v>
       </c>
       <c r="C3532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3532">
-        <v>4</v>
-      </c>
-      <c r="F3532">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3533" spans="1:8" x14ac:dyDescent="0.25">
@@ -67671,16 +67674,19 @@
         <v>442</v>
       </c>
       <c r="B3533">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3533">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3533">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3533">
+        <v>1800</v>
       </c>
     </row>
     <row r="3534" spans="1:8" x14ac:dyDescent="0.25">
@@ -67691,16 +67697,13 @@
         <v>14</v>
       </c>
       <c r="C3534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3534">
-        <v>1</v>
-      </c>
-      <c r="F3534">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3535" spans="1:8" x14ac:dyDescent="0.25">
@@ -67708,16 +67711,19 @@
         <v>442</v>
       </c>
       <c r="B3535">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3535">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F3535">
+        <v>900</v>
       </c>
     </row>
     <row r="3536" spans="1:8" x14ac:dyDescent="0.25">
@@ -67728,13 +67734,13 @@
         <v>15</v>
       </c>
       <c r="C3536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3536">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3537" spans="1:8" x14ac:dyDescent="0.25">
@@ -67742,16 +67748,16 @@
         <v>442</v>
       </c>
       <c r="B3537">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3537">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3538" spans="1:8" x14ac:dyDescent="0.25">
@@ -67762,19 +67768,13 @@
         <v>16</v>
       </c>
       <c r="C3538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3538">
-        <v>3</v>
-      </c>
-      <c r="F3538">
-        <v>900</v>
-      </c>
-      <c r="G3538">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3539" spans="1:8" x14ac:dyDescent="0.25">
@@ -67782,19 +67782,22 @@
         <v>442</v>
       </c>
       <c r="B3539">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3539">
-        <v>0</v>
-      </c>
-      <c r="H3539" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3539">
+        <v>900</v>
+      </c>
+      <c r="G3539">
+        <v>5400</v>
       </c>
     </row>
     <row r="3540" spans="1:8" x14ac:dyDescent="0.25">
@@ -67802,7 +67805,7 @@
         <v>442</v>
       </c>
       <c r="B3540">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3540">
         <v>0</v>
@@ -67822,7 +67825,7 @@
         <v>442</v>
       </c>
       <c r="B3541">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3541">
         <v>0</v>
@@ -67842,7 +67845,7 @@
         <v>442</v>
       </c>
       <c r="B3542">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3542">
         <v>0</v>
@@ -67862,7 +67865,7 @@
         <v>442</v>
       </c>
       <c r="B3543">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3543">
         <v>0</v>
@@ -67882,7 +67885,7 @@
         <v>442</v>
       </c>
       <c r="B3544">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3544">
         <v>0</v>
@@ -67902,7 +67905,7 @@
         <v>442</v>
       </c>
       <c r="B3545">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3545">
         <v>0</v>
@@ -67922,7 +67925,7 @@
         <v>442</v>
       </c>
       <c r="B3546">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3546">
         <v>0</v>
@@ -67942,7 +67945,7 @@
         <v>442</v>
       </c>
       <c r="B3547">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3547">
         <v>0</v>
@@ -67962,7 +67965,7 @@
         <v>442</v>
       </c>
       <c r="B3548">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3548">
         <v>0</v>
@@ -67982,7 +67985,7 @@
         <v>442</v>
       </c>
       <c r="B3549">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3549">
         <v>0</v>
@@ -68002,7 +68005,7 @@
         <v>442</v>
       </c>
       <c r="B3550">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3550">
         <v>0</v>
@@ -68022,7 +68025,7 @@
         <v>442</v>
       </c>
       <c r="B3551">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3551">
         <v>0</v>
@@ -68042,7 +68045,7 @@
         <v>442</v>
       </c>
       <c r="B3552">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3552">
         <v>0</v>
@@ -68052,6 +68055,9 @@
       </c>
       <c r="E3552">
         <v>0</v>
+      </c>
+      <c r="H3552" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3553" spans="1:8" x14ac:dyDescent="0.25">
@@ -68062,19 +68068,13 @@
         <v>30</v>
       </c>
       <c r="C3553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3553">
         <v>0</v>
       </c>
       <c r="E3553">
-        <v>4</v>
-      </c>
-      <c r="G3553">
-        <v>1800</v>
-      </c>
-      <c r="H3553" t="s">
-        <v>439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3554" spans="1:8" x14ac:dyDescent="0.25">
@@ -68085,22 +68085,19 @@
         <v>30</v>
       </c>
       <c r="C3554">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3554">
         <v>0</v>
       </c>
       <c r="E3554">
-        <v>3</v>
-      </c>
-      <c r="F3554">
-        <v>4500</v>
+        <v>4</v>
       </c>
       <c r="G3554">
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="H3554" t="s">
-        <v>312</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3555" spans="1:8" x14ac:dyDescent="0.25">
@@ -68108,16 +68105,25 @@
         <v>442</v>
       </c>
       <c r="B3555">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3555">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3555">
         <v>0</v>
       </c>
       <c r="E3555">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3555">
+        <v>4500</v>
+      </c>
+      <c r="G3555">
+        <v>7200</v>
+      </c>
+      <c r="H3555" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="3556" spans="1:8" x14ac:dyDescent="0.25">
@@ -68128,22 +68134,13 @@
         <v>31</v>
       </c>
       <c r="C3556">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3556">
         <v>0</v>
       </c>
       <c r="E3556">
-        <v>3</v>
-      </c>
-      <c r="F3556">
-        <v>2700</v>
-      </c>
-      <c r="G3556">
-        <v>6300</v>
-      </c>
-      <c r="H3556" t="s">
-        <v>312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3557" spans="1:8" x14ac:dyDescent="0.25">
@@ -68151,16 +68148,25 @@
         <v>442</v>
       </c>
       <c r="B3557">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3557">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3557">
         <v>0</v>
       </c>
       <c r="E3557">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3557">
+        <v>2700</v>
+      </c>
+      <c r="G3557">
+        <v>6300</v>
+      </c>
+      <c r="H3557" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="3558" spans="1:8" x14ac:dyDescent="0.25">
@@ -68171,16 +68177,13 @@
         <v>32</v>
       </c>
       <c r="C3558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3558">
         <v>0</v>
       </c>
       <c r="E3558">
-        <v>3</v>
-      </c>
-      <c r="G3558">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3559" spans="1:8" x14ac:dyDescent="0.25">
@@ -68191,16 +68194,16 @@
         <v>32</v>
       </c>
       <c r="C3559">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3559">
         <v>0</v>
       </c>
       <c r="E3559">
-        <v>4</v>
-      </c>
-      <c r="F3559">
-        <v>5400</v>
+        <v>3</v>
+      </c>
+      <c r="G3559">
+        <v>3600</v>
       </c>
     </row>
     <row r="3560" spans="1:8" x14ac:dyDescent="0.25">
@@ -68211,7 +68214,7 @@
         <v>32</v>
       </c>
       <c r="C3560">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3560">
         <v>0</v>
@@ -68220,10 +68223,7 @@
         <v>4</v>
       </c>
       <c r="F3560">
-        <v>10800</v>
-      </c>
-      <c r="G3560">
-        <v>14400</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="3561" spans="1:8" x14ac:dyDescent="0.25">
@@ -68231,19 +68231,22 @@
         <v>442</v>
       </c>
       <c r="B3561">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3561">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3561">
         <v>0</v>
       </c>
       <c r="E3561">
-        <v>0</v>
-      </c>
-      <c r="H3561" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="F3561">
+        <v>10800</v>
+      </c>
+      <c r="G3561">
+        <v>14400</v>
       </c>
     </row>
     <row r="3562" spans="1:8" x14ac:dyDescent="0.25">
@@ -68251,7 +68254,7 @@
         <v>442</v>
       </c>
       <c r="B3562">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3562">
         <v>0</v>
@@ -68271,7 +68274,7 @@
         <v>442</v>
       </c>
       <c r="B3563">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3563">
         <v>0</v>
@@ -68281,6 +68284,9 @@
       </c>
       <c r="E3563">
         <v>0</v>
+      </c>
+      <c r="H3563" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3564" spans="1:8" x14ac:dyDescent="0.25">
@@ -68291,22 +68297,13 @@
         <v>35</v>
       </c>
       <c r="C3564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3564">
         <v>0</v>
       </c>
       <c r="E3564">
-        <v>5</v>
-      </c>
-      <c r="F3564">
-        <v>900</v>
-      </c>
-      <c r="G3564">
-        <v>6300</v>
-      </c>
-      <c r="H3564" t="s">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3565" spans="1:8" x14ac:dyDescent="0.25">
@@ -68314,19 +68311,25 @@
         <v>442</v>
       </c>
       <c r="B3565">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3565">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3565">
         <v>0</v>
       </c>
       <c r="E3565">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3565">
+        <v>900</v>
+      </c>
+      <c r="G3565">
+        <v>6300</v>
       </c>
       <c r="H3565" t="s">
-        <v>12</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3566" spans="1:8" x14ac:dyDescent="0.25">
@@ -68334,7 +68337,7 @@
         <v>442</v>
       </c>
       <c r="B3566">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3566">
         <v>0</v>
@@ -68354,7 +68357,7 @@
         <v>442</v>
       </c>
       <c r="B3567">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3567">
         <v>0</v>
@@ -68374,7 +68377,7 @@
         <v>442</v>
       </c>
       <c r="B3568">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3568">
         <v>0</v>
@@ -68394,7 +68397,7 @@
         <v>442</v>
       </c>
       <c r="B3569">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3569">
         <v>0</v>
@@ -68414,7 +68417,7 @@
         <v>442</v>
       </c>
       <c r="B3570">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3570">
         <v>0</v>
@@ -68434,7 +68437,7 @@
         <v>442</v>
       </c>
       <c r="B3571">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3571">
         <v>0</v>
@@ -68454,7 +68457,7 @@
         <v>442</v>
       </c>
       <c r="B3572">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3572">
         <v>0</v>
@@ -68474,7 +68477,7 @@
         <v>442</v>
       </c>
       <c r="B3573">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3573">
         <v>0</v>
@@ -68494,7 +68497,7 @@
         <v>442</v>
       </c>
       <c r="B3574">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3574">
         <v>0</v>
@@ -68504,6 +68507,9 @@
       </c>
       <c r="E3574">
         <v>0</v>
+      </c>
+      <c r="H3574" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3575" spans="1:8" x14ac:dyDescent="0.25">
@@ -68514,19 +68520,13 @@
         <v>45</v>
       </c>
       <c r="C3575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3575">
-        <v>5</v>
-      </c>
-      <c r="F3575">
-        <v>6300</v>
-      </c>
-      <c r="H3575" t="s">
-        <v>438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3576" spans="1:8" x14ac:dyDescent="0.25">
@@ -68534,19 +68534,22 @@
         <v>442</v>
       </c>
       <c r="B3576">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3576">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3576">
+        <v>6300</v>
       </c>
       <c r="H3576" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3577" spans="1:8" x14ac:dyDescent="0.25">
@@ -68554,7 +68557,7 @@
         <v>442</v>
       </c>
       <c r="B3577">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3577">
         <v>0</v>
@@ -68574,7 +68577,7 @@
         <v>442</v>
       </c>
       <c r="B3578">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3578">
         <v>0</v>
@@ -68594,7 +68597,7 @@
         <v>442</v>
       </c>
       <c r="B3579">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3579">
         <v>0</v>
@@ -68614,7 +68617,7 @@
         <v>442</v>
       </c>
       <c r="B3580">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3580">
         <v>0</v>
@@ -68634,7 +68637,7 @@
         <v>442</v>
       </c>
       <c r="B3581">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3581">
         <v>0</v>
@@ -68654,7 +68657,7 @@
         <v>442</v>
       </c>
       <c r="B3582">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3582">
         <v>0</v>
@@ -68674,7 +68677,7 @@
         <v>442</v>
       </c>
       <c r="B3583">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3583">
         <v>0</v>
@@ -68694,7 +68697,7 @@
         <v>442</v>
       </c>
       <c r="B3584">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3584">
         <v>0</v>
@@ -68714,7 +68717,7 @@
         <v>442</v>
       </c>
       <c r="B3585">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3585">
         <v>0</v>
@@ -68734,7 +68737,7 @@
         <v>442</v>
       </c>
       <c r="B3586">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3586">
         <v>0</v>
@@ -68754,7 +68757,7 @@
         <v>442</v>
       </c>
       <c r="B3587">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3587">
         <v>0</v>
@@ -68774,7 +68777,7 @@
         <v>442</v>
       </c>
       <c r="B3588">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3588">
         <v>0</v>
@@ -68794,7 +68797,7 @@
         <v>442</v>
       </c>
       <c r="B3589">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3589">
         <v>0</v>
@@ -68814,7 +68817,7 @@
         <v>442</v>
       </c>
       <c r="B3590">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3590">
         <v>0</v>
@@ -68834,7 +68837,7 @@
         <v>442</v>
       </c>
       <c r="B3591">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3591">
         <v>0</v>
@@ -68854,7 +68857,7 @@
         <v>442</v>
       </c>
       <c r="B3592">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3592">
         <v>0</v>
@@ -68874,7 +68877,7 @@
         <v>442</v>
       </c>
       <c r="B3593">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3593">
         <v>0</v>
@@ -68894,7 +68897,7 @@
         <v>442</v>
       </c>
       <c r="B3594">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3594">
         <v>0</v>
@@ -68914,7 +68917,7 @@
         <v>442</v>
       </c>
       <c r="B3595">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3595">
         <v>0</v>
@@ -68934,7 +68937,7 @@
         <v>442</v>
       </c>
       <c r="B3596">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3596">
         <v>0</v>
@@ -68954,7 +68957,7 @@
         <v>442</v>
       </c>
       <c r="B3597">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3597">
         <v>0</v>
@@ -68974,7 +68977,7 @@
         <v>442</v>
       </c>
       <c r="B3598">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3598">
         <v>0</v>
@@ -68994,7 +68997,7 @@
         <v>442</v>
       </c>
       <c r="B3599">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3599">
         <v>0</v>
@@ -69014,7 +69017,7 @@
         <v>442</v>
       </c>
       <c r="B3600">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3600">
         <v>0</v>
@@ -69034,7 +69037,7 @@
         <v>442</v>
       </c>
       <c r="B3601">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3601">
         <v>0</v>
@@ -69054,7 +69057,7 @@
         <v>442</v>
       </c>
       <c r="B3602">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3602">
         <v>0</v>
@@ -69064,6 +69067,9 @@
       </c>
       <c r="E3602">
         <v>0</v>
+      </c>
+      <c r="H3602" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3603" spans="1:8" x14ac:dyDescent="0.25">
@@ -69074,22 +69080,13 @@
         <v>72</v>
       </c>
       <c r="C3603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3603">
-        <v>3</v>
-      </c>
-      <c r="F3603">
-        <v>0</v>
-      </c>
-      <c r="G3603">
-        <v>2700</v>
-      </c>
-      <c r="H3603" t="s">
-        <v>437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3604" spans="1:8" x14ac:dyDescent="0.25">
@@ -69097,19 +69094,25 @@
         <v>442</v>
       </c>
       <c r="B3604">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3604">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3604">
+        <v>0</v>
+      </c>
+      <c r="G3604">
+        <v>2700</v>
       </c>
       <c r="H3604" t="s">
-        <v>12</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3605" spans="1:8" x14ac:dyDescent="0.25">
@@ -69117,7 +69120,7 @@
         <v>442</v>
       </c>
       <c r="B3605">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3605">
         <v>0</v>
@@ -69127,6 +69130,9 @@
       </c>
       <c r="E3605">
         <v>0</v>
+      </c>
+      <c r="H3605" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3606" spans="1:8" x14ac:dyDescent="0.25">
@@ -69137,13 +69143,13 @@
         <v>74</v>
       </c>
       <c r="C3606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3607" spans="1:8" x14ac:dyDescent="0.25">
@@ -69151,16 +69157,16 @@
         <v>442</v>
       </c>
       <c r="B3607">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3607">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3607">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3608" spans="1:8" x14ac:dyDescent="0.25">
@@ -69171,16 +69177,13 @@
         <v>75</v>
       </c>
       <c r="C3608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3608">
-        <v>3</v>
-      </c>
-      <c r="F3608">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3609" spans="1:8" x14ac:dyDescent="0.25">
@@ -69188,19 +69191,19 @@
         <v>442</v>
       </c>
       <c r="B3609">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3609">
-        <v>0</v>
-      </c>
-      <c r="H3609" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3609">
+        <v>1800</v>
       </c>
     </row>
     <row r="3610" spans="1:8" x14ac:dyDescent="0.25">
@@ -69208,7 +69211,7 @@
         <v>442</v>
       </c>
       <c r="B3610">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3610">
         <v>0</v>
@@ -69218,6 +69221,9 @@
       </c>
       <c r="E3610">
         <v>0</v>
+      </c>
+      <c r="H3610" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3611" spans="1:8" x14ac:dyDescent="0.25">
@@ -69228,19 +69234,13 @@
         <v>77</v>
       </c>
       <c r="C3611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3611">
-        <v>3</v>
-      </c>
-      <c r="F3611">
-        <v>4500</v>
-      </c>
-      <c r="H3611" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3612" spans="1:8" x14ac:dyDescent="0.25">
@@ -69248,16 +69248,22 @@
         <v>442</v>
       </c>
       <c r="B3612">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3612">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3612">
+        <v>4500</v>
+      </c>
+      <c r="H3612" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3613" spans="1:8" x14ac:dyDescent="0.25">
@@ -69268,13 +69274,13 @@
         <v>78</v>
       </c>
       <c r="C3613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3614" spans="1:8" x14ac:dyDescent="0.25">
@@ -69282,19 +69288,16 @@
         <v>442</v>
       </c>
       <c r="B3614">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3614">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3614">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3614">
-        <v>0</v>
-      </c>
-      <c r="H3614" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3615" spans="1:8" x14ac:dyDescent="0.25">
@@ -69302,7 +69305,7 @@
         <v>442</v>
       </c>
       <c r="B3615">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3615">
         <v>0</v>
@@ -69312,6 +69315,9 @@
       </c>
       <c r="E3615">
         <v>0</v>
+      </c>
+      <c r="H3615" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3616" spans="1:8" x14ac:dyDescent="0.25">
@@ -69322,16 +69328,13 @@
         <v>80</v>
       </c>
       <c r="C3616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3616">
-        <v>1</v>
-      </c>
-      <c r="F3616">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3617" spans="1:8" x14ac:dyDescent="0.25">
@@ -69339,19 +69342,19 @@
         <v>442</v>
       </c>
       <c r="B3617">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3617">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3617">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3617">
-        <v>0</v>
-      </c>
-      <c r="H3617" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="F3617">
+        <v>1800</v>
       </c>
     </row>
     <row r="3618" spans="1:8" x14ac:dyDescent="0.25">
@@ -69359,7 +69362,7 @@
         <v>442</v>
       </c>
       <c r="B3618">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3618">
         <v>0</v>
@@ -69379,7 +69382,7 @@
         <v>442</v>
       </c>
       <c r="B3619">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3619">
         <v>0</v>
@@ -69399,7 +69402,7 @@
         <v>442</v>
       </c>
       <c r="B3620">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3620">
         <v>0</v>
@@ -69409,6 +69412,9 @@
       </c>
       <c r="E3620">
         <v>0</v>
+      </c>
+      <c r="H3620" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3621" spans="1:8" x14ac:dyDescent="0.25">
@@ -69419,16 +69425,13 @@
         <v>84</v>
       </c>
       <c r="C3621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3621">
-        <v>2</v>
-      </c>
-      <c r="F3621">
-        <v>12600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3622" spans="1:8" x14ac:dyDescent="0.25">
@@ -69436,16 +69439,19 @@
         <v>442</v>
       </c>
       <c r="B3622">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3622">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3622">
+        <v>12600</v>
       </c>
     </row>
     <row r="3623" spans="1:8" x14ac:dyDescent="0.25">
@@ -69456,13 +69462,13 @@
         <v>85</v>
       </c>
       <c r="C3623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3623">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3624" spans="1:8" x14ac:dyDescent="0.25">
@@ -69470,19 +69476,16 @@
         <v>442</v>
       </c>
       <c r="B3624">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3624">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3624">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3624">
-        <v>0</v>
-      </c>
-      <c r="H3624" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3625" spans="1:8" x14ac:dyDescent="0.25">
@@ -69490,7 +69493,7 @@
         <v>442</v>
       </c>
       <c r="B3625">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3625">
         <v>0</v>
@@ -69510,7 +69513,7 @@
         <v>442</v>
       </c>
       <c r="B3626">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3626">
         <v>0</v>
@@ -69520,6 +69523,9 @@
       </c>
       <c r="E3626">
         <v>0</v>
+      </c>
+      <c r="H3626" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3627" spans="1:8" x14ac:dyDescent="0.25">
@@ -69530,16 +69536,13 @@
         <v>88</v>
       </c>
       <c r="C3627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3627">
-        <v>3</v>
-      </c>
-      <c r="G3627">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3628" spans="1:8" x14ac:dyDescent="0.25">
@@ -69547,16 +69550,19 @@
         <v>442</v>
       </c>
       <c r="B3628">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3628">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G3628">
+        <v>1800</v>
       </c>
     </row>
     <row r="3629" spans="1:8" x14ac:dyDescent="0.25">
@@ -69567,16 +69573,13 @@
         <v>89</v>
       </c>
       <c r="C3629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3629">
-        <v>2</v>
-      </c>
-      <c r="F3629">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3630" spans="1:8" x14ac:dyDescent="0.25">
@@ -69584,16 +69587,19 @@
         <v>442</v>
       </c>
       <c r="B3630">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3630">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3630">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3630">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3630">
+        <v>8100</v>
       </c>
     </row>
     <row r="3631" spans="1:8" x14ac:dyDescent="0.25">
@@ -69604,16 +69610,13 @@
         <v>90</v>
       </c>
       <c r="C3631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3631">
-        <v>2</v>
-      </c>
-      <c r="F3631">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3632" spans="1:8" x14ac:dyDescent="0.25">
@@ -69621,16 +69624,19 @@
         <v>442</v>
       </c>
       <c r="B3632">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3632">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3632">
+        <v>8100</v>
       </c>
     </row>
     <row r="3633" spans="1:8" x14ac:dyDescent="0.25">
@@ -69641,16 +69647,13 @@
         <v>91</v>
       </c>
       <c r="C3633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3633">
-        <v>2</v>
-      </c>
-      <c r="F3633">
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3634" spans="1:8" x14ac:dyDescent="0.25">
@@ -69658,16 +69661,19 @@
         <v>442</v>
       </c>
       <c r="B3634">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3634">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3634">
+        <v>9000</v>
       </c>
     </row>
     <row r="3635" spans="1:8" x14ac:dyDescent="0.25">
@@ -69678,16 +69684,13 @@
         <v>92</v>
       </c>
       <c r="C3635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3635">
-        <v>2</v>
-      </c>
-      <c r="F3635">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3636" spans="1:8" x14ac:dyDescent="0.25">
@@ -69695,19 +69698,19 @@
         <v>442</v>
       </c>
       <c r="B3636">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3636">
-        <v>0</v>
-      </c>
-      <c r="H3636" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F3636">
+        <v>2700</v>
       </c>
     </row>
     <row r="3637" spans="1:8" x14ac:dyDescent="0.25">
@@ -69715,7 +69718,7 @@
         <v>442</v>
       </c>
       <c r="B3637">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3637">
         <v>0</v>
@@ -69735,7 +69738,7 @@
         <v>442</v>
       </c>
       <c r="B3638">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3638">
         <v>0</v>
@@ -69745,6 +69748,9 @@
       </c>
       <c r="E3638">
         <v>0</v>
+      </c>
+      <c r="H3638" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3639" spans="1:8" x14ac:dyDescent="0.25">
@@ -69755,16 +69761,13 @@
         <v>95</v>
       </c>
       <c r="C3639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3639">
-        <v>2</v>
-      </c>
-      <c r="F3639">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3640" spans="1:8" x14ac:dyDescent="0.25">
@@ -69772,16 +69775,19 @@
         <v>442</v>
       </c>
       <c r="B3640">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3640">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3640">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3640">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3640">
+        <v>1800</v>
       </c>
     </row>
     <row r="3641" spans="1:8" x14ac:dyDescent="0.25">
@@ -69792,16 +69798,13 @@
         <v>96</v>
       </c>
       <c r="C3641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3641">
-        <v>3</v>
-      </c>
-      <c r="G3641">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3642" spans="1:8" x14ac:dyDescent="0.25">
@@ -69812,19 +69815,16 @@
         <v>96</v>
       </c>
       <c r="C3642">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3642">
         <v>1</v>
       </c>
       <c r="E3642">
-        <v>2</v>
-      </c>
-      <c r="F3642">
-        <v>1800</v>
-      </c>
-      <c r="H3642" t="s">
-        <v>436</v>
+        <v>3</v>
+      </c>
+      <c r="G3642">
+        <v>6300</v>
       </c>
     </row>
     <row r="3643" spans="1:8" x14ac:dyDescent="0.25">
@@ -69835,7 +69835,7 @@
         <v>96</v>
       </c>
       <c r="C3643">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3643">
         <v>1</v>
@@ -69844,24 +69844,30 @@
         <v>2</v>
       </c>
       <c r="F3643">
-        <v>13500</v>
+        <v>1800</v>
+      </c>
+      <c r="H3643" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="3644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3644" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3644">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C3644">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3644">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3644">
+        <v>13500</v>
       </c>
     </row>
     <row r="3645" spans="1:8" x14ac:dyDescent="0.25">
@@ -69872,19 +69878,13 @@
         <v>1</v>
       </c>
       <c r="C3645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3645">
-        <v>3</v>
-      </c>
-      <c r="F3645">
-        <v>1800</v>
-      </c>
-      <c r="G3645">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3646" spans="1:8" x14ac:dyDescent="0.25">
@@ -69895,7 +69895,7 @@
         <v>1</v>
       </c>
       <c r="C3646">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3646">
         <v>1</v>
@@ -69906,8 +69906,8 @@
       <c r="F3646">
         <v>1800</v>
       </c>
-      <c r="H3646" t="s">
-        <v>453</v>
+      <c r="G3646">
+        <v>7200</v>
       </c>
     </row>
     <row r="3647" spans="1:8" x14ac:dyDescent="0.25">
@@ -69915,16 +69915,22 @@
         <v>443</v>
       </c>
       <c r="B3647">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3647">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3647">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3647">
+        <v>1800</v>
+      </c>
+      <c r="H3647" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="3648" spans="1:8" x14ac:dyDescent="0.25">
@@ -69935,19 +69941,13 @@
         <v>2</v>
       </c>
       <c r="C3648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3648">
-        <v>2</v>
-      </c>
-      <c r="F3648">
-        <v>900</v>
-      </c>
-      <c r="G3648">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3649" spans="1:8" x14ac:dyDescent="0.25">
@@ -69955,16 +69955,22 @@
         <v>443</v>
       </c>
       <c r="B3649">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3649">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3649">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3649">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3649">
+        <v>900</v>
+      </c>
+      <c r="G3649">
+        <v>11700</v>
       </c>
     </row>
     <row r="3650" spans="1:8" x14ac:dyDescent="0.25">
@@ -69975,16 +69981,13 @@
         <v>3</v>
       </c>
       <c r="C3650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3650">
-        <v>3</v>
-      </c>
-      <c r="F3650">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3651" spans="1:8" x14ac:dyDescent="0.25">
@@ -69992,19 +69995,19 @@
         <v>443</v>
       </c>
       <c r="B3651">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3651">
-        <v>0</v>
-      </c>
-      <c r="H3651" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3651">
+        <v>2700</v>
       </c>
     </row>
     <row r="3652" spans="1:8" x14ac:dyDescent="0.25">
@@ -70012,7 +70015,7 @@
         <v>443</v>
       </c>
       <c r="B3652">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3652">
         <v>0</v>
@@ -70022,6 +70025,9 @@
       </c>
       <c r="E3652">
         <v>0</v>
+      </c>
+      <c r="H3652" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3653" spans="1:8" x14ac:dyDescent="0.25">
@@ -70032,16 +70038,13 @@
         <v>5</v>
       </c>
       <c r="C3653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3653">
-        <v>3</v>
-      </c>
-      <c r="G3653">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3654" spans="1:8" x14ac:dyDescent="0.25">
@@ -70052,7 +70055,7 @@
         <v>5</v>
       </c>
       <c r="C3654">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3654">
         <v>1</v>
@@ -70060,11 +70063,8 @@
       <c r="E3654">
         <v>3</v>
       </c>
-      <c r="F3654">
+      <c r="G3654">
         <v>4500</v>
-      </c>
-      <c r="G3654">
-        <v>7200</v>
       </c>
     </row>
     <row r="3655" spans="1:8" x14ac:dyDescent="0.25">
@@ -70075,7 +70075,7 @@
         <v>5</v>
       </c>
       <c r="C3655">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3655">
         <v>1</v>
@@ -70084,7 +70084,10 @@
         <v>3</v>
       </c>
       <c r="F3655">
-        <v>10800</v>
+        <v>4500</v>
+      </c>
+      <c r="G3655">
+        <v>7200</v>
       </c>
     </row>
     <row r="3656" spans="1:8" x14ac:dyDescent="0.25">
@@ -70092,19 +70095,19 @@
         <v>443</v>
       </c>
       <c r="B3656">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3656">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3656">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3656">
-        <v>0</v>
-      </c>
-      <c r="H3656" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3656">
+        <v>10800</v>
       </c>
     </row>
     <row r="3657" spans="1:8" x14ac:dyDescent="0.25">
@@ -70112,7 +70115,7 @@
         <v>443</v>
       </c>
       <c r="B3657">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3657">
         <v>0</v>
@@ -70122,6 +70125,9 @@
       </c>
       <c r="E3657">
         <v>0</v>
+      </c>
+      <c r="H3657" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3658" spans="1:8" x14ac:dyDescent="0.25">
@@ -70132,19 +70138,13 @@
         <v>7</v>
       </c>
       <c r="C3658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3658">
-        <v>3</v>
-      </c>
-      <c r="F3658">
-        <v>5400</v>
-      </c>
-      <c r="H3658" t="s">
-        <v>447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3659" spans="1:8" x14ac:dyDescent="0.25">
@@ -70155,19 +70155,19 @@
         <v>7</v>
       </c>
       <c r="C3659">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3659">
         <v>1</v>
       </c>
       <c r="E3659">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3659">
-        <v>900</v>
-      </c>
-      <c r="G3659">
         <v>5400</v>
+      </c>
+      <c r="H3659" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="3660" spans="1:8" x14ac:dyDescent="0.25">
@@ -70178,16 +70178,16 @@
         <v>7</v>
       </c>
       <c r="C3660">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3660">
         <v>1</v>
       </c>
       <c r="E3660">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3660">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="G3660">
         <v>5400</v>
@@ -70201,7 +70201,7 @@
         <v>7</v>
       </c>
       <c r="C3661">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3661">
         <v>1</v>
@@ -70210,10 +70210,10 @@
         <v>3</v>
       </c>
       <c r="F3661">
+        <v>2700</v>
+      </c>
+      <c r="G3661">
         <v>5400</v>
-      </c>
-      <c r="H3661" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="3662" spans="1:8" x14ac:dyDescent="0.25">
@@ -70221,19 +70221,22 @@
         <v>443</v>
       </c>
       <c r="B3662">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3662">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3662">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3662">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3662">
+        <v>5400</v>
       </c>
       <c r="H3662" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3663" spans="1:8" x14ac:dyDescent="0.25">
@@ -70241,7 +70244,7 @@
         <v>443</v>
       </c>
       <c r="B3663">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3663">
         <v>0</v>
@@ -70261,7 +70264,7 @@
         <v>443</v>
       </c>
       <c r="B3664">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3664">
         <v>0</v>
@@ -70281,7 +70284,7 @@
         <v>443</v>
       </c>
       <c r="B3665">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3665">
         <v>0</v>
@@ -70301,16 +70304,19 @@
         <v>443</v>
       </c>
       <c r="B3666">
+        <v>11</v>
+      </c>
+      <c r="C3666">
+        <v>0</v>
+      </c>
+      <c r="D3666">
+        <v>0</v>
+      </c>
+      <c r="E3666">
+        <v>0</v>
+      </c>
+      <c r="H3666" t="s">
         <v>12</v>
-      </c>
-      <c r="C3666">
-        <v>0</v>
-      </c>
-      <c r="D3666">
-        <v>0</v>
-      </c>
-      <c r="E3666">
-        <v>0</v>
       </c>
     </row>
     <row r="3667" spans="1:8" x14ac:dyDescent="0.25">
@@ -70321,22 +70327,13 @@
         <v>12</v>
       </c>
       <c r="C3667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3667">
         <v>0</v>
       </c>
       <c r="E3667">
-        <v>3</v>
-      </c>
-      <c r="F3667">
-        <v>900</v>
-      </c>
-      <c r="G3667">
-        <v>3600</v>
-      </c>
-      <c r="H3667" t="s">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3668" spans="1:8" x14ac:dyDescent="0.25">
@@ -70347,7 +70344,7 @@
         <v>12</v>
       </c>
       <c r="C3668">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3668">
         <v>0</v>
@@ -70356,10 +70353,10 @@
         <v>3</v>
       </c>
       <c r="F3668">
-        <v>8100</v>
+        <v>900</v>
       </c>
       <c r="G3668">
-        <v>10800</v>
+        <v>3600</v>
       </c>
       <c r="H3668" t="s">
         <v>414</v>
@@ -70370,19 +70367,25 @@
         <v>443</v>
       </c>
       <c r="B3669">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3669">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3669">
         <v>0</v>
       </c>
       <c r="E3669">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3669">
+        <v>8100</v>
+      </c>
+      <c r="G3669">
+        <v>10800</v>
       </c>
       <c r="H3669" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3670" spans="1:8" x14ac:dyDescent="0.25">
@@ -70390,7 +70393,7 @@
         <v>443</v>
       </c>
       <c r="B3670">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3670">
         <v>0</v>
@@ -70402,7 +70405,7 @@
         <v>0</v>
       </c>
       <c r="H3670" t="s">
-        <v>12</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3671" spans="1:8" x14ac:dyDescent="0.25">
@@ -70410,7 +70413,7 @@
         <v>443</v>
       </c>
       <c r="B3671">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3671">
         <v>0</v>
@@ -70430,7 +70433,7 @@
         <v>443</v>
       </c>
       <c r="B3672">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3672">
         <v>0</v>
@@ -70450,7 +70453,7 @@
         <v>443</v>
       </c>
       <c r="B3673">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3673">
         <v>0</v>
@@ -70470,7 +70473,7 @@
         <v>443</v>
       </c>
       <c r="B3674">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3674">
         <v>0</v>
@@ -70490,7 +70493,7 @@
         <v>443</v>
       </c>
       <c r="B3675">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3675">
         <v>0</v>
@@ -70510,7 +70513,7 @@
         <v>443</v>
       </c>
       <c r="B3676">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3676">
         <v>0</v>
@@ -70530,7 +70533,7 @@
         <v>443</v>
       </c>
       <c r="B3677">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3677">
         <v>0</v>
@@ -70550,7 +70553,7 @@
         <v>443</v>
       </c>
       <c r="B3678">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3678">
         <v>0</v>
@@ -70570,7 +70573,7 @@
         <v>443</v>
       </c>
       <c r="B3679">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3679">
         <v>0</v>
@@ -70590,7 +70593,7 @@
         <v>443</v>
       </c>
       <c r="B3680">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3680">
         <v>0</v>
@@ -70610,7 +70613,7 @@
         <v>443</v>
       </c>
       <c r="B3681">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3681">
         <v>0</v>
@@ -70630,7 +70633,7 @@
         <v>443</v>
       </c>
       <c r="B3682">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3682">
         <v>0</v>
@@ -70650,7 +70653,7 @@
         <v>443</v>
       </c>
       <c r="B3683">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3683">
         <v>0</v>
@@ -70670,7 +70673,7 @@
         <v>443</v>
       </c>
       <c r="B3684">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3684">
         <v>0</v>
@@ -70690,7 +70693,7 @@
         <v>443</v>
       </c>
       <c r="B3685">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3685">
         <v>0</v>
@@ -70710,7 +70713,7 @@
         <v>443</v>
       </c>
       <c r="B3686">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3686">
         <v>0</v>
@@ -70720,6 +70723,9 @@
       </c>
       <c r="E3686">
         <v>0</v>
+      </c>
+      <c r="H3686" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3687" spans="1:8" x14ac:dyDescent="0.25">
@@ -70730,16 +70736,13 @@
         <v>30</v>
       </c>
       <c r="C3687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3687">
-        <v>3</v>
-      </c>
-      <c r="F3687">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3688" spans="1:8" x14ac:dyDescent="0.25">
@@ -70747,19 +70750,19 @@
         <v>443</v>
       </c>
       <c r="B3688">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3688">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3688">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3688">
-        <v>0</v>
-      </c>
-      <c r="H3688" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3688">
+        <v>2700</v>
       </c>
     </row>
     <row r="3689" spans="1:8" x14ac:dyDescent="0.25">
@@ -70767,7 +70770,7 @@
         <v>443</v>
       </c>
       <c r="B3689">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3689">
         <v>0</v>
@@ -70777,6 +70780,9 @@
       </c>
       <c r="E3689">
         <v>0</v>
+      </c>
+      <c r="H3689" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3690" spans="1:8" x14ac:dyDescent="0.25">
@@ -70787,16 +70793,13 @@
         <v>32</v>
       </c>
       <c r="C3690">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3690">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3690">
-        <v>2</v>
-      </c>
-      <c r="H3690" t="s">
-        <v>451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3691" spans="1:8" x14ac:dyDescent="0.25">
@@ -70804,19 +70807,19 @@
         <v>443</v>
       </c>
       <c r="B3691">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3691">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3691" t="s">
-        <v>12</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3692" spans="1:8" x14ac:dyDescent="0.25">
@@ -70827,16 +70830,16 @@
         <v>33</v>
       </c>
       <c r="C3692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3692">
-        <v>4</v>
-      </c>
-      <c r="G3692">
-        <v>8100</v>
+        <v>0</v>
+      </c>
+      <c r="H3692" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3693" spans="1:8" x14ac:dyDescent="0.25">
@@ -70844,16 +70847,19 @@
         <v>443</v>
       </c>
       <c r="B3693">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3693">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3693">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3693">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3693">
+        <v>8100</v>
       </c>
     </row>
     <row r="3694" spans="1:8" x14ac:dyDescent="0.25">
@@ -70861,7 +70867,7 @@
         <v>443</v>
       </c>
       <c r="B3694">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3694">
         <v>0</v>
@@ -70881,13 +70887,13 @@
         <v>35</v>
       </c>
       <c r="C3695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3695">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3696" spans="1:8" x14ac:dyDescent="0.25">
@@ -70895,16 +70901,16 @@
         <v>443</v>
       </c>
       <c r="B3696">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3696">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3696">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3696">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3697" spans="1:8" x14ac:dyDescent="0.25">
@@ -70915,16 +70921,13 @@
         <v>36</v>
       </c>
       <c r="C3697">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3697">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3697">
-        <v>2</v>
-      </c>
-      <c r="F3697">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3698" spans="1:8" x14ac:dyDescent="0.25">
@@ -70932,19 +70935,19 @@
         <v>443</v>
       </c>
       <c r="B3698">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3698">
-        <v>0</v>
-      </c>
-      <c r="H3698" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F3698">
+        <v>6300</v>
       </c>
     </row>
     <row r="3699" spans="1:8" x14ac:dyDescent="0.25">
@@ -70952,7 +70955,7 @@
         <v>443</v>
       </c>
       <c r="B3699">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3699">
         <v>0</v>
@@ -70962,6 +70965,9 @@
       </c>
       <c r="E3699">
         <v>0</v>
+      </c>
+      <c r="H3699" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3700" spans="1:8" x14ac:dyDescent="0.25">
@@ -70972,13 +70978,13 @@
         <v>38</v>
       </c>
       <c r="C3700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3700">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3701" spans="1:8" x14ac:dyDescent="0.25">
@@ -70986,19 +70992,16 @@
         <v>443</v>
       </c>
       <c r="B3701">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3701">
-        <v>0</v>
-      </c>
-      <c r="H3701" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3702" spans="1:8" x14ac:dyDescent="0.25">
@@ -71006,7 +71009,7 @@
         <v>443</v>
       </c>
       <c r="B3702">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3702">
         <v>0</v>
@@ -71018,7 +71021,7 @@
         <v>0</v>
       </c>
       <c r="H3702" t="s">
-        <v>446</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3703" spans="1:8" x14ac:dyDescent="0.25">
@@ -71029,22 +71032,16 @@
         <v>40</v>
       </c>
       <c r="C3703">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3703">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3703">
-        <v>3</v>
-      </c>
-      <c r="F3703">
-        <v>900</v>
-      </c>
-      <c r="G3703">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="H3703" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3704" spans="1:8" x14ac:dyDescent="0.25">
@@ -71055,7 +71052,7 @@
         <v>40</v>
       </c>
       <c r="C3704">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3704">
         <v>1</v>
@@ -71064,10 +71061,10 @@
         <v>3</v>
       </c>
       <c r="F3704">
-        <v>3600</v>
+        <v>900</v>
       </c>
       <c r="G3704">
-        <v>7200</v>
+        <v>2700</v>
       </c>
       <c r="H3704" t="s">
         <v>447</v>
@@ -71081,19 +71078,22 @@
         <v>40</v>
       </c>
       <c r="C3705">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3705">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3705">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3705">
+        <v>3600</v>
+      </c>
+      <c r="G3705">
         <v>7200</v>
       </c>
       <c r="H3705" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3706" spans="1:8" x14ac:dyDescent="0.25">
@@ -71104,19 +71104,19 @@
         <v>40</v>
       </c>
       <c r="C3706">
+        <v>3</v>
+      </c>
+      <c r="D3706">
+        <v>0</v>
+      </c>
+      <c r="E3706">
         <v>4</v>
-      </c>
-      <c r="D3706">
-        <v>1</v>
-      </c>
-      <c r="E3706">
-        <v>2</v>
       </c>
       <c r="F3706">
         <v>7200</v>
       </c>
-      <c r="G3706">
-        <v>10800</v>
+      <c r="H3706" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="3707" spans="1:8" x14ac:dyDescent="0.25">
@@ -71127,7 +71127,7 @@
         <v>40</v>
       </c>
       <c r="C3707">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3707">
         <v>1</v>
@@ -71137,6 +71137,9 @@
       </c>
       <c r="F3707">
         <v>7200</v>
+      </c>
+      <c r="G3707">
+        <v>10800</v>
       </c>
     </row>
     <row r="3708" spans="1:8" x14ac:dyDescent="0.25">
@@ -71147,19 +71150,16 @@
         <v>40</v>
       </c>
       <c r="C3708">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3708">
         <v>1</v>
       </c>
       <c r="E3708">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3708">
-        <v>9900</v>
-      </c>
-      <c r="H3708" t="s">
-        <v>448</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3709" spans="1:8" x14ac:dyDescent="0.25">
@@ -71167,19 +71167,22 @@
         <v>443</v>
       </c>
       <c r="B3709">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3709">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3709">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3709">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3709">
+        <v>9900</v>
       </c>
       <c r="H3709" t="s">
-        <v>12</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3710" spans="1:8" x14ac:dyDescent="0.25">
@@ -71187,7 +71190,7 @@
         <v>443</v>
       </c>
       <c r="B3710">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3710">
         <v>0</v>
@@ -71207,7 +71210,7 @@
         <v>443</v>
       </c>
       <c r="B3711">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3711">
         <v>0</v>
@@ -71217,6 +71220,9 @@
       </c>
       <c r="E3711">
         <v>0</v>
+      </c>
+      <c r="H3711" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3712" spans="1:8" x14ac:dyDescent="0.25">
@@ -71227,22 +71233,13 @@
         <v>43</v>
       </c>
       <c r="C3712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3712">
         <v>0</v>
       </c>
       <c r="E3712">
-        <v>3</v>
-      </c>
-      <c r="F3712">
-        <v>2700</v>
-      </c>
-      <c r="G3712">
-        <v>9900</v>
-      </c>
-      <c r="H3712" t="s">
-        <v>449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3713" spans="1:8" x14ac:dyDescent="0.25">
@@ -71253,19 +71250,22 @@
         <v>43</v>
       </c>
       <c r="C3713">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3713">
         <v>3</v>
       </c>
       <c r="F3713">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="G3713">
-        <v>9000</v>
+        <v>9900</v>
+      </c>
+      <c r="H3713" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="3714" spans="1:8" x14ac:dyDescent="0.25">
@@ -71273,19 +71273,22 @@
         <v>443</v>
       </c>
       <c r="B3714">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3714">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3714">
-        <v>0</v>
-      </c>
-      <c r="H3714" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3714">
+        <v>1800</v>
+      </c>
+      <c r="G3714">
+        <v>9000</v>
       </c>
     </row>
     <row r="3715" spans="1:8" x14ac:dyDescent="0.25">
@@ -71293,7 +71296,7 @@
         <v>443</v>
       </c>
       <c r="B3715">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3715">
         <v>0</v>
@@ -71313,7 +71316,7 @@
         <v>443</v>
       </c>
       <c r="B3716">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3716">
         <v>0</v>
@@ -71323,6 +71326,9 @@
       </c>
       <c r="E3716">
         <v>0</v>
+      </c>
+      <c r="H3716" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3717" spans="1:8" x14ac:dyDescent="0.25">
@@ -71333,22 +71339,13 @@
         <v>46</v>
       </c>
       <c r="C3717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3717">
-        <v>5</v>
-      </c>
-      <c r="F3717">
-        <v>2700</v>
-      </c>
-      <c r="G3717">
-        <v>7200</v>
-      </c>
-      <c r="H3717" t="s">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3718" spans="1:8" x14ac:dyDescent="0.25">
@@ -71356,16 +71353,25 @@
         <v>443</v>
       </c>
       <c r="B3718">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3718">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3718">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3718">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3718">
+        <v>2700</v>
+      </c>
+      <c r="G3718">
+        <v>7200</v>
+      </c>
+      <c r="H3718" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="3719" spans="1:8" x14ac:dyDescent="0.25">
@@ -71376,13 +71382,13 @@
         <v>47</v>
       </c>
       <c r="C3719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3719">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3720" spans="1:8" x14ac:dyDescent="0.25">
@@ -71390,16 +71396,16 @@
         <v>443</v>
       </c>
       <c r="B3720">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3720">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3720">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3720">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3721" spans="1:8" x14ac:dyDescent="0.25">
@@ -71410,13 +71416,13 @@
         <v>48</v>
       </c>
       <c r="C3721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3721">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3722" spans="1:8" x14ac:dyDescent="0.25">
@@ -71424,16 +71430,16 @@
         <v>443</v>
       </c>
       <c r="B3722">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3722">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3722">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3722">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3723" spans="1:8" x14ac:dyDescent="0.25">
@@ -71444,16 +71450,13 @@
         <v>49</v>
       </c>
       <c r="C3723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3723">
-        <v>3</v>
-      </c>
-      <c r="F3723">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3724" spans="1:8" x14ac:dyDescent="0.25">
@@ -71461,16 +71464,19 @@
         <v>443</v>
       </c>
       <c r="B3724">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3724">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3724">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3724">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3724">
+        <v>900</v>
       </c>
     </row>
     <row r="3725" spans="1:8" x14ac:dyDescent="0.25">
@@ -71481,19 +71487,13 @@
         <v>50</v>
       </c>
       <c r="C3725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3725">
-        <v>4</v>
-      </c>
-      <c r="F3725">
-        <v>2700</v>
-      </c>
-      <c r="H3725" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3726" spans="1:8" x14ac:dyDescent="0.25">
@@ -71501,16 +71501,22 @@
         <v>443</v>
       </c>
       <c r="B3726">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3726">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3726">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3726">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3726">
+        <v>2700</v>
+      </c>
+      <c r="H3726" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3727" spans="1:8" x14ac:dyDescent="0.25">
@@ -71521,19 +71527,13 @@
         <v>51</v>
       </c>
       <c r="C3727">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3727">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3727">
-        <v>4</v>
-      </c>
-      <c r="F3727">
-        <v>6300</v>
-      </c>
-      <c r="H3727" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3728" spans="1:8" x14ac:dyDescent="0.25">
@@ -71541,16 +71541,22 @@
         <v>443</v>
       </c>
       <c r="B3728">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3728">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3728">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3728">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3728">
+        <v>6300</v>
+      </c>
+      <c r="H3728" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3729" spans="1:8" x14ac:dyDescent="0.25">
@@ -71561,19 +71567,13 @@
         <v>52</v>
       </c>
       <c r="C3729">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3729">
         <v>0</v>
       </c>
       <c r="E3729">
-        <v>4</v>
-      </c>
-      <c r="G3729">
-        <v>9000</v>
-      </c>
-      <c r="H3729" t="s">
-        <v>444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3730" spans="1:8" x14ac:dyDescent="0.25">
@@ -71581,19 +71581,22 @@
         <v>443</v>
       </c>
       <c r="B3730">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3730">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3730">
         <v>0</v>
       </c>
       <c r="E3730">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3730">
+        <v>9000</v>
       </c>
       <c r="H3730" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3731" spans="1:8" x14ac:dyDescent="0.25">
@@ -71601,7 +71604,7 @@
         <v>443</v>
       </c>
       <c r="B3731">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3731">
         <v>0</v>
@@ -71621,7 +71624,7 @@
         <v>443</v>
       </c>
       <c r="B3732">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3732">
         <v>0</v>
@@ -71641,7 +71644,7 @@
         <v>443</v>
       </c>
       <c r="B3733">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3733">
         <v>0</v>
@@ -71651,6 +71654,9 @@
       </c>
       <c r="E3733">
         <v>0</v>
+      </c>
+      <c r="H3733" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3734" spans="1:8" x14ac:dyDescent="0.25">
@@ -71661,22 +71667,13 @@
         <v>56</v>
       </c>
       <c r="C3734">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3734">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3734">
-        <v>2</v>
-      </c>
-      <c r="F3734">
-        <v>1800</v>
-      </c>
-      <c r="G3734">
-        <v>7200</v>
-      </c>
-      <c r="H3734" t="s">
-        <v>445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3735" spans="1:8" x14ac:dyDescent="0.25">
@@ -71684,19 +71681,25 @@
         <v>443</v>
       </c>
       <c r="B3735">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3735">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3735">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3735">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3735">
+        <v>1800</v>
+      </c>
+      <c r="G3735">
+        <v>7200</v>
       </c>
       <c r="H3735" t="s">
-        <v>12</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3736" spans="1:8" x14ac:dyDescent="0.25">
@@ -71704,7 +71707,7 @@
         <v>443</v>
       </c>
       <c r="B3736">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3736">
         <v>0</v>
@@ -71724,7 +71727,7 @@
         <v>443</v>
       </c>
       <c r="B3737">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3737">
         <v>0</v>
@@ -71744,7 +71747,7 @@
         <v>443</v>
       </c>
       <c r="B3738">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3738">
         <v>0</v>
@@ -71764,7 +71767,7 @@
         <v>443</v>
       </c>
       <c r="B3739">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3739">
         <v>0</v>
@@ -71784,7 +71787,7 @@
         <v>443</v>
       </c>
       <c r="B3740">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3740">
         <v>0</v>
@@ -71804,7 +71807,7 @@
         <v>443</v>
       </c>
       <c r="B3741">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3741">
         <v>0</v>
@@ -71824,7 +71827,7 @@
         <v>443</v>
       </c>
       <c r="B3742">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3742">
         <v>0</v>
@@ -71841,10 +71844,10 @@
     </row>
     <row r="3743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3743" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B3743">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C3743">
         <v>0</v>
@@ -71854,6 +71857,9 @@
       </c>
       <c r="E3743">
         <v>0</v>
+      </c>
+      <c r="H3743" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3744" spans="1:8" x14ac:dyDescent="0.25">
@@ -71864,22 +71870,13 @@
         <v>1</v>
       </c>
       <c r="C3744">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3744">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3744">
-        <v>3</v>
-      </c>
-      <c r="F3744">
-        <v>4500</v>
-      </c>
-      <c r="G3744">
-        <v>9900</v>
-      </c>
-      <c r="H3744" t="s">
-        <v>464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3745" spans="1:8" x14ac:dyDescent="0.25">
@@ -71887,16 +71884,25 @@
         <v>455</v>
       </c>
       <c r="B3745">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3745">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3745">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3745">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3745">
+        <v>4500</v>
+      </c>
+      <c r="G3745">
+        <v>9900</v>
+      </c>
+      <c r="H3745" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="3746" spans="1:8" x14ac:dyDescent="0.25">
@@ -71907,19 +71913,13 @@
         <v>2</v>
       </c>
       <c r="C3746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3746">
-        <v>5</v>
-      </c>
-      <c r="F3746">
-        <v>900</v>
-      </c>
-      <c r="G3746">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3747" spans="1:8" x14ac:dyDescent="0.25">
@@ -71927,19 +71927,22 @@
         <v>455</v>
       </c>
       <c r="B3747">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3747">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3747">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3747">
-        <v>0</v>
-      </c>
-      <c r="H3747" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="F3747">
+        <v>900</v>
+      </c>
+      <c r="G3747">
+        <v>6300</v>
       </c>
     </row>
     <row r="3748" spans="1:8" x14ac:dyDescent="0.25">
@@ -71947,7 +71950,7 @@
         <v>455</v>
       </c>
       <c r="B3748">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3748">
         <v>0</v>
@@ -71957,6 +71960,9 @@
       </c>
       <c r="E3748">
         <v>0</v>
+      </c>
+      <c r="H3748" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3749" spans="1:8" x14ac:dyDescent="0.25">
@@ -71967,19 +71973,13 @@
         <v>4</v>
       </c>
       <c r="C3749">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3749">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3749">
-        <v>4</v>
-      </c>
-      <c r="F3749">
-        <v>900</v>
-      </c>
-      <c r="G3749">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3750" spans="1:8" x14ac:dyDescent="0.25">
@@ -71990,7 +71990,7 @@
         <v>4</v>
       </c>
       <c r="C3750">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3750">
         <v>1</v>
@@ -71999,7 +71999,10 @@
         <v>4</v>
       </c>
       <c r="F3750">
-        <v>8100</v>
+        <v>900</v>
+      </c>
+      <c r="G3750">
+        <v>5400</v>
       </c>
     </row>
     <row r="3751" spans="1:8" x14ac:dyDescent="0.25">
@@ -72010,13 +72013,13 @@
         <v>4</v>
       </c>
       <c r="C3751">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3751">
         <v>1</v>
       </c>
       <c r="E3751">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3751">
         <v>8100</v>
@@ -72027,16 +72030,19 @@
         <v>455</v>
       </c>
       <c r="B3752">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3752">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3752">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3752">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3752">
+        <v>8100</v>
       </c>
     </row>
     <row r="3753" spans="1:8" x14ac:dyDescent="0.25">
@@ -72047,19 +72053,13 @@
         <v>5</v>
       </c>
       <c r="C3753">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3753">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3753">
-        <v>5</v>
-      </c>
-      <c r="G3753">
-        <v>10800</v>
-      </c>
-      <c r="H3753" t="s">
-        <v>465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3754" spans="1:8" x14ac:dyDescent="0.25">
@@ -72070,19 +72070,19 @@
         <v>5</v>
       </c>
       <c r="C3754">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3754">
         <v>1</v>
       </c>
       <c r="E3754">
-        <v>3</v>
-      </c>
-      <c r="F3754">
-        <v>12600</v>
+        <v>5</v>
+      </c>
+      <c r="G3754">
+        <v>10800</v>
       </c>
       <c r="H3754" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3755" spans="1:8" x14ac:dyDescent="0.25">
@@ -72090,16 +72090,22 @@
         <v>455</v>
       </c>
       <c r="B3755">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3755">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3755">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3755">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3755">
+        <v>12600</v>
+      </c>
+      <c r="H3755" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="3756" spans="1:8" x14ac:dyDescent="0.25">
@@ -72110,19 +72116,13 @@
         <v>6</v>
       </c>
       <c r="C3756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3756">
-        <v>2</v>
-      </c>
-      <c r="F3756">
-        <v>6300</v>
-      </c>
-      <c r="G3756">
-        <v>10800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3757" spans="1:8" x14ac:dyDescent="0.25">
@@ -72130,19 +72130,22 @@
         <v>455</v>
       </c>
       <c r="B3757">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3757">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3757">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3757">
-        <v>0</v>
-      </c>
-      <c r="H3757" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F3757">
+        <v>6300</v>
+      </c>
+      <c r="G3757">
+        <v>10800</v>
       </c>
     </row>
     <row r="3758" spans="1:8" x14ac:dyDescent="0.25">
@@ -72150,7 +72153,7 @@
         <v>455</v>
       </c>
       <c r="B3758">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3758">
         <v>0</v>
@@ -72160,6 +72163,9 @@
       </c>
       <c r="E3758">
         <v>0</v>
+      </c>
+      <c r="H3758" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3759" spans="1:8" x14ac:dyDescent="0.25">
@@ -72170,16 +72176,13 @@
         <v>8</v>
       </c>
       <c r="C3759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3759">
-        <v>3</v>
-      </c>
-      <c r="F3759">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3760" spans="1:8" x14ac:dyDescent="0.25">
@@ -72187,19 +72190,19 @@
         <v>455</v>
       </c>
       <c r="B3760">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3760">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3760">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3760">
-        <v>0</v>
-      </c>
-      <c r="H3760" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3760">
+        <v>1800</v>
       </c>
     </row>
     <row r="3761" spans="1:8" x14ac:dyDescent="0.25">
@@ -72207,7 +72210,7 @@
         <v>455</v>
       </c>
       <c r="B3761">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3761">
         <v>0</v>
@@ -72227,7 +72230,7 @@
         <v>455</v>
       </c>
       <c r="B3762">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3762">
         <v>0</v>
@@ -72247,7 +72250,7 @@
         <v>455</v>
       </c>
       <c r="B3763">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3763">
         <v>0</v>
@@ -72270,19 +72273,16 @@
         <v>12</v>
       </c>
       <c r="C3764">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3764">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3764">
-        <v>5</v>
-      </c>
-      <c r="F3764">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="H3764" t="s">
-        <v>465</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3765" spans="1:8" x14ac:dyDescent="0.25">
@@ -72290,19 +72290,22 @@
         <v>455</v>
       </c>
       <c r="B3765">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3765">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3765">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3765">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3765">
+        <v>11700</v>
       </c>
       <c r="H3765" t="s">
-        <v>12</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3766" spans="1:8" x14ac:dyDescent="0.25">
@@ -72310,7 +72313,7 @@
         <v>455</v>
       </c>
       <c r="B3766">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3766">
         <v>0</v>
@@ -72333,19 +72336,16 @@
         <v>14</v>
       </c>
       <c r="C3767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3767">
-        <v>2</v>
-      </c>
-      <c r="F3767">
-        <v>2700</v>
-      </c>
-      <c r="G3767">
-        <v>14400</v>
+        <v>0</v>
+      </c>
+      <c r="H3767" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3768" spans="1:8" x14ac:dyDescent="0.25">
@@ -72353,16 +72353,22 @@
         <v>455</v>
       </c>
       <c r="B3768">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3768">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3768">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3768">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3768">
+        <v>2700</v>
+      </c>
+      <c r="G3768">
+        <v>14400</v>
       </c>
     </row>
     <row r="3769" spans="1:8" x14ac:dyDescent="0.25">
@@ -72373,16 +72379,13 @@
         <v>15</v>
       </c>
       <c r="C3769">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3769">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3769">
-        <v>1</v>
-      </c>
-      <c r="F3769">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3770" spans="1:8" x14ac:dyDescent="0.25">
@@ -72390,16 +72393,19 @@
         <v>455</v>
       </c>
       <c r="B3770">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3770">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3770">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3770">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F3770">
+        <v>900</v>
       </c>
     </row>
     <row r="3771" spans="1:8" x14ac:dyDescent="0.25">
@@ -72410,16 +72416,13 @@
         <v>16</v>
       </c>
       <c r="C3771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3771">
-        <v>5</v>
-      </c>
-      <c r="F3771">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3772" spans="1:8" x14ac:dyDescent="0.25">
@@ -72427,16 +72430,19 @@
         <v>455</v>
       </c>
       <c r="B3772">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3772">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3772">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3772">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3772">
+        <v>8100</v>
       </c>
     </row>
     <row r="3773" spans="1:8" x14ac:dyDescent="0.25">
@@ -72447,22 +72453,13 @@
         <v>17</v>
       </c>
       <c r="C3773">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3773">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3773">
-        <v>4</v>
-      </c>
-      <c r="F3773">
-        <v>900</v>
-      </c>
-      <c r="G3773">
-        <v>6300</v>
-      </c>
-      <c r="H3773" t="s">
-        <v>356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3774" spans="1:8" x14ac:dyDescent="0.25">
@@ -72473,7 +72470,7 @@
         <v>17</v>
       </c>
       <c r="C3774">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3774">
         <v>1</v>
@@ -72482,7 +72479,13 @@
         <v>4</v>
       </c>
       <c r="F3774">
+        <v>900</v>
+      </c>
+      <c r="G3774">
         <v>6300</v>
+      </c>
+      <c r="H3774" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="3775" spans="1:8" x14ac:dyDescent="0.25">
@@ -72493,19 +72496,16 @@
         <v>17</v>
       </c>
       <c r="C3775">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3775">
         <v>1</v>
       </c>
       <c r="E3775">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3775">
         <v>6300</v>
-      </c>
-      <c r="G3775">
-        <v>13500</v>
       </c>
     </row>
     <row r="3776" spans="1:8" x14ac:dyDescent="0.25">
@@ -72513,16 +72513,22 @@
         <v>455</v>
       </c>
       <c r="B3776">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3776">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3776">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3776">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3776">
+        <v>6300</v>
+      </c>
+      <c r="G3776">
+        <v>13500</v>
       </c>
     </row>
     <row r="3777" spans="1:8" x14ac:dyDescent="0.25">
@@ -72533,16 +72539,13 @@
         <v>18</v>
       </c>
       <c r="C3777">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3777">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3777">
-        <v>4</v>
-      </c>
-      <c r="F3777">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3778" spans="1:8" x14ac:dyDescent="0.25">
@@ -72550,16 +72553,19 @@
         <v>455</v>
       </c>
       <c r="B3778">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3778">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3778">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3778">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3778">
+        <v>1800</v>
       </c>
     </row>
     <row r="3779" spans="1:8" x14ac:dyDescent="0.25">
@@ -72570,16 +72576,13 @@
         <v>19</v>
       </c>
       <c r="C3779">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3779">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3779">
-        <v>2</v>
-      </c>
-      <c r="F3779">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3780" spans="1:8" x14ac:dyDescent="0.25">
@@ -72590,16 +72593,16 @@
         <v>19</v>
       </c>
       <c r="C3780">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3780">
         <v>1</v>
       </c>
       <c r="E3780">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3780">
-        <v>12600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="3781" spans="1:8" x14ac:dyDescent="0.25">
@@ -72607,16 +72610,19 @@
         <v>455</v>
       </c>
       <c r="B3781">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3781">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3781">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3781">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3781">
+        <v>12600</v>
       </c>
     </row>
     <row r="3782" spans="1:8" x14ac:dyDescent="0.25">
@@ -72627,19 +72633,13 @@
         <v>20</v>
       </c>
       <c r="C3782">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3782">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3782">
-        <v>3</v>
-      </c>
-      <c r="F3782">
-        <v>5400</v>
-      </c>
-      <c r="H3782" t="s">
-        <v>461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3783" spans="1:8" x14ac:dyDescent="0.25">
@@ -72647,16 +72647,22 @@
         <v>455</v>
       </c>
       <c r="B3783">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3783">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3783">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3783">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3783">
+        <v>5400</v>
+      </c>
+      <c r="H3783" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="3784" spans="1:8" x14ac:dyDescent="0.25">
@@ -72667,13 +72673,13 @@
         <v>21</v>
       </c>
       <c r="C3784">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3784">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3785" spans="1:8" x14ac:dyDescent="0.25">
@@ -72681,16 +72687,16 @@
         <v>455</v>
       </c>
       <c r="B3785">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3785">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3785">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3786" spans="1:8" x14ac:dyDescent="0.25">
@@ -72701,19 +72707,13 @@
         <v>22</v>
       </c>
       <c r="C3786">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3786">
         <v>0</v>
       </c>
       <c r="E3786">
-        <v>4</v>
-      </c>
-      <c r="G3786">
-        <v>10800</v>
-      </c>
-      <c r="H3786" t="s">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3787" spans="1:8" x14ac:dyDescent="0.25">
@@ -72721,16 +72721,22 @@
         <v>455</v>
       </c>
       <c r="B3787">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3787">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3787">
         <v>0</v>
       </c>
       <c r="E3787">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3787">
+        <v>10800</v>
+      </c>
+      <c r="H3787" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="3788" spans="1:8" x14ac:dyDescent="0.25">
@@ -72741,19 +72747,13 @@
         <v>23</v>
       </c>
       <c r="C3788">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3788">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3788">
-        <v>4</v>
-      </c>
-      <c r="F3788">
-        <v>1800</v>
-      </c>
-      <c r="G3788">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3789" spans="1:8" x14ac:dyDescent="0.25">
@@ -72761,16 +72761,22 @@
         <v>455</v>
       </c>
       <c r="B3789">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3789">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3789">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3789">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3789">
+        <v>1800</v>
+      </c>
+      <c r="G3789">
+        <v>4500</v>
       </c>
     </row>
     <row r="3790" spans="1:8" x14ac:dyDescent="0.25">
@@ -72781,22 +72787,13 @@
         <v>24</v>
       </c>
       <c r="C3790">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3790">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3790">
-        <v>5</v>
-      </c>
-      <c r="F3790">
-        <v>900</v>
-      </c>
-      <c r="G3790">
-        <v>6300</v>
-      </c>
-      <c r="H3790" t="s">
-        <v>462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3791" spans="1:8" x14ac:dyDescent="0.25">
@@ -72807,19 +72804,22 @@
         <v>24</v>
       </c>
       <c r="C3791">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3791">
         <v>1</v>
       </c>
       <c r="E3791">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3791">
-        <v>4500</v>
+        <v>900</v>
       </c>
       <c r="G3791">
-        <v>7200</v>
+        <v>6300</v>
+      </c>
+      <c r="H3791" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="3792" spans="1:8" x14ac:dyDescent="0.25">
@@ -72827,19 +72827,22 @@
         <v>455</v>
       </c>
       <c r="B3792">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3792">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3792">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3792">
-        <v>0</v>
-      </c>
-      <c r="H3792" t="s">
-        <v>456</v>
+        <v>4</v>
+      </c>
+      <c r="F3792">
+        <v>4500</v>
+      </c>
+      <c r="G3792">
+        <v>7200</v>
       </c>
     </row>
     <row r="3793" spans="1:8" x14ac:dyDescent="0.25">
@@ -72847,7 +72850,7 @@
         <v>455</v>
       </c>
       <c r="B3793">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3793">
         <v>0</v>
@@ -72867,7 +72870,7 @@
         <v>455</v>
       </c>
       <c r="B3794">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3794">
         <v>0</v>
@@ -72887,7 +72890,7 @@
         <v>455</v>
       </c>
       <c r="B3795">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3795">
         <v>0</v>
@@ -72897,6 +72900,9 @@
       </c>
       <c r="E3795">
         <v>0</v>
+      </c>
+      <c r="H3795" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3796" spans="1:8" x14ac:dyDescent="0.25">
@@ -72907,16 +72913,13 @@
         <v>28</v>
       </c>
       <c r="C3796">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3796">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3796">
-        <v>3</v>
-      </c>
-      <c r="H3796" t="s">
-        <v>463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3797" spans="1:8" x14ac:dyDescent="0.25">
@@ -72924,16 +72927,19 @@
         <v>455</v>
       </c>
       <c r="B3797">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3797">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3797">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3797">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H3797" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="3798" spans="1:8" x14ac:dyDescent="0.25">
@@ -72944,19 +72950,13 @@
         <v>29</v>
       </c>
       <c r="C3798">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3798">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3798">
-        <v>3</v>
-      </c>
-      <c r="F3798">
-        <v>900</v>
-      </c>
-      <c r="G3798">
-        <v>13500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3799" spans="1:8" x14ac:dyDescent="0.25">
@@ -72964,16 +72964,22 @@
         <v>455</v>
       </c>
       <c r="B3799">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3799">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3799">
+        <v>900</v>
+      </c>
+      <c r="G3799">
+        <v>13500</v>
       </c>
     </row>
     <row r="3800" spans="1:8" x14ac:dyDescent="0.25">
@@ -72984,13 +72990,13 @@
         <v>30</v>
       </c>
       <c r="C3800">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3800">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3800">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3801" spans="1:8" x14ac:dyDescent="0.25">
@@ -72998,16 +73004,16 @@
         <v>455</v>
       </c>
       <c r="B3801">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3801">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3801">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3801">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3802" spans="1:8" x14ac:dyDescent="0.25">
@@ -73018,16 +73024,13 @@
         <v>31</v>
       </c>
       <c r="C3802">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3802">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3802">
-        <v>3</v>
-      </c>
-      <c r="F3802">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3803" spans="1:8" x14ac:dyDescent="0.25">
@@ -73035,16 +73038,19 @@
         <v>455</v>
       </c>
       <c r="B3803">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3803">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3803">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3803">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3803">
+        <v>7200</v>
       </c>
     </row>
     <row r="3804" spans="1:8" x14ac:dyDescent="0.25">
@@ -73055,19 +73061,13 @@
         <v>32</v>
       </c>
       <c r="C3804">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3804">
         <v>0</v>
       </c>
       <c r="E3804">
-        <v>2</v>
-      </c>
-      <c r="F3804">
-        <v>2700</v>
-      </c>
-      <c r="G3804">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3805" spans="1:8" x14ac:dyDescent="0.25">
@@ -73078,10 +73078,10 @@
         <v>32</v>
       </c>
       <c r="C3805">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3805">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3805">
         <v>2</v>
@@ -73090,7 +73090,7 @@
         <v>2700</v>
       </c>
       <c r="G3805">
-        <v>4500</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="3806" spans="1:8" x14ac:dyDescent="0.25">
@@ -73098,19 +73098,22 @@
         <v>455</v>
       </c>
       <c r="B3806">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3806">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3806">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3806">
-        <v>0</v>
-      </c>
-      <c r="H3806" t="s">
-        <v>456</v>
+        <v>2</v>
+      </c>
+      <c r="F3806">
+        <v>2700</v>
+      </c>
+      <c r="G3806">
+        <v>4500</v>
       </c>
     </row>
     <row r="3807" spans="1:8" x14ac:dyDescent="0.25">
@@ -73118,7 +73121,7 @@
         <v>455</v>
       </c>
       <c r="B3807">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3807">
         <v>0</v>
@@ -73138,7 +73141,7 @@
         <v>455</v>
       </c>
       <c r="B3808">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3808">
         <v>0</v>
@@ -73148,6 +73151,9 @@
       </c>
       <c r="E3808">
         <v>0</v>
+      </c>
+      <c r="H3808" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3809" spans="1:8" x14ac:dyDescent="0.25">
@@ -73158,19 +73164,13 @@
         <v>35</v>
       </c>
       <c r="C3809">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3809">
         <v>0</v>
       </c>
       <c r="E3809">
-        <v>4</v>
-      </c>
-      <c r="F3809">
-        <v>900</v>
-      </c>
-      <c r="H3809" t="s">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3810" spans="1:8" x14ac:dyDescent="0.25">
@@ -73178,19 +73178,22 @@
         <v>455</v>
       </c>
       <c r="B3810">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3810">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3810">
         <v>0</v>
       </c>
       <c r="E3810">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3810">
+        <v>900</v>
       </c>
       <c r="H3810" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3811" spans="1:8" x14ac:dyDescent="0.25">
@@ -73198,7 +73201,7 @@
         <v>455</v>
       </c>
       <c r="B3811">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3811">
         <v>0</v>
@@ -73208,6 +73211,9 @@
       </c>
       <c r="E3811">
         <v>0</v>
+      </c>
+      <c r="H3811" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3812" spans="1:8" x14ac:dyDescent="0.25">
@@ -73218,19 +73224,13 @@
         <v>37</v>
       </c>
       <c r="C3812">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3812">
         <v>0</v>
       </c>
       <c r="E3812">
-        <v>4</v>
-      </c>
-      <c r="F3812">
-        <v>7200</v>
-      </c>
-      <c r="H3812" t="s">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3813" spans="1:8" x14ac:dyDescent="0.25">
@@ -73238,16 +73238,22 @@
         <v>455</v>
       </c>
       <c r="B3813">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3813">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3813">
         <v>0</v>
       </c>
       <c r="E3813">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3813">
+        <v>7200</v>
+      </c>
+      <c r="H3813" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="3814" spans="1:8" x14ac:dyDescent="0.25">
@@ -73258,16 +73264,13 @@
         <v>38</v>
       </c>
       <c r="C3814">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3814">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3814">
-        <v>3</v>
-      </c>
-      <c r="F3814">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3815" spans="1:8" x14ac:dyDescent="0.25">
@@ -73275,19 +73278,19 @@
         <v>455</v>
       </c>
       <c r="B3815">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3815">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3815">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3815">
-        <v>0</v>
-      </c>
-      <c r="H3815" t="s">
-        <v>456</v>
+        <v>3</v>
+      </c>
+      <c r="F3815">
+        <v>11700</v>
       </c>
     </row>
     <row r="3816" spans="1:8" x14ac:dyDescent="0.25">
@@ -73295,7 +73298,7 @@
         <v>455</v>
       </c>
       <c r="B3816">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3816">
         <v>0</v>
@@ -73315,7 +73318,7 @@
         <v>455</v>
       </c>
       <c r="B3817">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3817">
         <v>0</v>
@@ -73335,7 +73338,7 @@
         <v>455</v>
       </c>
       <c r="B3818">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3818">
         <v>0</v>
@@ -73345,6 +73348,9 @@
       </c>
       <c r="E3818">
         <v>0</v>
+      </c>
+      <c r="H3818" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3819" spans="1:8" x14ac:dyDescent="0.25">
@@ -73355,19 +73361,13 @@
         <v>42</v>
       </c>
       <c r="C3819">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3819">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3819">
-        <v>3</v>
-      </c>
-      <c r="F3819">
-        <v>2700</v>
-      </c>
-      <c r="G3819">
-        <v>9900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3820" spans="1:8" x14ac:dyDescent="0.25">
@@ -73375,19 +73375,22 @@
         <v>455</v>
       </c>
       <c r="B3820">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3820">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3820">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3820">
-        <v>0</v>
-      </c>
-      <c r="H3820" t="s">
-        <v>456</v>
+        <v>3</v>
+      </c>
+      <c r="F3820">
+        <v>2700</v>
+      </c>
+      <c r="G3820">
+        <v>9900</v>
       </c>
     </row>
     <row r="3821" spans="1:8" x14ac:dyDescent="0.25">
@@ -73395,7 +73398,7 @@
         <v>455</v>
       </c>
       <c r="B3821">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3821">
         <v>0</v>
@@ -73415,7 +73418,7 @@
         <v>455</v>
       </c>
       <c r="B3822">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3822">
         <v>0</v>
@@ -73425,6 +73428,9 @@
       </c>
       <c r="E3822">
         <v>0</v>
+      </c>
+      <c r="H3822" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3823" spans="1:8" x14ac:dyDescent="0.25">
@@ -73435,19 +73441,13 @@
         <v>45</v>
       </c>
       <c r="C3823">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3823">
         <v>0</v>
       </c>
       <c r="E3823">
-        <v>2</v>
-      </c>
-      <c r="F3823">
-        <v>12600</v>
-      </c>
-      <c r="H3823" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3824" spans="1:8" x14ac:dyDescent="0.25">
@@ -73455,16 +73455,22 @@
         <v>455</v>
       </c>
       <c r="B3824">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3824">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3824">
         <v>0</v>
       </c>
       <c r="E3824">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3824">
+        <v>12600</v>
+      </c>
+      <c r="H3824" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="3825" spans="1:8" x14ac:dyDescent="0.25">
@@ -73475,19 +73481,13 @@
         <v>46</v>
       </c>
       <c r="C3825">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3825">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3825">
-        <v>4</v>
-      </c>
-      <c r="G3825">
-        <v>3600</v>
-      </c>
-      <c r="H3825" t="s">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3826" spans="1:8" x14ac:dyDescent="0.25">
@@ -73498,22 +73498,19 @@
         <v>46</v>
       </c>
       <c r="C3826">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3826">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3826">
-        <v>2</v>
-      </c>
-      <c r="F3826">
-        <v>9900</v>
+        <v>4</v>
       </c>
       <c r="G3826">
-        <v>15300</v>
+        <v>3600</v>
       </c>
       <c r="H3826" t="s">
-        <v>339</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3827" spans="1:8" x14ac:dyDescent="0.25">
@@ -73521,19 +73518,25 @@
         <v>455</v>
       </c>
       <c r="B3827">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3827">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3827">
         <v>0</v>
       </c>
       <c r="E3827">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3827">
+        <v>9900</v>
+      </c>
+      <c r="G3827">
+        <v>15300</v>
       </c>
       <c r="H3827" t="s">
-        <v>456</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3828" spans="1:8" x14ac:dyDescent="0.25">
@@ -73541,7 +73544,7 @@
         <v>455</v>
       </c>
       <c r="B3828">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3828">
         <v>0</v>
@@ -73561,7 +73564,7 @@
         <v>455</v>
       </c>
       <c r="B3829">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3829">
         <v>0</v>
@@ -73581,7 +73584,7 @@
         <v>455</v>
       </c>
       <c r="B3830">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3830">
         <v>0</v>
@@ -73601,7 +73604,7 @@
         <v>455</v>
       </c>
       <c r="B3831">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3831">
         <v>0</v>
@@ -73611,6 +73614,9 @@
       </c>
       <c r="E3831">
         <v>0</v>
+      </c>
+      <c r="H3831" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3832" spans="1:8" x14ac:dyDescent="0.25">
@@ -73621,22 +73627,13 @@
         <v>51</v>
       </c>
       <c r="C3832">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3832">
         <v>0</v>
       </c>
       <c r="E3832">
-        <v>4</v>
-      </c>
-      <c r="F3832">
-        <v>4500</v>
-      </c>
-      <c r="G3832">
-        <v>9900</v>
-      </c>
-      <c r="H3832" t="s">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3833" spans="1:8" x14ac:dyDescent="0.25">
@@ -73644,16 +73641,25 @@
         <v>455</v>
       </c>
       <c r="B3833">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3833">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3833">
         <v>0</v>
       </c>
       <c r="E3833">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3833">
+        <v>4500</v>
+      </c>
+      <c r="G3833">
+        <v>9900</v>
+      </c>
+      <c r="H3833" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="3834" spans="1:8" x14ac:dyDescent="0.25">
@@ -73664,19 +73670,13 @@
         <v>52</v>
       </c>
       <c r="C3834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3834">
-        <v>4</v>
-      </c>
-      <c r="F3834">
-        <v>900</v>
-      </c>
-      <c r="G3834">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3835" spans="1:8" x14ac:dyDescent="0.25">
@@ -73684,19 +73684,22 @@
         <v>455</v>
       </c>
       <c r="B3835">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3835">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3835">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3835">
-        <v>0</v>
-      </c>
-      <c r="H3835" t="s">
-        <v>456</v>
+        <v>4</v>
+      </c>
+      <c r="F3835">
+        <v>900</v>
+      </c>
+      <c r="G3835">
+        <v>7200</v>
       </c>
     </row>
     <row r="3836" spans="1:8" x14ac:dyDescent="0.25">
@@ -73704,7 +73707,7 @@
         <v>455</v>
       </c>
       <c r="B3836">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3836">
         <v>0</v>
@@ -73714,6 +73717,9 @@
       </c>
       <c r="E3836">
         <v>0</v>
+      </c>
+      <c r="H3836" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3837" spans="1:8" x14ac:dyDescent="0.25">
@@ -73724,16 +73730,13 @@
         <v>54</v>
       </c>
       <c r="C3837">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3837">
         <v>0</v>
       </c>
       <c r="E3837">
-        <v>4</v>
-      </c>
-      <c r="G3837">
-        <v>9900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3838" spans="1:8" x14ac:dyDescent="0.25">
@@ -73744,19 +73747,16 @@
         <v>54</v>
       </c>
       <c r="C3838">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3838">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3838">
-        <v>3</v>
-      </c>
-      <c r="F3838">
+        <v>4</v>
+      </c>
+      <c r="G3838">
         <v>9900</v>
-      </c>
-      <c r="G3838">
-        <v>12600</v>
       </c>
     </row>
     <row r="3839" spans="1:8" x14ac:dyDescent="0.25">
@@ -73764,16 +73764,22 @@
         <v>455</v>
       </c>
       <c r="B3839">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3839">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3839">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3839">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3839">
+        <v>9900</v>
+      </c>
+      <c r="G3839">
+        <v>12600</v>
       </c>
     </row>
     <row r="3840" spans="1:8" x14ac:dyDescent="0.25">
@@ -73784,19 +73790,13 @@
         <v>55</v>
       </c>
       <c r="C3840">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3840">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3840">
-        <v>3</v>
-      </c>
-      <c r="G3840">
-        <v>13500</v>
-      </c>
-      <c r="H3840" t="s">
-        <v>457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3841" spans="1:8" x14ac:dyDescent="0.25">
@@ -73807,16 +73807,19 @@
         <v>55</v>
       </c>
       <c r="C3841">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3841">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3841">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G3841">
+        <v>13500</v>
       </c>
       <c r="H3841" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3842" spans="1:8" x14ac:dyDescent="0.25">
@@ -73824,19 +73827,19 @@
         <v>455</v>
       </c>
       <c r="B3842">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3842">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3842">
         <v>0</v>
       </c>
       <c r="E3842">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3842" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3843" spans="1:8" x14ac:dyDescent="0.25">
@@ -73844,7 +73847,7 @@
         <v>455</v>
       </c>
       <c r="B3843">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3843">
         <v>0</v>
@@ -73854,6 +73857,9 @@
       </c>
       <c r="E3843">
         <v>0</v>
+      </c>
+      <c r="H3843" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3844" spans="1:8" x14ac:dyDescent="0.25">
@@ -73864,19 +73870,13 @@
         <v>57</v>
       </c>
       <c r="C3844">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3844">
         <v>0</v>
       </c>
       <c r="E3844">
-        <v>4</v>
-      </c>
-      <c r="G3844">
-        <v>4500</v>
-      </c>
-      <c r="H3844" t="s">
-        <v>394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3845" spans="1:8" x14ac:dyDescent="0.25">
@@ -73884,19 +73884,22 @@
         <v>455</v>
       </c>
       <c r="B3845">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3845">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3845">
         <v>0</v>
       </c>
       <c r="E3845">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3845">
+        <v>4500</v>
       </c>
       <c r="H3845" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3846" spans="1:8" x14ac:dyDescent="0.25">
@@ -73904,7 +73907,7 @@
         <v>455</v>
       </c>
       <c r="B3846">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3846">
         <v>0</v>
@@ -73914,6 +73917,9 @@
       </c>
       <c r="E3846">
         <v>0</v>
+      </c>
+      <c r="H3846" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3847" spans="1:8" x14ac:dyDescent="0.25">
@@ -73924,16 +73930,13 @@
         <v>59</v>
       </c>
       <c r="C3847">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3847">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3847">
-        <v>4</v>
-      </c>
-      <c r="F3847">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3848" spans="1:8" x14ac:dyDescent="0.25">
@@ -73941,19 +73944,19 @@
         <v>455</v>
       </c>
       <c r="B3848">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3848">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3848">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3848">
-        <v>0</v>
-      </c>
-      <c r="H3848" t="s">
-        <v>456</v>
+        <v>4</v>
+      </c>
+      <c r="F3848">
+        <v>3600</v>
       </c>
     </row>
     <row r="3849" spans="1:8" x14ac:dyDescent="0.25">
@@ -73961,7 +73964,7 @@
         <v>455</v>
       </c>
       <c r="B3849">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3849">
         <v>0</v>
@@ -73971,6 +73974,9 @@
       </c>
       <c r="E3849">
         <v>0</v>
+      </c>
+      <c r="H3849" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3850" spans="1:8" x14ac:dyDescent="0.25">
@@ -73981,22 +73987,13 @@
         <v>61</v>
       </c>
       <c r="C3850">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3850">
         <v>0</v>
       </c>
       <c r="E3850">
-        <v>3</v>
-      </c>
-      <c r="F3850">
-        <v>900</v>
-      </c>
-      <c r="G3850">
-        <v>4500</v>
-      </c>
-      <c r="H3850" t="s">
-        <v>394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3851" spans="1:8" x14ac:dyDescent="0.25">
@@ -74004,16 +74001,25 @@
         <v>455</v>
       </c>
       <c r="B3851">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3851">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3851">
         <v>0</v>
       </c>
       <c r="E3851">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3851">
+        <v>900</v>
+      </c>
+      <c r="G3851">
+        <v>4500</v>
+      </c>
+      <c r="H3851" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="3852" spans="1:8" x14ac:dyDescent="0.25">
@@ -74024,16 +74030,13 @@
         <v>62</v>
       </c>
       <c r="C3852">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3852">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3852">
-        <v>4</v>
-      </c>
-      <c r="G3852">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3853" spans="1:8" x14ac:dyDescent="0.25">
@@ -74041,19 +74044,19 @@
         <v>455</v>
       </c>
       <c r="B3853">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3853">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3853">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3853">
-        <v>0</v>
-      </c>
-      <c r="H3853" t="s">
-        <v>456</v>
+        <v>4</v>
+      </c>
+      <c r="G3853">
+        <v>8100</v>
       </c>
     </row>
     <row r="3854" spans="1:8" x14ac:dyDescent="0.25">
@@ -74061,18 +74064,38 @@
         <v>455</v>
       </c>
       <c r="B3854">
+        <v>63</v>
+      </c>
+      <c r="C3854">
+        <v>0</v>
+      </c>
+      <c r="D3854">
+        <v>0</v>
+      </c>
+      <c r="E3854">
+        <v>0</v>
+      </c>
+      <c r="H3854" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3855">
         <v>64</v>
       </c>
-      <c r="C3854">
-        <v>0</v>
-      </c>
-      <c r="D3854">
-        <v>0</v>
-      </c>
-      <c r="E3854">
-        <v>0</v>
-      </c>
-      <c r="H3854" t="s">
+      <c r="C3855">
+        <v>0</v>
+      </c>
+      <c r="D3855">
+        <v>0</v>
+      </c>
+      <c r="E3855">
+        <v>0</v>
+      </c>
+      <c r="H3855" t="s">
         <v>456</v>
       </c>
     </row>

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEF50D9-3AFC-422C-9D93-7B04ECB2239F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29B27B-9152-48CA-8981-5B4BB167CC73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="495" windowWidth="18015" windowHeight="14955" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5229" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="466">
   <si>
     <t>Session</t>
   </si>
@@ -1793,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
-  <dimension ref="A1:H3855"/>
+  <dimension ref="A1:H3856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3315" workbookViewId="0">
-      <selection activeCell="H3351" sqref="H3351"/>
+    <sheetView tabSelected="1" topLeftCell="A3393" workbookViewId="0">
+      <selection activeCell="E3421" sqref="E3421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65190,25 +65190,31 @@
       <c r="E3406">
         <v>0</v>
       </c>
-      <c r="H3406" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3407" t="s">
         <v>427</v>
       </c>
       <c r="B3407">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3407">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3407">
+        <v>4500</v>
+      </c>
+      <c r="G3407">
+        <v>8100</v>
+      </c>
+      <c r="H3407" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="3408" spans="1:8" x14ac:dyDescent="0.25">
@@ -65219,19 +65225,13 @@
         <v>22</v>
       </c>
       <c r="C3408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3408">
-        <v>2</v>
-      </c>
-      <c r="F3408">
-        <v>4500</v>
-      </c>
-      <c r="G3408">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3409" spans="1:8" x14ac:dyDescent="0.25">
@@ -65239,19 +65239,22 @@
         <v>427</v>
       </c>
       <c r="B3409">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3409">
-        <v>0</v>
-      </c>
-      <c r="H3409" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3409">
+        <v>900</v>
+      </c>
+      <c r="G3409">
+        <v>5400</v>
       </c>
     </row>
     <row r="3410" spans="1:8" x14ac:dyDescent="0.25">
@@ -65259,7 +65262,7 @@
         <v>427</v>
       </c>
       <c r="B3410">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3410">
         <v>0</v>
@@ -65279,7 +65282,7 @@
         <v>427</v>
       </c>
       <c r="B3411">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3411">
         <v>0</v>
@@ -65299,7 +65302,7 @@
         <v>427</v>
       </c>
       <c r="B3412">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3412">
         <v>0</v>
@@ -65319,7 +65322,7 @@
         <v>427</v>
       </c>
       <c r="B3413">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3413">
         <v>0</v>
@@ -65329,6 +65332,9 @@
       </c>
       <c r="E3413">
         <v>0</v>
+      </c>
+      <c r="H3413" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3414" spans="1:8" x14ac:dyDescent="0.25">
@@ -65339,19 +65345,13 @@
         <v>27</v>
       </c>
       <c r="C3414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3414">
-        <v>3</v>
-      </c>
-      <c r="F3414">
-        <v>900</v>
-      </c>
-      <c r="G3414">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3415" spans="1:8" x14ac:dyDescent="0.25">
@@ -65359,16 +65359,22 @@
         <v>427</v>
       </c>
       <c r="B3415">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3415">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3415">
+        <v>900</v>
+      </c>
+      <c r="G3415">
+        <v>5400</v>
       </c>
     </row>
     <row r="3416" spans="1:8" x14ac:dyDescent="0.25">
@@ -65379,19 +65385,13 @@
         <v>28</v>
       </c>
       <c r="C3416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3416">
-        <v>4</v>
-      </c>
-      <c r="F3416">
-        <v>3600</v>
-      </c>
-      <c r="G3416">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3417" spans="1:8" x14ac:dyDescent="0.25">
@@ -65399,19 +65399,22 @@
         <v>427</v>
       </c>
       <c r="B3417">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3417">
-        <v>0</v>
-      </c>
-      <c r="H3417" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="F3417">
+        <v>3600</v>
+      </c>
+      <c r="G3417">
+        <v>5400</v>
       </c>
     </row>
     <row r="3418" spans="1:8" x14ac:dyDescent="0.25">
@@ -65419,7 +65422,7 @@
         <v>427</v>
       </c>
       <c r="B3418">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3418">
         <v>0</v>
@@ -65439,7 +65442,7 @@
         <v>427</v>
       </c>
       <c r="B3419">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3419">
         <v>0</v>
@@ -65449,6 +65452,9 @@
       </c>
       <c r="E3419">
         <v>0</v>
+      </c>
+      <c r="H3419" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3420" spans="1:8" x14ac:dyDescent="0.25">
@@ -65459,16 +65465,13 @@
         <v>31</v>
       </c>
       <c r="C3420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3420">
-        <v>4</v>
-      </c>
-      <c r="G3420">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3421" spans="1:8" x14ac:dyDescent="0.25">
@@ -65476,19 +65479,19 @@
         <v>427</v>
       </c>
       <c r="B3421">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3421">
-        <v>0</v>
-      </c>
-      <c r="H3421" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G3421">
+        <v>2700</v>
       </c>
     </row>
     <row r="3422" spans="1:8" x14ac:dyDescent="0.25">
@@ -65496,7 +65499,7 @@
         <v>427</v>
       </c>
       <c r="B3422">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3422">
         <v>0</v>
@@ -65516,7 +65519,7 @@
         <v>427</v>
       </c>
       <c r="B3423">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3423">
         <v>0</v>
@@ -65536,7 +65539,7 @@
         <v>427</v>
       </c>
       <c r="B3424">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3424">
         <v>0</v>
@@ -65556,7 +65559,7 @@
         <v>427</v>
       </c>
       <c r="B3425">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3425">
         <v>0</v>
@@ -65576,7 +65579,7 @@
         <v>427</v>
       </c>
       <c r="B3426">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3426">
         <v>0</v>
@@ -65596,7 +65599,7 @@
         <v>427</v>
       </c>
       <c r="B3427">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3427">
         <v>0</v>
@@ -65616,7 +65619,7 @@
         <v>427</v>
       </c>
       <c r="B3428">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3428">
         <v>0</v>
@@ -65636,7 +65639,7 @@
         <v>427</v>
       </c>
       <c r="B3429">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3429">
         <v>0</v>
@@ -65656,7 +65659,7 @@
         <v>427</v>
       </c>
       <c r="B3430">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3430">
         <v>0</v>
@@ -65676,7 +65679,7 @@
         <v>427</v>
       </c>
       <c r="B3431">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3431">
         <v>0</v>
@@ -65696,7 +65699,7 @@
         <v>427</v>
       </c>
       <c r="B3432">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3432">
         <v>0</v>
@@ -65716,7 +65719,7 @@
         <v>427</v>
       </c>
       <c r="B3433">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3433">
         <v>0</v>
@@ -65736,7 +65739,7 @@
         <v>427</v>
       </c>
       <c r="B3434">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3434">
         <v>0</v>
@@ -65756,7 +65759,7 @@
         <v>427</v>
       </c>
       <c r="B3435">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3435">
         <v>0</v>
@@ -65776,7 +65779,7 @@
         <v>427</v>
       </c>
       <c r="B3436">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3436">
         <v>0</v>
@@ -65796,7 +65799,7 @@
         <v>427</v>
       </c>
       <c r="B3437">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3437">
         <v>0</v>
@@ -65816,7 +65819,7 @@
         <v>427</v>
       </c>
       <c r="B3438">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3438">
         <v>0</v>
@@ -65836,7 +65839,7 @@
         <v>427</v>
       </c>
       <c r="B3439">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3439">
         <v>0</v>
@@ -65856,7 +65859,7 @@
         <v>427</v>
       </c>
       <c r="B3440">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3440">
         <v>0</v>
@@ -65876,7 +65879,7 @@
         <v>427</v>
       </c>
       <c r="B3441">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3441">
         <v>0</v>
@@ -65896,7 +65899,7 @@
         <v>427</v>
       </c>
       <c r="B3442">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3442">
         <v>0</v>
@@ -65916,7 +65919,7 @@
         <v>427</v>
       </c>
       <c r="B3443">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3443">
         <v>0</v>
@@ -65936,7 +65939,7 @@
         <v>427</v>
       </c>
       <c r="B3444">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3444">
         <v>0</v>
@@ -65956,7 +65959,7 @@
         <v>427</v>
       </c>
       <c r="B3445">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3445">
         <v>0</v>
@@ -65976,7 +65979,7 @@
         <v>427</v>
       </c>
       <c r="B3446">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3446">
         <v>0</v>
@@ -65996,7 +65999,7 @@
         <v>427</v>
       </c>
       <c r="B3447">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3447">
         <v>0</v>
@@ -66016,7 +66019,7 @@
         <v>427</v>
       </c>
       <c r="B3448">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3448">
         <v>0</v>
@@ -66036,7 +66039,7 @@
         <v>427</v>
       </c>
       <c r="B3449">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3449">
         <v>0</v>
@@ -66056,7 +66059,7 @@
         <v>427</v>
       </c>
       <c r="B3450">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3450">
         <v>0</v>
@@ -66076,7 +66079,7 @@
         <v>427</v>
       </c>
       <c r="B3451">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3451">
         <v>0</v>
@@ -66096,7 +66099,7 @@
         <v>427</v>
       </c>
       <c r="B3452">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3452">
         <v>0</v>
@@ -66116,7 +66119,7 @@
         <v>427</v>
       </c>
       <c r="B3453">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3453">
         <v>0</v>
@@ -66136,7 +66139,7 @@
         <v>427</v>
       </c>
       <c r="B3454">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3454">
         <v>0</v>
@@ -66156,7 +66159,7 @@
         <v>427</v>
       </c>
       <c r="B3455">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3455">
         <v>0</v>
@@ -66176,7 +66179,7 @@
         <v>427</v>
       </c>
       <c r="B3456">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3456">
         <v>0</v>
@@ -66196,7 +66199,7 @@
         <v>427</v>
       </c>
       <c r="B3457">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3457">
         <v>0</v>
@@ -66206,6 +66209,9 @@
       </c>
       <c r="E3457">
         <v>0</v>
+      </c>
+      <c r="H3457" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3458" spans="1:8" x14ac:dyDescent="0.25">
@@ -66216,19 +66222,13 @@
         <v>68</v>
       </c>
       <c r="C3458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3458">
         <v>0</v>
       </c>
       <c r="E3458">
-        <v>2</v>
-      </c>
-      <c r="G3458">
-        <v>2700</v>
-      </c>
-      <c r="H3458" t="s">
-        <v>347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3459" spans="1:8" x14ac:dyDescent="0.25">
@@ -66236,16 +66236,22 @@
         <v>427</v>
       </c>
       <c r="B3459">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3459">
         <v>0</v>
       </c>
       <c r="E3459">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G3459">
+        <v>2700</v>
+      </c>
+      <c r="H3459" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="3460" spans="1:8" x14ac:dyDescent="0.25">
@@ -66256,16 +66262,13 @@
         <v>69</v>
       </c>
       <c r="C3460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3460">
-        <v>4</v>
-      </c>
-      <c r="G3460">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3461" spans="1:8" x14ac:dyDescent="0.25">
@@ -66273,16 +66276,19 @@
         <v>427</v>
       </c>
       <c r="B3461">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3461">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3461">
+        <v>11700</v>
       </c>
     </row>
     <row r="3462" spans="1:8" x14ac:dyDescent="0.25">
@@ -66293,16 +66299,13 @@
         <v>70</v>
       </c>
       <c r="C3462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3462">
-        <v>5</v>
-      </c>
-      <c r="F3462">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3463" spans="1:8" x14ac:dyDescent="0.25">
@@ -66310,19 +66313,19 @@
         <v>427</v>
       </c>
       <c r="B3463">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3463">
-        <v>0</v>
-      </c>
-      <c r="H3463" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="F3463">
+        <v>2700</v>
       </c>
     </row>
     <row r="3464" spans="1:8" x14ac:dyDescent="0.25">
@@ -66330,7 +66333,7 @@
         <v>427</v>
       </c>
       <c r="B3464">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3464">
         <v>0</v>
@@ -66340,6 +66343,9 @@
       </c>
       <c r="E3464">
         <v>0</v>
+      </c>
+      <c r="H3464" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3465" spans="1:8" x14ac:dyDescent="0.25">
@@ -66350,13 +66356,13 @@
         <v>72</v>
       </c>
       <c r="C3465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3466" spans="1:8" x14ac:dyDescent="0.25">
@@ -66364,19 +66370,16 @@
         <v>427</v>
       </c>
       <c r="B3466">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3466">
-        <v>0</v>
-      </c>
-      <c r="H3466" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3467" spans="1:8" x14ac:dyDescent="0.25">
@@ -66384,7 +66387,7 @@
         <v>427</v>
       </c>
       <c r="B3467">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3467">
         <v>0</v>
@@ -66394,6 +66397,9 @@
       </c>
       <c r="E3467">
         <v>0</v>
+      </c>
+      <c r="H3467" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3468" spans="1:8" x14ac:dyDescent="0.25">
@@ -66404,19 +66410,13 @@
         <v>74</v>
       </c>
       <c r="C3468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3468">
-        <v>3</v>
-      </c>
-      <c r="G3468">
-        <v>8100</v>
-      </c>
-      <c r="H3468" t="s">
-        <v>430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3469" spans="1:8" x14ac:dyDescent="0.25">
@@ -66424,16 +66424,22 @@
         <v>427</v>
       </c>
       <c r="B3469">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3469">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G3469">
+        <v>8100</v>
+      </c>
+      <c r="H3469" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="3470" spans="1:8" x14ac:dyDescent="0.25">
@@ -66444,16 +66450,13 @@
         <v>75</v>
       </c>
       <c r="C3470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3470">
-        <v>2</v>
-      </c>
-      <c r="F3470">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3471" spans="1:8" x14ac:dyDescent="0.25">
@@ -66461,16 +66464,19 @@
         <v>427</v>
       </c>
       <c r="B3471">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3471">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3471">
+        <v>2700</v>
       </c>
     </row>
     <row r="3472" spans="1:8" x14ac:dyDescent="0.25">
@@ -66481,16 +66487,13 @@
         <v>76</v>
       </c>
       <c r="C3472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3472">
-        <v>2</v>
-      </c>
-      <c r="F3472">
-        <v>13500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3473" spans="1:8" x14ac:dyDescent="0.25">
@@ -66498,16 +66501,19 @@
         <v>427</v>
       </c>
       <c r="B3473">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3473">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3473">
+        <v>13500</v>
       </c>
     </row>
     <row r="3474" spans="1:8" x14ac:dyDescent="0.25">
@@ -66518,16 +66524,13 @@
         <v>77</v>
       </c>
       <c r="C3474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3474">
-        <v>3</v>
-      </c>
-      <c r="F3474">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3475" spans="1:8" x14ac:dyDescent="0.25">
@@ -66535,16 +66538,19 @@
         <v>427</v>
       </c>
       <c r="B3475">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3475">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3475">
+        <v>2700</v>
       </c>
     </row>
     <row r="3476" spans="1:8" x14ac:dyDescent="0.25">
@@ -66555,19 +66561,13 @@
         <v>78</v>
       </c>
       <c r="C3476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3476">
         <v>0</v>
       </c>
       <c r="E3476">
-        <v>5</v>
-      </c>
-      <c r="G3476">
-        <v>2700</v>
-      </c>
-      <c r="H3476" t="s">
-        <v>394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3477" spans="1:8" x14ac:dyDescent="0.25">
@@ -66575,16 +66575,22 @@
         <v>427</v>
       </c>
       <c r="B3477">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3477">
         <v>0</v>
       </c>
       <c r="E3477">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G3477">
+        <v>2700</v>
+      </c>
+      <c r="H3477" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="3478" spans="1:8" x14ac:dyDescent="0.25">
@@ -66595,19 +66601,13 @@
         <v>79</v>
       </c>
       <c r="C3478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3478">
         <v>0</v>
       </c>
       <c r="E3478">
-        <v>5</v>
-      </c>
-      <c r="F3478">
-        <v>5400</v>
-      </c>
-      <c r="H3478" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3479" spans="1:8" x14ac:dyDescent="0.25">
@@ -66615,19 +66615,22 @@
         <v>427</v>
       </c>
       <c r="B3479">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3479">
         <v>0</v>
       </c>
       <c r="E3479">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3479">
+        <v>5400</v>
       </c>
       <c r="H3479" t="s">
-        <v>12</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3480" spans="1:8" x14ac:dyDescent="0.25">
@@ -66635,7 +66638,7 @@
         <v>427</v>
       </c>
       <c r="B3480">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3480">
         <v>0</v>
@@ -66645,6 +66648,9 @@
       </c>
       <c r="E3480">
         <v>0</v>
+      </c>
+      <c r="H3480" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3481" spans="1:8" x14ac:dyDescent="0.25">
@@ -66655,16 +66661,13 @@
         <v>81</v>
       </c>
       <c r="C3481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3481">
-        <v>3</v>
-      </c>
-      <c r="G3481">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3482" spans="1:8" x14ac:dyDescent="0.25">
@@ -66672,19 +66675,19 @@
         <v>427</v>
       </c>
       <c r="B3482">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3482">
-        <v>0</v>
-      </c>
-      <c r="H3482" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G3482">
+        <v>5400</v>
       </c>
     </row>
     <row r="3483" spans="1:8" x14ac:dyDescent="0.25">
@@ -66692,7 +66695,7 @@
         <v>427</v>
       </c>
       <c r="B3483">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3483">
         <v>0</v>
@@ -66712,7 +66715,7 @@
         <v>427</v>
       </c>
       <c r="B3484">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3484">
         <v>0</v>
@@ -66722,6 +66725,9 @@
       </c>
       <c r="E3484">
         <v>0</v>
+      </c>
+      <c r="H3484" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3485" spans="1:8" x14ac:dyDescent="0.25">
@@ -66732,16 +66738,13 @@
         <v>84</v>
       </c>
       <c r="C3485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3485">
         <v>0</v>
       </c>
       <c r="E3485">
-        <v>5</v>
-      </c>
-      <c r="H3485" t="s">
-        <v>413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3486" spans="1:8" x14ac:dyDescent="0.25">
@@ -66752,19 +66755,16 @@
         <v>84</v>
       </c>
       <c r="C3486">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3486">
         <v>0</v>
       </c>
       <c r="E3486">
-        <v>3</v>
-      </c>
-      <c r="G3486">
-        <v>5400</v>
+        <v>5</v>
       </c>
       <c r="H3486" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3487" spans="1:8" x14ac:dyDescent="0.25">
@@ -66772,16 +66772,22 @@
         <v>427</v>
       </c>
       <c r="B3487">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3487">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3487">
         <v>0</v>
       </c>
       <c r="E3487">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G3487">
+        <v>5400</v>
+      </c>
+      <c r="H3487" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="3488" spans="1:8" x14ac:dyDescent="0.25">
@@ -66792,16 +66798,13 @@
         <v>85</v>
       </c>
       <c r="C3488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3488">
-        <v>2</v>
-      </c>
-      <c r="H3488" t="s">
-        <v>428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3489" spans="1:8" x14ac:dyDescent="0.25">
@@ -66809,19 +66812,19 @@
         <v>427</v>
       </c>
       <c r="B3489">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3489">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3489" t="s">
-        <v>12</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3490" spans="1:8" x14ac:dyDescent="0.25">
@@ -66829,7 +66832,7 @@
         <v>427</v>
       </c>
       <c r="B3490">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3490">
         <v>0</v>
@@ -66839,6 +66842,9 @@
       </c>
       <c r="E3490">
         <v>0</v>
+      </c>
+      <c r="H3490" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3491" spans="1:8" x14ac:dyDescent="0.25">
@@ -66849,19 +66855,13 @@
         <v>87</v>
       </c>
       <c r="C3491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3491">
-        <v>3</v>
-      </c>
-      <c r="F3491">
-        <v>5400</v>
-      </c>
-      <c r="G3491">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3492" spans="1:8" x14ac:dyDescent="0.25">
@@ -66872,7 +66872,7 @@
         <v>87</v>
       </c>
       <c r="C3492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3492">
         <v>1</v>
@@ -66880,8 +66880,11 @@
       <c r="E3492">
         <v>3</v>
       </c>
+      <c r="F3492">
+        <v>5400</v>
+      </c>
       <c r="G3492">
-        <v>2700</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="3493" spans="1:8" x14ac:dyDescent="0.25">
@@ -66889,16 +66892,19 @@
         <v>427</v>
       </c>
       <c r="B3493">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3493">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3493">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G3493">
+        <v>2700</v>
       </c>
     </row>
     <row r="3494" spans="1:8" x14ac:dyDescent="0.25">
@@ -66909,19 +66915,13 @@
         <v>88</v>
       </c>
       <c r="C3494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3494">
-        <v>3</v>
-      </c>
-      <c r="F3494">
-        <v>2700</v>
-      </c>
-      <c r="G3494">
-        <v>10800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3495" spans="1:8" x14ac:dyDescent="0.25">
@@ -66932,7 +66932,7 @@
         <v>88</v>
       </c>
       <c r="C3495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3495">
         <v>1</v>
@@ -66955,7 +66955,7 @@
         <v>88</v>
       </c>
       <c r="C3496">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3496">
         <v>1</v>
@@ -66967,10 +66967,7 @@
         <v>2700</v>
       </c>
       <c r="G3496">
-        <v>4500</v>
-      </c>
-      <c r="H3496" t="s">
-        <v>428</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="3497" spans="1:8" x14ac:dyDescent="0.25">
@@ -66978,16 +66975,25 @@
         <v>427</v>
       </c>
       <c r="B3497">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3497">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3497">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3497">
+        <v>2700</v>
+      </c>
+      <c r="G3497">
+        <v>4500</v>
+      </c>
+      <c r="H3497" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="3498" spans="1:8" x14ac:dyDescent="0.25">
@@ -66998,16 +67004,13 @@
         <v>89</v>
       </c>
       <c r="C3498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3498">
         <v>0</v>
       </c>
       <c r="E3498">
-        <v>4</v>
-      </c>
-      <c r="G3498">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3499" spans="1:8" x14ac:dyDescent="0.25">
@@ -67018,22 +67021,16 @@
         <v>89</v>
       </c>
       <c r="C3499">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3499">
-        <v>3</v>
-      </c>
-      <c r="F3499">
-        <v>900</v>
+        <v>4</v>
       </c>
       <c r="G3499">
-        <v>2700</v>
-      </c>
-      <c r="H3499" t="s">
-        <v>428</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3500" spans="1:8" x14ac:dyDescent="0.25">
@@ -67044,7 +67041,7 @@
         <v>89</v>
       </c>
       <c r="C3500">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3500">
         <v>1</v>
@@ -67057,6 +67054,9 @@
       </c>
       <c r="G3500">
         <v>2700</v>
+      </c>
+      <c r="H3500" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="3501" spans="1:8" x14ac:dyDescent="0.25">
@@ -67064,19 +67064,22 @@
         <v>427</v>
       </c>
       <c r="B3501">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3501">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3501">
-        <v>0</v>
-      </c>
-      <c r="H3501" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3501">
+        <v>900</v>
+      </c>
+      <c r="G3501">
+        <v>2700</v>
       </c>
     </row>
     <row r="3502" spans="1:8" x14ac:dyDescent="0.25">
@@ -67084,7 +67087,7 @@
         <v>427</v>
       </c>
       <c r="B3502">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3502">
         <v>0</v>
@@ -67094,6 +67097,9 @@
       </c>
       <c r="E3502">
         <v>0</v>
+      </c>
+      <c r="H3502" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3503" spans="1:8" x14ac:dyDescent="0.25">
@@ -67104,13 +67110,13 @@
         <v>91</v>
       </c>
       <c r="C3503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3504" spans="1:8" x14ac:dyDescent="0.25">
@@ -67118,16 +67124,16 @@
         <v>427</v>
       </c>
       <c r="B3504">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3505" spans="1:8" x14ac:dyDescent="0.25">
@@ -67138,22 +67144,13 @@
         <v>92</v>
       </c>
       <c r="C3505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3505">
-        <v>4</v>
-      </c>
-      <c r="F3505">
-        <v>900</v>
-      </c>
-      <c r="G3505">
-        <v>5400</v>
-      </c>
-      <c r="H3505" t="s">
-        <v>429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3506" spans="1:8" x14ac:dyDescent="0.25">
@@ -67161,19 +67158,25 @@
         <v>427</v>
       </c>
       <c r="B3506">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3506">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3506">
+        <v>900</v>
+      </c>
+      <c r="G3506">
+        <v>5400</v>
       </c>
       <c r="H3506" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3507" spans="1:8" x14ac:dyDescent="0.25">
@@ -67181,7 +67184,7 @@
         <v>427</v>
       </c>
       <c r="B3507">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3507">
         <v>0</v>
@@ -67191,6 +67194,9 @@
       </c>
       <c r="E3507">
         <v>0</v>
+      </c>
+      <c r="H3507" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3508" spans="1:8" x14ac:dyDescent="0.25">
@@ -67201,16 +67207,13 @@
         <v>94</v>
       </c>
       <c r="C3508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3508">
-        <v>1</v>
-      </c>
-      <c r="F3508">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3509" spans="1:8" x14ac:dyDescent="0.25">
@@ -67218,16 +67221,19 @@
         <v>427</v>
       </c>
       <c r="B3509">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3509">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F3509">
+        <v>6300</v>
       </c>
     </row>
     <row r="3510" spans="1:8" x14ac:dyDescent="0.25">
@@ -67238,16 +67244,13 @@
         <v>95</v>
       </c>
       <c r="C3510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3510">
-        <v>2</v>
-      </c>
-      <c r="F3510">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3511" spans="1:8" x14ac:dyDescent="0.25">
@@ -67255,16 +67258,19 @@
         <v>427</v>
       </c>
       <c r="B3511">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3511">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3511">
+        <v>4500</v>
       </c>
     </row>
     <row r="3512" spans="1:8" x14ac:dyDescent="0.25">
@@ -67275,33 +67281,30 @@
         <v>96</v>
       </c>
       <c r="C3512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3513" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B3513">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C3513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3513">
-        <v>0</v>
-      </c>
-      <c r="H3513" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3514" spans="1:8" x14ac:dyDescent="0.25">
@@ -67309,7 +67312,7 @@
         <v>442</v>
       </c>
       <c r="B3514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3514">
         <v>0</v>
@@ -67329,7 +67332,7 @@
         <v>442</v>
       </c>
       <c r="B3515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3515">
         <v>0</v>
@@ -67349,7 +67352,7 @@
         <v>442</v>
       </c>
       <c r="B3516">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3516">
         <v>0</v>
@@ -67369,7 +67372,7 @@
         <v>442</v>
       </c>
       <c r="B3517">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3517">
         <v>0</v>
@@ -67389,7 +67392,7 @@
         <v>442</v>
       </c>
       <c r="B3518">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3518">
         <v>0</v>
@@ -67399,6 +67402,9 @@
       </c>
       <c r="E3518">
         <v>0</v>
+      </c>
+      <c r="H3518" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3519" spans="1:8" x14ac:dyDescent="0.25">
@@ -67409,16 +67415,13 @@
         <v>6</v>
       </c>
       <c r="C3519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3519">
-        <v>4</v>
-      </c>
-      <c r="G3519">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3520" spans="1:8" x14ac:dyDescent="0.25">
@@ -67426,16 +67429,19 @@
         <v>442</v>
       </c>
       <c r="B3520">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3520">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3520">
+        <v>11700</v>
       </c>
     </row>
     <row r="3521" spans="1:8" x14ac:dyDescent="0.25">
@@ -67446,16 +67452,13 @@
         <v>7</v>
       </c>
       <c r="C3521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3521">
-        <v>3</v>
-      </c>
-      <c r="G3521">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3522" spans="1:8" x14ac:dyDescent="0.25">
@@ -67463,19 +67466,19 @@
         <v>442</v>
       </c>
       <c r="B3522">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3522">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3522">
-        <v>0</v>
-      </c>
-      <c r="H3522" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="G3522">
+        <v>4500</v>
       </c>
     </row>
     <row r="3523" spans="1:8" x14ac:dyDescent="0.25">
@@ -67483,7 +67486,7 @@
         <v>442</v>
       </c>
       <c r="B3523">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3523">
         <v>0</v>
@@ -67493,6 +67496,9 @@
       </c>
       <c r="E3523">
         <v>0</v>
+      </c>
+      <c r="H3523" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3524" spans="1:8" x14ac:dyDescent="0.25">
@@ -67503,13 +67509,13 @@
         <v>9</v>
       </c>
       <c r="C3524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3524">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3525" spans="1:8" x14ac:dyDescent="0.25">
@@ -67517,16 +67523,16 @@
         <v>442</v>
       </c>
       <c r="B3525">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3525">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3526" spans="1:8" x14ac:dyDescent="0.25">
@@ -67534,7 +67540,7 @@
         <v>442</v>
       </c>
       <c r="B3526">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3526">
         <v>0</v>
@@ -67544,9 +67550,6 @@
       </c>
       <c r="E3526">
         <v>0</v>
-      </c>
-      <c r="H3526" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3527" spans="1:8" x14ac:dyDescent="0.25">
@@ -67554,16 +67557,19 @@
         <v>442</v>
       </c>
       <c r="B3527">
+        <v>11</v>
+      </c>
+      <c r="C3527">
+        <v>0</v>
+      </c>
+      <c r="D3527">
+        <v>0</v>
+      </c>
+      <c r="E3527">
+        <v>0</v>
+      </c>
+      <c r="H3527" t="s">
         <v>12</v>
-      </c>
-      <c r="C3527">
-        <v>0</v>
-      </c>
-      <c r="D3527">
-        <v>0</v>
-      </c>
-      <c r="E3527">
-        <v>0</v>
       </c>
     </row>
     <row r="3528" spans="1:8" x14ac:dyDescent="0.25">
@@ -67574,16 +67580,13 @@
         <v>12</v>
       </c>
       <c r="C3528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3528">
-        <v>3</v>
-      </c>
-      <c r="H3528" t="s">
-        <v>441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3529" spans="1:8" x14ac:dyDescent="0.25">
@@ -67594,7 +67597,7 @@
         <v>12</v>
       </c>
       <c r="C3529">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3529">
         <v>1</v>
@@ -67602,8 +67605,8 @@
       <c r="E3529">
         <v>3</v>
       </c>
-      <c r="F3529">
-        <v>4500</v>
+      <c r="H3529" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="3530" spans="1:8" x14ac:dyDescent="0.25">
@@ -67614,7 +67617,7 @@
         <v>12</v>
       </c>
       <c r="C3530">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3530">
         <v>1</v>
@@ -67634,7 +67637,7 @@
         <v>12</v>
       </c>
       <c r="C3531">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3531">
         <v>1</v>
@@ -67643,13 +67646,7 @@
         <v>3</v>
       </c>
       <c r="F3531">
-        <v>900</v>
-      </c>
-      <c r="G3531">
-        <v>5400</v>
-      </c>
-      <c r="H3531" t="s">
-        <v>440</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3532" spans="1:8" x14ac:dyDescent="0.25">
@@ -67657,16 +67654,25 @@
         <v>442</v>
       </c>
       <c r="B3532">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3532">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3532">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3532">
+        <v>900</v>
+      </c>
+      <c r="G3532">
+        <v>5400</v>
+      </c>
+      <c r="H3532" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="3533" spans="1:8" x14ac:dyDescent="0.25">
@@ -67677,16 +67683,13 @@
         <v>13</v>
       </c>
       <c r="C3533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3533">
-        <v>4</v>
-      </c>
-      <c r="F3533">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3534" spans="1:8" x14ac:dyDescent="0.25">
@@ -67694,16 +67697,19 @@
         <v>442</v>
       </c>
       <c r="B3534">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3534">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3534">
+        <v>1800</v>
       </c>
     </row>
     <row r="3535" spans="1:8" x14ac:dyDescent="0.25">
@@ -67714,16 +67720,13 @@
         <v>14</v>
       </c>
       <c r="C3535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3535">
-        <v>1</v>
-      </c>
-      <c r="F3535">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3536" spans="1:8" x14ac:dyDescent="0.25">
@@ -67731,16 +67734,19 @@
         <v>442</v>
       </c>
       <c r="B3536">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3536">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F3536">
+        <v>900</v>
       </c>
     </row>
     <row r="3537" spans="1:8" x14ac:dyDescent="0.25">
@@ -67751,13 +67757,13 @@
         <v>15</v>
       </c>
       <c r="C3537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3537">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3538" spans="1:8" x14ac:dyDescent="0.25">
@@ -67765,16 +67771,16 @@
         <v>442</v>
       </c>
       <c r="B3538">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3538">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3539" spans="1:8" x14ac:dyDescent="0.25">
@@ -67785,19 +67791,13 @@
         <v>16</v>
       </c>
       <c r="C3539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3539">
-        <v>3</v>
-      </c>
-      <c r="F3539">
-        <v>900</v>
-      </c>
-      <c r="G3539">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3540" spans="1:8" x14ac:dyDescent="0.25">
@@ -67805,19 +67805,22 @@
         <v>442</v>
       </c>
       <c r="B3540">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3540">
-        <v>0</v>
-      </c>
-      <c r="H3540" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3540">
+        <v>900</v>
+      </c>
+      <c r="G3540">
+        <v>5400</v>
       </c>
     </row>
     <row r="3541" spans="1:8" x14ac:dyDescent="0.25">
@@ -67825,7 +67828,7 @@
         <v>442</v>
       </c>
       <c r="B3541">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3541">
         <v>0</v>
@@ -67845,7 +67848,7 @@
         <v>442</v>
       </c>
       <c r="B3542">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3542">
         <v>0</v>
@@ -67865,7 +67868,7 @@
         <v>442</v>
       </c>
       <c r="B3543">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3543">
         <v>0</v>
@@ -67885,7 +67888,7 @@
         <v>442</v>
       </c>
       <c r="B3544">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3544">
         <v>0</v>
@@ -67905,7 +67908,7 @@
         <v>442</v>
       </c>
       <c r="B3545">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3545">
         <v>0</v>
@@ -67925,7 +67928,7 @@
         <v>442</v>
       </c>
       <c r="B3546">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3546">
         <v>0</v>
@@ -67945,7 +67948,7 @@
         <v>442</v>
       </c>
       <c r="B3547">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3547">
         <v>0</v>
@@ -67965,7 +67968,7 @@
         <v>442</v>
       </c>
       <c r="B3548">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3548">
         <v>0</v>
@@ -67985,7 +67988,7 @@
         <v>442</v>
       </c>
       <c r="B3549">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3549">
         <v>0</v>
@@ -68005,7 +68008,7 @@
         <v>442</v>
       </c>
       <c r="B3550">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3550">
         <v>0</v>
@@ -68025,7 +68028,7 @@
         <v>442</v>
       </c>
       <c r="B3551">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3551">
         <v>0</v>
@@ -68045,7 +68048,7 @@
         <v>442</v>
       </c>
       <c r="B3552">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3552">
         <v>0</v>
@@ -68065,7 +68068,7 @@
         <v>442</v>
       </c>
       <c r="B3553">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3553">
         <v>0</v>
@@ -68075,6 +68078,9 @@
       </c>
       <c r="E3553">
         <v>0</v>
+      </c>
+      <c r="H3553" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3554" spans="1:8" x14ac:dyDescent="0.25">
@@ -68085,19 +68091,13 @@
         <v>30</v>
       </c>
       <c r="C3554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3554">
         <v>0</v>
       </c>
       <c r="E3554">
-        <v>4</v>
-      </c>
-      <c r="G3554">
-        <v>1800</v>
-      </c>
-      <c r="H3554" t="s">
-        <v>439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3555" spans="1:8" x14ac:dyDescent="0.25">
@@ -68108,22 +68108,19 @@
         <v>30</v>
       </c>
       <c r="C3555">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3555">
         <v>0</v>
       </c>
       <c r="E3555">
-        <v>3</v>
-      </c>
-      <c r="F3555">
-        <v>4500</v>
+        <v>4</v>
       </c>
       <c r="G3555">
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="H3555" t="s">
-        <v>312</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3556" spans="1:8" x14ac:dyDescent="0.25">
@@ -68131,16 +68128,25 @@
         <v>442</v>
       </c>
       <c r="B3556">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3556">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3556">
         <v>0</v>
       </c>
       <c r="E3556">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3556">
+        <v>4500</v>
+      </c>
+      <c r="G3556">
+        <v>7200</v>
+      </c>
+      <c r="H3556" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="3557" spans="1:8" x14ac:dyDescent="0.25">
@@ -68151,22 +68157,13 @@
         <v>31</v>
       </c>
       <c r="C3557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3557">
         <v>0</v>
       </c>
       <c r="E3557">
-        <v>3</v>
-      </c>
-      <c r="F3557">
-        <v>2700</v>
-      </c>
-      <c r="G3557">
-        <v>6300</v>
-      </c>
-      <c r="H3557" t="s">
-        <v>312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3558" spans="1:8" x14ac:dyDescent="0.25">
@@ -68174,16 +68171,25 @@
         <v>442</v>
       </c>
       <c r="B3558">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3558">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3558">
         <v>0</v>
       </c>
       <c r="E3558">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3558">
+        <v>2700</v>
+      </c>
+      <c r="G3558">
+        <v>6300</v>
+      </c>
+      <c r="H3558" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="3559" spans="1:8" x14ac:dyDescent="0.25">
@@ -68194,16 +68200,13 @@
         <v>32</v>
       </c>
       <c r="C3559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3559">
         <v>0</v>
       </c>
       <c r="E3559">
-        <v>3</v>
-      </c>
-      <c r="G3559">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3560" spans="1:8" x14ac:dyDescent="0.25">
@@ -68214,16 +68217,16 @@
         <v>32</v>
       </c>
       <c r="C3560">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3560">
         <v>0</v>
       </c>
       <c r="E3560">
-        <v>4</v>
-      </c>
-      <c r="F3560">
-        <v>5400</v>
+        <v>3</v>
+      </c>
+      <c r="G3560">
+        <v>3600</v>
       </c>
     </row>
     <row r="3561" spans="1:8" x14ac:dyDescent="0.25">
@@ -68234,7 +68237,7 @@
         <v>32</v>
       </c>
       <c r="C3561">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3561">
         <v>0</v>
@@ -68243,10 +68246,7 @@
         <v>4</v>
       </c>
       <c r="F3561">
-        <v>10800</v>
-      </c>
-      <c r="G3561">
-        <v>14400</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="3562" spans="1:8" x14ac:dyDescent="0.25">
@@ -68254,19 +68254,22 @@
         <v>442</v>
       </c>
       <c r="B3562">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3562">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3562">
         <v>0</v>
       </c>
       <c r="E3562">
-        <v>0</v>
-      </c>
-      <c r="H3562" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="F3562">
+        <v>10800</v>
+      </c>
+      <c r="G3562">
+        <v>14400</v>
       </c>
     </row>
     <row r="3563" spans="1:8" x14ac:dyDescent="0.25">
@@ -68274,7 +68277,7 @@
         <v>442</v>
       </c>
       <c r="B3563">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3563">
         <v>0</v>
@@ -68294,7 +68297,7 @@
         <v>442</v>
       </c>
       <c r="B3564">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3564">
         <v>0</v>
@@ -68304,6 +68307,9 @@
       </c>
       <c r="E3564">
         <v>0</v>
+      </c>
+      <c r="H3564" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3565" spans="1:8" x14ac:dyDescent="0.25">
@@ -68314,22 +68320,13 @@
         <v>35</v>
       </c>
       <c r="C3565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3565">
         <v>0</v>
       </c>
       <c r="E3565">
-        <v>5</v>
-      </c>
-      <c r="F3565">
-        <v>900</v>
-      </c>
-      <c r="G3565">
-        <v>6300</v>
-      </c>
-      <c r="H3565" t="s">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3566" spans="1:8" x14ac:dyDescent="0.25">
@@ -68337,19 +68334,25 @@
         <v>442</v>
       </c>
       <c r="B3566">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3566">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3566">
         <v>0</v>
       </c>
       <c r="E3566">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3566">
+        <v>900</v>
+      </c>
+      <c r="G3566">
+        <v>6300</v>
       </c>
       <c r="H3566" t="s">
-        <v>12</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3567" spans="1:8" x14ac:dyDescent="0.25">
@@ -68357,7 +68360,7 @@
         <v>442</v>
       </c>
       <c r="B3567">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3567">
         <v>0</v>
@@ -68377,7 +68380,7 @@
         <v>442</v>
       </c>
       <c r="B3568">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3568">
         <v>0</v>
@@ -68397,7 +68400,7 @@
         <v>442</v>
       </c>
       <c r="B3569">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3569">
         <v>0</v>
@@ -68417,7 +68420,7 @@
         <v>442</v>
       </c>
       <c r="B3570">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3570">
         <v>0</v>
@@ -68437,7 +68440,7 @@
         <v>442</v>
       </c>
       <c r="B3571">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3571">
         <v>0</v>
@@ -68457,7 +68460,7 @@
         <v>442</v>
       </c>
       <c r="B3572">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3572">
         <v>0</v>
@@ -68477,7 +68480,7 @@
         <v>442</v>
       </c>
       <c r="B3573">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3573">
         <v>0</v>
@@ -68497,7 +68500,7 @@
         <v>442</v>
       </c>
       <c r="B3574">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3574">
         <v>0</v>
@@ -68517,7 +68520,7 @@
         <v>442</v>
       </c>
       <c r="B3575">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3575">
         <v>0</v>
@@ -68527,6 +68530,9 @@
       </c>
       <c r="E3575">
         <v>0</v>
+      </c>
+      <c r="H3575" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3576" spans="1:8" x14ac:dyDescent="0.25">
@@ -68537,19 +68543,13 @@
         <v>45</v>
       </c>
       <c r="C3576">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3576">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3576">
-        <v>5</v>
-      </c>
-      <c r="F3576">
-        <v>6300</v>
-      </c>
-      <c r="H3576" t="s">
-        <v>438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3577" spans="1:8" x14ac:dyDescent="0.25">
@@ -68557,19 +68557,22 @@
         <v>442</v>
       </c>
       <c r="B3577">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3577">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3577">
+        <v>6300</v>
       </c>
       <c r="H3577" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3578" spans="1:8" x14ac:dyDescent="0.25">
@@ -68577,7 +68580,7 @@
         <v>442</v>
       </c>
       <c r="B3578">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3578">
         <v>0</v>
@@ -68597,7 +68600,7 @@
         <v>442</v>
       </c>
       <c r="B3579">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3579">
         <v>0</v>
@@ -68617,7 +68620,7 @@
         <v>442</v>
       </c>
       <c r="B3580">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3580">
         <v>0</v>
@@ -68637,7 +68640,7 @@
         <v>442</v>
       </c>
       <c r="B3581">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3581">
         <v>0</v>
@@ -68657,7 +68660,7 @@
         <v>442</v>
       </c>
       <c r="B3582">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3582">
         <v>0</v>
@@ -68677,7 +68680,7 @@
         <v>442</v>
       </c>
       <c r="B3583">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3583">
         <v>0</v>
@@ -68697,7 +68700,7 @@
         <v>442</v>
       </c>
       <c r="B3584">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3584">
         <v>0</v>
@@ -68717,7 +68720,7 @@
         <v>442</v>
       </c>
       <c r="B3585">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3585">
         <v>0</v>
@@ -68737,7 +68740,7 @@
         <v>442</v>
       </c>
       <c r="B3586">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3586">
         <v>0</v>
@@ -68757,7 +68760,7 @@
         <v>442</v>
       </c>
       <c r="B3587">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3587">
         <v>0</v>
@@ -68777,7 +68780,7 @@
         <v>442</v>
       </c>
       <c r="B3588">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3588">
         <v>0</v>
@@ -68797,7 +68800,7 @@
         <v>442</v>
       </c>
       <c r="B3589">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3589">
         <v>0</v>
@@ -68817,7 +68820,7 @@
         <v>442</v>
       </c>
       <c r="B3590">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3590">
         <v>0</v>
@@ -68837,7 +68840,7 @@
         <v>442</v>
       </c>
       <c r="B3591">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3591">
         <v>0</v>
@@ -68857,7 +68860,7 @@
         <v>442</v>
       </c>
       <c r="B3592">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3592">
         <v>0</v>
@@ -68877,7 +68880,7 @@
         <v>442</v>
       </c>
       <c r="B3593">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3593">
         <v>0</v>
@@ -68897,7 +68900,7 @@
         <v>442</v>
       </c>
       <c r="B3594">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3594">
         <v>0</v>
@@ -68917,7 +68920,7 @@
         <v>442</v>
       </c>
       <c r="B3595">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3595">
         <v>0</v>
@@ -68937,7 +68940,7 @@
         <v>442</v>
       </c>
       <c r="B3596">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3596">
         <v>0</v>
@@ -68957,7 +68960,7 @@
         <v>442</v>
       </c>
       <c r="B3597">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3597">
         <v>0</v>
@@ -68977,7 +68980,7 @@
         <v>442</v>
       </c>
       <c r="B3598">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3598">
         <v>0</v>
@@ -68997,7 +69000,7 @@
         <v>442</v>
       </c>
       <c r="B3599">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3599">
         <v>0</v>
@@ -69017,7 +69020,7 @@
         <v>442</v>
       </c>
       <c r="B3600">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3600">
         <v>0</v>
@@ -69037,7 +69040,7 @@
         <v>442</v>
       </c>
       <c r="B3601">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3601">
         <v>0</v>
@@ -69057,7 +69060,7 @@
         <v>442</v>
       </c>
       <c r="B3602">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3602">
         <v>0</v>
@@ -69077,7 +69080,7 @@
         <v>442</v>
       </c>
       <c r="B3603">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3603">
         <v>0</v>
@@ -69087,6 +69090,9 @@
       </c>
       <c r="E3603">
         <v>0</v>
+      </c>
+      <c r="H3603" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3604" spans="1:8" x14ac:dyDescent="0.25">
@@ -69097,22 +69103,13 @@
         <v>72</v>
       </c>
       <c r="C3604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3604">
-        <v>3</v>
-      </c>
-      <c r="F3604">
-        <v>0</v>
-      </c>
-      <c r="G3604">
-        <v>2700</v>
-      </c>
-      <c r="H3604" t="s">
-        <v>437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3605" spans="1:8" x14ac:dyDescent="0.25">
@@ -69120,19 +69117,25 @@
         <v>442</v>
       </c>
       <c r="B3605">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3605">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3605">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3605">
+        <v>0</v>
+      </c>
+      <c r="G3605">
+        <v>2700</v>
       </c>
       <c r="H3605" t="s">
-        <v>12</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3606" spans="1:8" x14ac:dyDescent="0.25">
@@ -69140,7 +69143,7 @@
         <v>442</v>
       </c>
       <c r="B3606">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3606">
         <v>0</v>
@@ -69150,6 +69153,9 @@
       </c>
       <c r="E3606">
         <v>0</v>
+      </c>
+      <c r="H3606" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3607" spans="1:8" x14ac:dyDescent="0.25">
@@ -69160,13 +69166,13 @@
         <v>74</v>
       </c>
       <c r="C3607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3608" spans="1:8" x14ac:dyDescent="0.25">
@@ -69174,16 +69180,16 @@
         <v>442</v>
       </c>
       <c r="B3608">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3609" spans="1:8" x14ac:dyDescent="0.25">
@@ -69194,16 +69200,13 @@
         <v>75</v>
       </c>
       <c r="C3609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3609">
-        <v>3</v>
-      </c>
-      <c r="F3609">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3610" spans="1:8" x14ac:dyDescent="0.25">
@@ -69211,19 +69214,19 @@
         <v>442</v>
       </c>
       <c r="B3610">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3610">
-        <v>0</v>
-      </c>
-      <c r="H3610" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3610">
+        <v>1800</v>
       </c>
     </row>
     <row r="3611" spans="1:8" x14ac:dyDescent="0.25">
@@ -69231,7 +69234,7 @@
         <v>442</v>
       </c>
       <c r="B3611">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3611">
         <v>0</v>
@@ -69241,6 +69244,9 @@
       </c>
       <c r="E3611">
         <v>0</v>
+      </c>
+      <c r="H3611" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3612" spans="1:8" x14ac:dyDescent="0.25">
@@ -69251,19 +69257,13 @@
         <v>77</v>
       </c>
       <c r="C3612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3612">
-        <v>3</v>
-      </c>
-      <c r="F3612">
-        <v>4500</v>
-      </c>
-      <c r="H3612" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3613" spans="1:8" x14ac:dyDescent="0.25">
@@ -69271,16 +69271,22 @@
         <v>442</v>
       </c>
       <c r="B3613">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3613">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3613">
+        <v>4500</v>
+      </c>
+      <c r="H3613" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3614" spans="1:8" x14ac:dyDescent="0.25">
@@ -69291,13 +69297,13 @@
         <v>78</v>
       </c>
       <c r="C3614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3615" spans="1:8" x14ac:dyDescent="0.25">
@@ -69305,19 +69311,16 @@
         <v>442</v>
       </c>
       <c r="B3615">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3615">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3615">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3615">
-        <v>0</v>
-      </c>
-      <c r="H3615" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3616" spans="1:8" x14ac:dyDescent="0.25">
@@ -69325,7 +69328,7 @@
         <v>442</v>
       </c>
       <c r="B3616">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3616">
         <v>0</v>
@@ -69335,6 +69338,9 @@
       </c>
       <c r="E3616">
         <v>0</v>
+      </c>
+      <c r="H3616" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3617" spans="1:8" x14ac:dyDescent="0.25">
@@ -69345,16 +69351,13 @@
         <v>80</v>
       </c>
       <c r="C3617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3617">
-        <v>1</v>
-      </c>
-      <c r="F3617">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3618" spans="1:8" x14ac:dyDescent="0.25">
@@ -69362,19 +69365,19 @@
         <v>442</v>
       </c>
       <c r="B3618">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3618">
-        <v>0</v>
-      </c>
-      <c r="H3618" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="F3618">
+        <v>1800</v>
       </c>
     </row>
     <row r="3619" spans="1:8" x14ac:dyDescent="0.25">
@@ -69382,7 +69385,7 @@
         <v>442</v>
       </c>
       <c r="B3619">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3619">
         <v>0</v>
@@ -69402,7 +69405,7 @@
         <v>442</v>
       </c>
       <c r="B3620">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3620">
         <v>0</v>
@@ -69422,7 +69425,7 @@
         <v>442</v>
       </c>
       <c r="B3621">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3621">
         <v>0</v>
@@ -69432,6 +69435,9 @@
       </c>
       <c r="E3621">
         <v>0</v>
+      </c>
+      <c r="H3621" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3622" spans="1:8" x14ac:dyDescent="0.25">
@@ -69442,16 +69448,13 @@
         <v>84</v>
       </c>
       <c r="C3622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3622">
-        <v>2</v>
-      </c>
-      <c r="F3622">
-        <v>12600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3623" spans="1:8" x14ac:dyDescent="0.25">
@@ -69459,16 +69462,19 @@
         <v>442</v>
       </c>
       <c r="B3623">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3623">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3623">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3623">
+        <v>12600</v>
       </c>
     </row>
     <row r="3624" spans="1:8" x14ac:dyDescent="0.25">
@@ -69479,13 +69485,13 @@
         <v>85</v>
       </c>
       <c r="C3624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3624">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3625" spans="1:8" x14ac:dyDescent="0.25">
@@ -69493,19 +69499,16 @@
         <v>442</v>
       </c>
       <c r="B3625">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3625">
-        <v>0</v>
-      </c>
-      <c r="H3625" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3626" spans="1:8" x14ac:dyDescent="0.25">
@@ -69513,7 +69516,7 @@
         <v>442</v>
       </c>
       <c r="B3626">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3626">
         <v>0</v>
@@ -69533,7 +69536,7 @@
         <v>442</v>
       </c>
       <c r="B3627">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3627">
         <v>0</v>
@@ -69543,6 +69546,9 @@
       </c>
       <c r="E3627">
         <v>0</v>
+      </c>
+      <c r="H3627" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3628" spans="1:8" x14ac:dyDescent="0.25">
@@ -69553,16 +69559,13 @@
         <v>88</v>
       </c>
       <c r="C3628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3628">
-        <v>3</v>
-      </c>
-      <c r="G3628">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3629" spans="1:8" x14ac:dyDescent="0.25">
@@ -69570,16 +69573,19 @@
         <v>442</v>
       </c>
       <c r="B3629">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3629">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G3629">
+        <v>1800</v>
       </c>
     </row>
     <row r="3630" spans="1:8" x14ac:dyDescent="0.25">
@@ -69590,16 +69596,13 @@
         <v>89</v>
       </c>
       <c r="C3630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3630">
-        <v>2</v>
-      </c>
-      <c r="F3630">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3631" spans="1:8" x14ac:dyDescent="0.25">
@@ -69607,16 +69610,19 @@
         <v>442</v>
       </c>
       <c r="B3631">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3631">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3631">
+        <v>8100</v>
       </c>
     </row>
     <row r="3632" spans="1:8" x14ac:dyDescent="0.25">
@@ -69627,16 +69633,13 @@
         <v>90</v>
       </c>
       <c r="C3632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3632">
-        <v>2</v>
-      </c>
-      <c r="F3632">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3633" spans="1:8" x14ac:dyDescent="0.25">
@@ -69644,16 +69647,19 @@
         <v>442</v>
       </c>
       <c r="B3633">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3633">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3633">
+        <v>8100</v>
       </c>
     </row>
     <row r="3634" spans="1:8" x14ac:dyDescent="0.25">
@@ -69664,16 +69670,13 @@
         <v>91</v>
       </c>
       <c r="C3634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3634">
-        <v>2</v>
-      </c>
-      <c r="F3634">
-        <v>9000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3635" spans="1:8" x14ac:dyDescent="0.25">
@@ -69681,16 +69684,19 @@
         <v>442</v>
       </c>
       <c r="B3635">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3635">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3635">
+        <v>9000</v>
       </c>
     </row>
     <row r="3636" spans="1:8" x14ac:dyDescent="0.25">
@@ -69701,16 +69707,13 @@
         <v>92</v>
       </c>
       <c r="C3636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3636">
-        <v>2</v>
-      </c>
-      <c r="F3636">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3637" spans="1:8" x14ac:dyDescent="0.25">
@@ -69718,19 +69721,19 @@
         <v>442</v>
       </c>
       <c r="B3637">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3637">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3637">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3637">
-        <v>0</v>
-      </c>
-      <c r="H3637" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F3637">
+        <v>2700</v>
       </c>
     </row>
     <row r="3638" spans="1:8" x14ac:dyDescent="0.25">
@@ -69738,7 +69741,7 @@
         <v>442</v>
       </c>
       <c r="B3638">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3638">
         <v>0</v>
@@ -69758,7 +69761,7 @@
         <v>442</v>
       </c>
       <c r="B3639">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3639">
         <v>0</v>
@@ -69768,6 +69771,9 @@
       </c>
       <c r="E3639">
         <v>0</v>
+      </c>
+      <c r="H3639" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3640" spans="1:8" x14ac:dyDescent="0.25">
@@ -69778,16 +69784,13 @@
         <v>95</v>
       </c>
       <c r="C3640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3640">
-        <v>2</v>
-      </c>
-      <c r="F3640">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3641" spans="1:8" x14ac:dyDescent="0.25">
@@ -69795,16 +69798,19 @@
         <v>442</v>
       </c>
       <c r="B3641">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3641">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3641">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3641">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3641">
+        <v>1800</v>
       </c>
     </row>
     <row r="3642" spans="1:8" x14ac:dyDescent="0.25">
@@ -69815,16 +69821,13 @@
         <v>96</v>
       </c>
       <c r="C3642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3642">
-        <v>3</v>
-      </c>
-      <c r="G3642">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3643" spans="1:8" x14ac:dyDescent="0.25">
@@ -69835,19 +69838,16 @@
         <v>96</v>
       </c>
       <c r="C3643">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3643">
         <v>1</v>
       </c>
       <c r="E3643">
-        <v>2</v>
-      </c>
-      <c r="F3643">
-        <v>1800</v>
-      </c>
-      <c r="H3643" t="s">
-        <v>436</v>
+        <v>3</v>
+      </c>
+      <c r="G3643">
+        <v>6300</v>
       </c>
     </row>
     <row r="3644" spans="1:8" x14ac:dyDescent="0.25">
@@ -69858,7 +69858,7 @@
         <v>96</v>
       </c>
       <c r="C3644">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3644">
         <v>1</v>
@@ -69867,24 +69867,30 @@
         <v>2</v>
       </c>
       <c r="F3644">
-        <v>13500</v>
+        <v>1800</v>
+      </c>
+      <c r="H3644" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="3645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3645" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3645">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C3645">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3645">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3645">
+        <v>13500</v>
       </c>
     </row>
     <row r="3646" spans="1:8" x14ac:dyDescent="0.25">
@@ -69895,19 +69901,13 @@
         <v>1</v>
       </c>
       <c r="C3646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3646">
-        <v>3</v>
-      </c>
-      <c r="F3646">
-        <v>1800</v>
-      </c>
-      <c r="G3646">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3647" spans="1:8" x14ac:dyDescent="0.25">
@@ -69918,7 +69918,7 @@
         <v>1</v>
       </c>
       <c r="C3647">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3647">
         <v>1</v>
@@ -69929,8 +69929,8 @@
       <c r="F3647">
         <v>1800</v>
       </c>
-      <c r="H3647" t="s">
-        <v>453</v>
+      <c r="G3647">
+        <v>7200</v>
       </c>
     </row>
     <row r="3648" spans="1:8" x14ac:dyDescent="0.25">
@@ -69938,16 +69938,22 @@
         <v>443</v>
       </c>
       <c r="B3648">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3648">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3648">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3648">
+        <v>1800</v>
+      </c>
+      <c r="H3648" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="3649" spans="1:8" x14ac:dyDescent="0.25">
@@ -69958,19 +69964,13 @@
         <v>2</v>
       </c>
       <c r="C3649">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3649">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3649">
-        <v>2</v>
-      </c>
-      <c r="F3649">
-        <v>900</v>
-      </c>
-      <c r="G3649">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3650" spans="1:8" x14ac:dyDescent="0.25">
@@ -69978,16 +69978,22 @@
         <v>443</v>
       </c>
       <c r="B3650">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3650">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3650">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3650">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3650">
+        <v>900</v>
+      </c>
+      <c r="G3650">
+        <v>11700</v>
       </c>
     </row>
     <row r="3651" spans="1:8" x14ac:dyDescent="0.25">
@@ -69998,16 +70004,13 @@
         <v>3</v>
       </c>
       <c r="C3651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3651">
-        <v>3</v>
-      </c>
-      <c r="F3651">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3652" spans="1:8" x14ac:dyDescent="0.25">
@@ -70015,19 +70018,19 @@
         <v>443</v>
       </c>
       <c r="B3652">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3652">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3652">
-        <v>0</v>
-      </c>
-      <c r="H3652" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3652">
+        <v>2700</v>
       </c>
     </row>
     <row r="3653" spans="1:8" x14ac:dyDescent="0.25">
@@ -70035,7 +70038,7 @@
         <v>443</v>
       </c>
       <c r="B3653">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3653">
         <v>0</v>
@@ -70045,6 +70048,9 @@
       </c>
       <c r="E3653">
         <v>0</v>
+      </c>
+      <c r="H3653" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3654" spans="1:8" x14ac:dyDescent="0.25">
@@ -70055,16 +70061,13 @@
         <v>5</v>
       </c>
       <c r="C3654">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3654">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3654">
-        <v>3</v>
-      </c>
-      <c r="G3654">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3655" spans="1:8" x14ac:dyDescent="0.25">
@@ -70075,7 +70078,7 @@
         <v>5</v>
       </c>
       <c r="C3655">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3655">
         <v>1</v>
@@ -70083,11 +70086,8 @@
       <c r="E3655">
         <v>3</v>
       </c>
-      <c r="F3655">
+      <c r="G3655">
         <v>4500</v>
-      </c>
-      <c r="G3655">
-        <v>7200</v>
       </c>
     </row>
     <row r="3656" spans="1:8" x14ac:dyDescent="0.25">
@@ -70098,7 +70098,7 @@
         <v>5</v>
       </c>
       <c r="C3656">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3656">
         <v>1</v>
@@ -70107,7 +70107,10 @@
         <v>3</v>
       </c>
       <c r="F3656">
-        <v>10800</v>
+        <v>4500</v>
+      </c>
+      <c r="G3656">
+        <v>7200</v>
       </c>
     </row>
     <row r="3657" spans="1:8" x14ac:dyDescent="0.25">
@@ -70115,19 +70118,19 @@
         <v>443</v>
       </c>
       <c r="B3657">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3657">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3657">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3657">
-        <v>0</v>
-      </c>
-      <c r="H3657" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3657">
+        <v>10800</v>
       </c>
     </row>
     <row r="3658" spans="1:8" x14ac:dyDescent="0.25">
@@ -70135,7 +70138,7 @@
         <v>443</v>
       </c>
       <c r="B3658">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3658">
         <v>0</v>
@@ -70145,6 +70148,9 @@
       </c>
       <c r="E3658">
         <v>0</v>
+      </c>
+      <c r="H3658" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3659" spans="1:8" x14ac:dyDescent="0.25">
@@ -70155,19 +70161,13 @@
         <v>7</v>
       </c>
       <c r="C3659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3659">
-        <v>3</v>
-      </c>
-      <c r="F3659">
-        <v>5400</v>
-      </c>
-      <c r="H3659" t="s">
-        <v>447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3660" spans="1:8" x14ac:dyDescent="0.25">
@@ -70178,19 +70178,19 @@
         <v>7</v>
       </c>
       <c r="C3660">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3660">
         <v>1</v>
       </c>
       <c r="E3660">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3660">
-        <v>900</v>
-      </c>
-      <c r="G3660">
         <v>5400</v>
+      </c>
+      <c r="H3660" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="3661" spans="1:8" x14ac:dyDescent="0.25">
@@ -70201,16 +70201,16 @@
         <v>7</v>
       </c>
       <c r="C3661">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3661">
         <v>1</v>
       </c>
       <c r="E3661">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3661">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="G3661">
         <v>5400</v>
@@ -70224,7 +70224,7 @@
         <v>7</v>
       </c>
       <c r="C3662">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3662">
         <v>1</v>
@@ -70233,10 +70233,10 @@
         <v>3</v>
       </c>
       <c r="F3662">
+        <v>2700</v>
+      </c>
+      <c r="G3662">
         <v>5400</v>
-      </c>
-      <c r="H3662" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="3663" spans="1:8" x14ac:dyDescent="0.25">
@@ -70244,19 +70244,22 @@
         <v>443</v>
       </c>
       <c r="B3663">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3663">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3663">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3663">
+        <v>5400</v>
       </c>
       <c r="H3663" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3664" spans="1:8" x14ac:dyDescent="0.25">
@@ -70264,7 +70267,7 @@
         <v>443</v>
       </c>
       <c r="B3664">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3664">
         <v>0</v>
@@ -70284,7 +70287,7 @@
         <v>443</v>
       </c>
       <c r="B3665">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3665">
         <v>0</v>
@@ -70304,7 +70307,7 @@
         <v>443</v>
       </c>
       <c r="B3666">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3666">
         <v>0</v>
@@ -70324,16 +70327,19 @@
         <v>443</v>
       </c>
       <c r="B3667">
+        <v>11</v>
+      </c>
+      <c r="C3667">
+        <v>0</v>
+      </c>
+      <c r="D3667">
+        <v>0</v>
+      </c>
+      <c r="E3667">
+        <v>0</v>
+      </c>
+      <c r="H3667" t="s">
         <v>12</v>
-      </c>
-      <c r="C3667">
-        <v>0</v>
-      </c>
-      <c r="D3667">
-        <v>0</v>
-      </c>
-      <c r="E3667">
-        <v>0</v>
       </c>
     </row>
     <row r="3668" spans="1:8" x14ac:dyDescent="0.25">
@@ -70344,22 +70350,13 @@
         <v>12</v>
       </c>
       <c r="C3668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3668">
         <v>0</v>
       </c>
       <c r="E3668">
-        <v>3</v>
-      </c>
-      <c r="F3668">
-        <v>900</v>
-      </c>
-      <c r="G3668">
-        <v>3600</v>
-      </c>
-      <c r="H3668" t="s">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3669" spans="1:8" x14ac:dyDescent="0.25">
@@ -70370,7 +70367,7 @@
         <v>12</v>
       </c>
       <c r="C3669">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3669">
         <v>0</v>
@@ -70379,10 +70376,10 @@
         <v>3</v>
       </c>
       <c r="F3669">
-        <v>8100</v>
+        <v>900</v>
       </c>
       <c r="G3669">
-        <v>10800</v>
+        <v>3600</v>
       </c>
       <c r="H3669" t="s">
         <v>414</v>
@@ -70393,19 +70390,25 @@
         <v>443</v>
       </c>
       <c r="B3670">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3670">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3670">
         <v>0</v>
       </c>
       <c r="E3670">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3670">
+        <v>8100</v>
+      </c>
+      <c r="G3670">
+        <v>10800</v>
       </c>
       <c r="H3670" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3671" spans="1:8" x14ac:dyDescent="0.25">
@@ -70413,7 +70416,7 @@
         <v>443</v>
       </c>
       <c r="B3671">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3671">
         <v>0</v>
@@ -70425,7 +70428,7 @@
         <v>0</v>
       </c>
       <c r="H3671" t="s">
-        <v>12</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3672" spans="1:8" x14ac:dyDescent="0.25">
@@ -70433,7 +70436,7 @@
         <v>443</v>
       </c>
       <c r="B3672">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3672">
         <v>0</v>
@@ -70453,7 +70456,7 @@
         <v>443</v>
       </c>
       <c r="B3673">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3673">
         <v>0</v>
@@ -70473,7 +70476,7 @@
         <v>443</v>
       </c>
       <c r="B3674">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3674">
         <v>0</v>
@@ -70493,7 +70496,7 @@
         <v>443</v>
       </c>
       <c r="B3675">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3675">
         <v>0</v>
@@ -70513,7 +70516,7 @@
         <v>443</v>
       </c>
       <c r="B3676">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3676">
         <v>0</v>
@@ -70533,7 +70536,7 @@
         <v>443</v>
       </c>
       <c r="B3677">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3677">
         <v>0</v>
@@ -70553,7 +70556,7 @@
         <v>443</v>
       </c>
       <c r="B3678">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3678">
         <v>0</v>
@@ -70573,7 +70576,7 @@
         <v>443</v>
       </c>
       <c r="B3679">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3679">
         <v>0</v>
@@ -70593,7 +70596,7 @@
         <v>443</v>
       </c>
       <c r="B3680">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3680">
         <v>0</v>
@@ -70613,7 +70616,7 @@
         <v>443</v>
       </c>
       <c r="B3681">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3681">
         <v>0</v>
@@ -70633,7 +70636,7 @@
         <v>443</v>
       </c>
       <c r="B3682">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3682">
         <v>0</v>
@@ -70653,7 +70656,7 @@
         <v>443</v>
       </c>
       <c r="B3683">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3683">
         <v>0</v>
@@ -70673,7 +70676,7 @@
         <v>443</v>
       </c>
       <c r="B3684">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3684">
         <v>0</v>
@@ -70693,7 +70696,7 @@
         <v>443</v>
       </c>
       <c r="B3685">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3685">
         <v>0</v>
@@ -70713,7 +70716,7 @@
         <v>443</v>
       </c>
       <c r="B3686">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3686">
         <v>0</v>
@@ -70733,7 +70736,7 @@
         <v>443</v>
       </c>
       <c r="B3687">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3687">
         <v>0</v>
@@ -70743,6 +70746,9 @@
       </c>
       <c r="E3687">
         <v>0</v>
+      </c>
+      <c r="H3687" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3688" spans="1:8" x14ac:dyDescent="0.25">
@@ -70753,16 +70759,13 @@
         <v>30</v>
       </c>
       <c r="C3688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3688">
-        <v>3</v>
-      </c>
-      <c r="F3688">
-        <v>2700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3689" spans="1:8" x14ac:dyDescent="0.25">
@@ -70770,19 +70773,19 @@
         <v>443</v>
       </c>
       <c r="B3689">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3689">
-        <v>0</v>
-      </c>
-      <c r="H3689" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3689">
+        <v>2700</v>
       </c>
     </row>
     <row r="3690" spans="1:8" x14ac:dyDescent="0.25">
@@ -70790,7 +70793,7 @@
         <v>443</v>
       </c>
       <c r="B3690">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3690">
         <v>0</v>
@@ -70800,6 +70803,9 @@
       </c>
       <c r="E3690">
         <v>0</v>
+      </c>
+      <c r="H3690" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3691" spans="1:8" x14ac:dyDescent="0.25">
@@ -70810,16 +70816,13 @@
         <v>32</v>
       </c>
       <c r="C3691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3691">
-        <v>2</v>
-      </c>
-      <c r="H3691" t="s">
-        <v>451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3692" spans="1:8" x14ac:dyDescent="0.25">
@@ -70827,19 +70830,19 @@
         <v>443</v>
       </c>
       <c r="B3692">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3692">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3692">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3692">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3692" t="s">
-        <v>12</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3693" spans="1:8" x14ac:dyDescent="0.25">
@@ -70850,16 +70853,16 @@
         <v>33</v>
       </c>
       <c r="C3693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3693">
-        <v>4</v>
-      </c>
-      <c r="G3693">
-        <v>8100</v>
+        <v>0</v>
+      </c>
+      <c r="H3693" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3694" spans="1:8" x14ac:dyDescent="0.25">
@@ -70867,16 +70870,19 @@
         <v>443</v>
       </c>
       <c r="B3694">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3694">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3694">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3694">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3694">
+        <v>8100</v>
       </c>
     </row>
     <row r="3695" spans="1:8" x14ac:dyDescent="0.25">
@@ -70884,7 +70890,7 @@
         <v>443</v>
       </c>
       <c r="B3695">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3695">
         <v>0</v>
@@ -70904,13 +70910,13 @@
         <v>35</v>
       </c>
       <c r="C3696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3696">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3697" spans="1:8" x14ac:dyDescent="0.25">
@@ -70918,16 +70924,16 @@
         <v>443</v>
       </c>
       <c r="B3697">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3697">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3698" spans="1:8" x14ac:dyDescent="0.25">
@@ -70938,16 +70944,13 @@
         <v>36</v>
       </c>
       <c r="C3698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3698">
-        <v>2</v>
-      </c>
-      <c r="F3698">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3699" spans="1:8" x14ac:dyDescent="0.25">
@@ -70955,19 +70958,19 @@
         <v>443</v>
       </c>
       <c r="B3699">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3699">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3699">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3699">
-        <v>0</v>
-      </c>
-      <c r="H3699" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F3699">
+        <v>6300</v>
       </c>
     </row>
     <row r="3700" spans="1:8" x14ac:dyDescent="0.25">
@@ -70975,7 +70978,7 @@
         <v>443</v>
       </c>
       <c r="B3700">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3700">
         <v>0</v>
@@ -70985,6 +70988,9 @@
       </c>
       <c r="E3700">
         <v>0</v>
+      </c>
+      <c r="H3700" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3701" spans="1:8" x14ac:dyDescent="0.25">
@@ -70995,13 +71001,13 @@
         <v>38</v>
       </c>
       <c r="C3701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3701">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3702" spans="1:8" x14ac:dyDescent="0.25">
@@ -71009,19 +71015,16 @@
         <v>443</v>
       </c>
       <c r="B3702">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3702">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3702">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3702">
-        <v>0</v>
-      </c>
-      <c r="H3702" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3703" spans="1:8" x14ac:dyDescent="0.25">
@@ -71029,7 +71032,7 @@
         <v>443</v>
       </c>
       <c r="B3703">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3703">
         <v>0</v>
@@ -71041,7 +71044,7 @@
         <v>0</v>
       </c>
       <c r="H3703" t="s">
-        <v>446</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3704" spans="1:8" x14ac:dyDescent="0.25">
@@ -71052,22 +71055,16 @@
         <v>40</v>
       </c>
       <c r="C3704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3704">
-        <v>3</v>
-      </c>
-      <c r="F3704">
-        <v>900</v>
-      </c>
-      <c r="G3704">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="H3704" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3705" spans="1:8" x14ac:dyDescent="0.25">
@@ -71078,7 +71075,7 @@
         <v>40</v>
       </c>
       <c r="C3705">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3705">
         <v>1</v>
@@ -71087,10 +71084,10 @@
         <v>3</v>
       </c>
       <c r="F3705">
-        <v>3600</v>
+        <v>900</v>
       </c>
       <c r="G3705">
-        <v>7200</v>
+        <v>2700</v>
       </c>
       <c r="H3705" t="s">
         <v>447</v>
@@ -71104,19 +71101,22 @@
         <v>40</v>
       </c>
       <c r="C3706">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3706">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3706">
+        <v>3600</v>
+      </c>
+      <c r="G3706">
         <v>7200</v>
       </c>
       <c r="H3706" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3707" spans="1:8" x14ac:dyDescent="0.25">
@@ -71127,19 +71127,19 @@
         <v>40</v>
       </c>
       <c r="C3707">
+        <v>3</v>
+      </c>
+      <c r="D3707">
+        <v>0</v>
+      </c>
+      <c r="E3707">
         <v>4</v>
-      </c>
-      <c r="D3707">
-        <v>1</v>
-      </c>
-      <c r="E3707">
-        <v>2</v>
       </c>
       <c r="F3707">
         <v>7200</v>
       </c>
-      <c r="G3707">
-        <v>10800</v>
+      <c r="H3707" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="3708" spans="1:8" x14ac:dyDescent="0.25">
@@ -71150,7 +71150,7 @@
         <v>40</v>
       </c>
       <c r="C3708">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3708">
         <v>1</v>
@@ -71160,6 +71160,9 @@
       </c>
       <c r="F3708">
         <v>7200</v>
+      </c>
+      <c r="G3708">
+        <v>10800</v>
       </c>
     </row>
     <row r="3709" spans="1:8" x14ac:dyDescent="0.25">
@@ -71170,19 +71173,16 @@
         <v>40</v>
       </c>
       <c r="C3709">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3709">
         <v>1</v>
       </c>
       <c r="E3709">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3709">
-        <v>9900</v>
-      </c>
-      <c r="H3709" t="s">
-        <v>448</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3710" spans="1:8" x14ac:dyDescent="0.25">
@@ -71190,19 +71190,22 @@
         <v>443</v>
       </c>
       <c r="B3710">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3710">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3710">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3710">
+        <v>9900</v>
       </c>
       <c r="H3710" t="s">
-        <v>12</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3711" spans="1:8" x14ac:dyDescent="0.25">
@@ -71210,7 +71213,7 @@
         <v>443</v>
       </c>
       <c r="B3711">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3711">
         <v>0</v>
@@ -71230,7 +71233,7 @@
         <v>443</v>
       </c>
       <c r="B3712">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3712">
         <v>0</v>
@@ -71240,6 +71243,9 @@
       </c>
       <c r="E3712">
         <v>0</v>
+      </c>
+      <c r="H3712" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3713" spans="1:8" x14ac:dyDescent="0.25">
@@ -71250,22 +71256,13 @@
         <v>43</v>
       </c>
       <c r="C3713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3713">
         <v>0</v>
       </c>
       <c r="E3713">
-        <v>3</v>
-      </c>
-      <c r="F3713">
-        <v>2700</v>
-      </c>
-      <c r="G3713">
-        <v>9900</v>
-      </c>
-      <c r="H3713" t="s">
-        <v>449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3714" spans="1:8" x14ac:dyDescent="0.25">
@@ -71276,19 +71273,22 @@
         <v>43</v>
       </c>
       <c r="C3714">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3714">
         <v>3</v>
       </c>
       <c r="F3714">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="G3714">
-        <v>9000</v>
+        <v>9900</v>
+      </c>
+      <c r="H3714" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="3715" spans="1:8" x14ac:dyDescent="0.25">
@@ -71296,19 +71296,22 @@
         <v>443</v>
       </c>
       <c r="B3715">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3715">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3715">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3715">
-        <v>0</v>
-      </c>
-      <c r="H3715" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3715">
+        <v>1800</v>
+      </c>
+      <c r="G3715">
+        <v>9000</v>
       </c>
     </row>
     <row r="3716" spans="1:8" x14ac:dyDescent="0.25">
@@ -71316,7 +71319,7 @@
         <v>443</v>
       </c>
       <c r="B3716">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3716">
         <v>0</v>
@@ -71336,7 +71339,7 @@
         <v>443</v>
       </c>
       <c r="B3717">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3717">
         <v>0</v>
@@ -71346,6 +71349,9 @@
       </c>
       <c r="E3717">
         <v>0</v>
+      </c>
+      <c r="H3717" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3718" spans="1:8" x14ac:dyDescent="0.25">
@@ -71356,22 +71362,13 @@
         <v>46</v>
       </c>
       <c r="C3718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3718">
-        <v>5</v>
-      </c>
-      <c r="F3718">
-        <v>2700</v>
-      </c>
-      <c r="G3718">
-        <v>7200</v>
-      </c>
-      <c r="H3718" t="s">
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3719" spans="1:8" x14ac:dyDescent="0.25">
@@ -71379,16 +71376,25 @@
         <v>443</v>
       </c>
       <c r="B3719">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3719">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3719">
+        <v>2700</v>
+      </c>
+      <c r="G3719">
+        <v>7200</v>
+      </c>
+      <c r="H3719" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="3720" spans="1:8" x14ac:dyDescent="0.25">
@@ -71399,13 +71405,13 @@
         <v>47</v>
       </c>
       <c r="C3720">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3720">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3720">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3721" spans="1:8" x14ac:dyDescent="0.25">
@@ -71413,16 +71419,16 @@
         <v>443</v>
       </c>
       <c r="B3721">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3721">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3721">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3721">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3722" spans="1:8" x14ac:dyDescent="0.25">
@@ -71433,13 +71439,13 @@
         <v>48</v>
       </c>
       <c r="C3722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3722">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3723" spans="1:8" x14ac:dyDescent="0.25">
@@ -71447,16 +71453,16 @@
         <v>443</v>
       </c>
       <c r="B3723">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3723">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3723">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3723">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3724" spans="1:8" x14ac:dyDescent="0.25">
@@ -71467,16 +71473,13 @@
         <v>49</v>
       </c>
       <c r="C3724">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3724">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3724">
-        <v>3</v>
-      </c>
-      <c r="F3724">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3725" spans="1:8" x14ac:dyDescent="0.25">
@@ -71484,16 +71487,19 @@
         <v>443</v>
       </c>
       <c r="B3725">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3725">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3725">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3725">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3725">
+        <v>900</v>
       </c>
     </row>
     <row r="3726" spans="1:8" x14ac:dyDescent="0.25">
@@ -71504,19 +71510,13 @@
         <v>50</v>
       </c>
       <c r="C3726">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3726">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3726">
-        <v>4</v>
-      </c>
-      <c r="F3726">
-        <v>2700</v>
-      </c>
-      <c r="H3726" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3727" spans="1:8" x14ac:dyDescent="0.25">
@@ -71524,16 +71524,22 @@
         <v>443</v>
       </c>
       <c r="B3727">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3727">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3727">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3727">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3727">
+        <v>2700</v>
+      </c>
+      <c r="H3727" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3728" spans="1:8" x14ac:dyDescent="0.25">
@@ -71544,19 +71550,13 @@
         <v>51</v>
       </c>
       <c r="C3728">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3728">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3728">
-        <v>4</v>
-      </c>
-      <c r="F3728">
-        <v>6300</v>
-      </c>
-      <c r="H3728" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3729" spans="1:8" x14ac:dyDescent="0.25">
@@ -71564,16 +71564,22 @@
         <v>443</v>
       </c>
       <c r="B3729">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3729">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3729">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3729">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3729">
+        <v>6300</v>
+      </c>
+      <c r="H3729" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3730" spans="1:8" x14ac:dyDescent="0.25">
@@ -71584,19 +71590,13 @@
         <v>52</v>
       </c>
       <c r="C3730">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3730">
         <v>0</v>
       </c>
       <c r="E3730">
-        <v>4</v>
-      </c>
-      <c r="G3730">
-        <v>9000</v>
-      </c>
-      <c r="H3730" t="s">
-        <v>444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3731" spans="1:8" x14ac:dyDescent="0.25">
@@ -71604,19 +71604,22 @@
         <v>443</v>
       </c>
       <c r="B3731">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3731">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3731">
         <v>0</v>
       </c>
       <c r="E3731">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3731">
+        <v>9000</v>
       </c>
       <c r="H3731" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3732" spans="1:8" x14ac:dyDescent="0.25">
@@ -71624,7 +71627,7 @@
         <v>443</v>
       </c>
       <c r="B3732">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3732">
         <v>0</v>
@@ -71644,7 +71647,7 @@
         <v>443</v>
       </c>
       <c r="B3733">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3733">
         <v>0</v>
@@ -71664,7 +71667,7 @@
         <v>443</v>
       </c>
       <c r="B3734">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3734">
         <v>0</v>
@@ -71674,6 +71677,9 @@
       </c>
       <c r="E3734">
         <v>0</v>
+      </c>
+      <c r="H3734" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3735" spans="1:8" x14ac:dyDescent="0.25">
@@ -71684,22 +71690,13 @@
         <v>56</v>
       </c>
       <c r="C3735">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3735">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3735">
-        <v>2</v>
-      </c>
-      <c r="F3735">
-        <v>1800</v>
-      </c>
-      <c r="G3735">
-        <v>7200</v>
-      </c>
-      <c r="H3735" t="s">
-        <v>445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3736" spans="1:8" x14ac:dyDescent="0.25">
@@ -71707,19 +71704,25 @@
         <v>443</v>
       </c>
       <c r="B3736">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3736">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3736">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3736">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3736">
+        <v>1800</v>
+      </c>
+      <c r="G3736">
+        <v>7200</v>
       </c>
       <c r="H3736" t="s">
-        <v>12</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3737" spans="1:8" x14ac:dyDescent="0.25">
@@ -71727,7 +71730,7 @@
         <v>443</v>
       </c>
       <c r="B3737">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3737">
         <v>0</v>
@@ -71747,7 +71750,7 @@
         <v>443</v>
       </c>
       <c r="B3738">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3738">
         <v>0</v>
@@ -71767,7 +71770,7 @@
         <v>443</v>
       </c>
       <c r="B3739">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3739">
         <v>0</v>
@@ -71787,7 +71790,7 @@
         <v>443</v>
       </c>
       <c r="B3740">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3740">
         <v>0</v>
@@ -71807,7 +71810,7 @@
         <v>443</v>
       </c>
       <c r="B3741">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3741">
         <v>0</v>
@@ -71827,7 +71830,7 @@
         <v>443</v>
       </c>
       <c r="B3742">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3742">
         <v>0</v>
@@ -71847,7 +71850,7 @@
         <v>443</v>
       </c>
       <c r="B3743">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3743">
         <v>0</v>
@@ -71864,10 +71867,10 @@
     </row>
     <row r="3744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3744" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B3744">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C3744">
         <v>0</v>
@@ -71877,6 +71880,9 @@
       </c>
       <c r="E3744">
         <v>0</v>
+      </c>
+      <c r="H3744" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3745" spans="1:8" x14ac:dyDescent="0.25">
@@ -71887,22 +71893,13 @@
         <v>1</v>
       </c>
       <c r="C3745">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3745">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3745">
-        <v>3</v>
-      </c>
-      <c r="F3745">
-        <v>4500</v>
-      </c>
-      <c r="G3745">
-        <v>9900</v>
-      </c>
-      <c r="H3745" t="s">
-        <v>464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3746" spans="1:8" x14ac:dyDescent="0.25">
@@ -71910,16 +71907,25 @@
         <v>455</v>
       </c>
       <c r="B3746">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3746">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3746">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3746">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3746">
+        <v>4500</v>
+      </c>
+      <c r="G3746">
+        <v>9900</v>
+      </c>
+      <c r="H3746" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="3747" spans="1:8" x14ac:dyDescent="0.25">
@@ -71930,19 +71936,13 @@
         <v>2</v>
       </c>
       <c r="C3747">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3747">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3747">
-        <v>5</v>
-      </c>
-      <c r="F3747">
-        <v>900</v>
-      </c>
-      <c r="G3747">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3748" spans="1:8" x14ac:dyDescent="0.25">
@@ -71950,19 +71950,22 @@
         <v>455</v>
       </c>
       <c r="B3748">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3748">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3748">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3748">
-        <v>0</v>
-      </c>
-      <c r="H3748" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="F3748">
+        <v>900</v>
+      </c>
+      <c r="G3748">
+        <v>6300</v>
       </c>
     </row>
     <row r="3749" spans="1:8" x14ac:dyDescent="0.25">
@@ -71970,7 +71973,7 @@
         <v>455</v>
       </c>
       <c r="B3749">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3749">
         <v>0</v>
@@ -71980,6 +71983,9 @@
       </c>
       <c r="E3749">
         <v>0</v>
+      </c>
+      <c r="H3749" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3750" spans="1:8" x14ac:dyDescent="0.25">
@@ -71990,19 +71996,13 @@
         <v>4</v>
       </c>
       <c r="C3750">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3750">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3750">
-        <v>4</v>
-      </c>
-      <c r="F3750">
-        <v>900</v>
-      </c>
-      <c r="G3750">
-        <v>5400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3751" spans="1:8" x14ac:dyDescent="0.25">
@@ -72013,7 +72013,7 @@
         <v>4</v>
       </c>
       <c r="C3751">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3751">
         <v>1</v>
@@ -72022,7 +72022,10 @@
         <v>4</v>
       </c>
       <c r="F3751">
-        <v>8100</v>
+        <v>900</v>
+      </c>
+      <c r="G3751">
+        <v>5400</v>
       </c>
     </row>
     <row r="3752" spans="1:8" x14ac:dyDescent="0.25">
@@ -72033,13 +72036,13 @@
         <v>4</v>
       </c>
       <c r="C3752">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3752">
         <v>1</v>
       </c>
       <c r="E3752">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3752">
         <v>8100</v>
@@ -72050,16 +72053,19 @@
         <v>455</v>
       </c>
       <c r="B3753">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3753">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3753">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3753">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3753">
+        <v>8100</v>
       </c>
     </row>
     <row r="3754" spans="1:8" x14ac:dyDescent="0.25">
@@ -72070,19 +72076,13 @@
         <v>5</v>
       </c>
       <c r="C3754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3754">
-        <v>5</v>
-      </c>
-      <c r="G3754">
-        <v>10800</v>
-      </c>
-      <c r="H3754" t="s">
-        <v>465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3755" spans="1:8" x14ac:dyDescent="0.25">
@@ -72093,19 +72093,19 @@
         <v>5</v>
       </c>
       <c r="C3755">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3755">
         <v>1</v>
       </c>
       <c r="E3755">
-        <v>3</v>
-      </c>
-      <c r="F3755">
-        <v>12600</v>
+        <v>5</v>
+      </c>
+      <c r="G3755">
+        <v>10800</v>
       </c>
       <c r="H3755" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3756" spans="1:8" x14ac:dyDescent="0.25">
@@ -72113,16 +72113,22 @@
         <v>455</v>
       </c>
       <c r="B3756">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3756">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3756">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3756">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3756">
+        <v>12600</v>
+      </c>
+      <c r="H3756" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="3757" spans="1:8" x14ac:dyDescent="0.25">
@@ -72133,19 +72139,13 @@
         <v>6</v>
       </c>
       <c r="C3757">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3757">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3757">
-        <v>2</v>
-      </c>
-      <c r="F3757">
-        <v>6300</v>
-      </c>
-      <c r="G3757">
-        <v>10800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3758" spans="1:8" x14ac:dyDescent="0.25">
@@ -72153,19 +72153,22 @@
         <v>455</v>
       </c>
       <c r="B3758">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3758">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3758">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3758">
-        <v>0</v>
-      </c>
-      <c r="H3758" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="F3758">
+        <v>6300</v>
+      </c>
+      <c r="G3758">
+        <v>10800</v>
       </c>
     </row>
     <row r="3759" spans="1:8" x14ac:dyDescent="0.25">
@@ -72173,7 +72176,7 @@
         <v>455</v>
       </c>
       <c r="B3759">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3759">
         <v>0</v>
@@ -72183,6 +72186,9 @@
       </c>
       <c r="E3759">
         <v>0</v>
+      </c>
+      <c r="H3759" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3760" spans="1:8" x14ac:dyDescent="0.25">
@@ -72193,16 +72199,13 @@
         <v>8</v>
       </c>
       <c r="C3760">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3760">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3760">
-        <v>3</v>
-      </c>
-      <c r="F3760">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3761" spans="1:8" x14ac:dyDescent="0.25">
@@ -72210,19 +72213,19 @@
         <v>455</v>
       </c>
       <c r="B3761">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3761">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3761">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3761">
-        <v>0</v>
-      </c>
-      <c r="H3761" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="F3761">
+        <v>1800</v>
       </c>
     </row>
     <row r="3762" spans="1:8" x14ac:dyDescent="0.25">
@@ -72230,7 +72233,7 @@
         <v>455</v>
       </c>
       <c r="B3762">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3762">
         <v>0</v>
@@ -72250,7 +72253,7 @@
         <v>455</v>
       </c>
       <c r="B3763">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3763">
         <v>0</v>
@@ -72270,7 +72273,7 @@
         <v>455</v>
       </c>
       <c r="B3764">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3764">
         <v>0</v>
@@ -72293,19 +72296,16 @@
         <v>12</v>
       </c>
       <c r="C3765">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3765">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3765">
-        <v>5</v>
-      </c>
-      <c r="F3765">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="H3765" t="s">
-        <v>465</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3766" spans="1:8" x14ac:dyDescent="0.25">
@@ -72313,19 +72313,22 @@
         <v>455</v>
       </c>
       <c r="B3766">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3766">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3766">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3766">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3766">
+        <v>11700</v>
       </c>
       <c r="H3766" t="s">
-        <v>12</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3767" spans="1:8" x14ac:dyDescent="0.25">
@@ -72333,7 +72336,7 @@
         <v>455</v>
       </c>
       <c r="B3767">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3767">
         <v>0</v>
@@ -72356,19 +72359,16 @@
         <v>14</v>
       </c>
       <c r="C3768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3768">
-        <v>2</v>
-      </c>
-      <c r="F3768">
-        <v>2700</v>
-      </c>
-      <c r="G3768">
-        <v>14400</v>
+        <v>0</v>
+      </c>
+      <c r="H3768" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3769" spans="1:8" x14ac:dyDescent="0.25">
@@ -72376,16 +72376,22 @@
         <v>455</v>
       </c>
       <c r="B3769">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3769">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3769">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3769">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3769">
+        <v>2700</v>
+      </c>
+      <c r="G3769">
+        <v>14400</v>
       </c>
     </row>
     <row r="3770" spans="1:8" x14ac:dyDescent="0.25">
@@ -72396,16 +72402,13 @@
         <v>15</v>
       </c>
       <c r="C3770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3770">
-        <v>1</v>
-      </c>
-      <c r="F3770">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3771" spans="1:8" x14ac:dyDescent="0.25">
@@ -72413,16 +72416,19 @@
         <v>455</v>
       </c>
       <c r="B3771">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3771">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3771">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3771">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F3771">
+        <v>900</v>
       </c>
     </row>
     <row r="3772" spans="1:8" x14ac:dyDescent="0.25">
@@ -72433,16 +72439,13 @@
         <v>16</v>
       </c>
       <c r="C3772">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3772">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3772">
-        <v>5</v>
-      </c>
-      <c r="F3772">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3773" spans="1:8" x14ac:dyDescent="0.25">
@@ -72450,16 +72453,19 @@
         <v>455</v>
       </c>
       <c r="B3773">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3773">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3773">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3773">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F3773">
+        <v>8100</v>
       </c>
     </row>
     <row r="3774" spans="1:8" x14ac:dyDescent="0.25">
@@ -72470,22 +72476,13 @@
         <v>17</v>
       </c>
       <c r="C3774">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3774">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3774">
-        <v>4</v>
-      </c>
-      <c r="F3774">
-        <v>900</v>
-      </c>
-      <c r="G3774">
-        <v>6300</v>
-      </c>
-      <c r="H3774" t="s">
-        <v>356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3775" spans="1:8" x14ac:dyDescent="0.25">
@@ -72496,7 +72493,7 @@
         <v>17</v>
       </c>
       <c r="C3775">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3775">
         <v>1</v>
@@ -72505,7 +72502,13 @@
         <v>4</v>
       </c>
       <c r="F3775">
+        <v>900</v>
+      </c>
+      <c r="G3775">
         <v>6300</v>
+      </c>
+      <c r="H3775" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="3776" spans="1:8" x14ac:dyDescent="0.25">
@@ -72516,19 +72519,16 @@
         <v>17</v>
       </c>
       <c r="C3776">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3776">
         <v>1</v>
       </c>
       <c r="E3776">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3776">
         <v>6300</v>
-      </c>
-      <c r="G3776">
-        <v>13500</v>
       </c>
     </row>
     <row r="3777" spans="1:8" x14ac:dyDescent="0.25">
@@ -72536,16 +72536,22 @@
         <v>455</v>
       </c>
       <c r="B3777">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3777">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3777">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3777">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3777">
+        <v>6300</v>
+      </c>
+      <c r="G3777">
+        <v>13500</v>
       </c>
     </row>
     <row r="3778" spans="1:8" x14ac:dyDescent="0.25">
@@ -72556,16 +72562,13 @@
         <v>18</v>
       </c>
       <c r="C3778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3778">
-        <v>4</v>
-      </c>
-      <c r="F3778">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3779" spans="1:8" x14ac:dyDescent="0.25">
@@ -72573,16 +72576,19 @@
         <v>455</v>
       </c>
       <c r="B3779">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3779">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3779">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3779">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3779">
+        <v>1800</v>
       </c>
     </row>
     <row r="3780" spans="1:8" x14ac:dyDescent="0.25">
@@ -72593,16 +72599,13 @@
         <v>19</v>
       </c>
       <c r="C3780">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3780">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3780">
-        <v>2</v>
-      </c>
-      <c r="F3780">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3781" spans="1:8" x14ac:dyDescent="0.25">
@@ -72613,16 +72616,16 @@
         <v>19</v>
       </c>
       <c r="C3781">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3781">
         <v>1</v>
       </c>
       <c r="E3781">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3781">
-        <v>12600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="3782" spans="1:8" x14ac:dyDescent="0.25">
@@ -72630,16 +72633,19 @@
         <v>455</v>
       </c>
       <c r="B3782">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3782">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3782">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3782">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3782">
+        <v>12600</v>
       </c>
     </row>
     <row r="3783" spans="1:8" x14ac:dyDescent="0.25">
@@ -72650,19 +72656,13 @@
         <v>20</v>
       </c>
       <c r="C3783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3783">
-        <v>3</v>
-      </c>
-      <c r="F3783">
-        <v>5400</v>
-      </c>
-      <c r="H3783" t="s">
-        <v>461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3784" spans="1:8" x14ac:dyDescent="0.25">
@@ -72670,16 +72670,22 @@
         <v>455</v>
       </c>
       <c r="B3784">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3784">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3784">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3784">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3784">
+        <v>5400</v>
+      </c>
+      <c r="H3784" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="3785" spans="1:8" x14ac:dyDescent="0.25">
@@ -72690,13 +72696,13 @@
         <v>21</v>
       </c>
       <c r="C3785">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3785">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3786" spans="1:8" x14ac:dyDescent="0.25">
@@ -72704,16 +72710,16 @@
         <v>455</v>
       </c>
       <c r="B3786">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3786">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3786">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3787" spans="1:8" x14ac:dyDescent="0.25">
@@ -72724,19 +72730,13 @@
         <v>22</v>
       </c>
       <c r="C3787">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3787">
         <v>0</v>
       </c>
       <c r="E3787">
-        <v>4</v>
-      </c>
-      <c r="G3787">
-        <v>10800</v>
-      </c>
-      <c r="H3787" t="s">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3788" spans="1:8" x14ac:dyDescent="0.25">
@@ -72744,16 +72744,22 @@
         <v>455</v>
       </c>
       <c r="B3788">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3788">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3788">
         <v>0</v>
       </c>
       <c r="E3788">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3788">
+        <v>10800</v>
+      </c>
+      <c r="H3788" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="3789" spans="1:8" x14ac:dyDescent="0.25">
@@ -72764,19 +72770,13 @@
         <v>23</v>
       </c>
       <c r="C3789">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3789">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3789">
-        <v>4</v>
-      </c>
-      <c r="F3789">
-        <v>1800</v>
-      </c>
-      <c r="G3789">
-        <v>4500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3790" spans="1:8" x14ac:dyDescent="0.25">
@@ -72784,16 +72784,22 @@
         <v>455</v>
       </c>
       <c r="B3790">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3790">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3790">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3790">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3790">
+        <v>1800</v>
+      </c>
+      <c r="G3790">
+        <v>4500</v>
       </c>
     </row>
     <row r="3791" spans="1:8" x14ac:dyDescent="0.25">
@@ -72804,22 +72810,13 @@
         <v>24</v>
       </c>
       <c r="C3791">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3791">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3791">
-        <v>5</v>
-      </c>
-      <c r="F3791">
-        <v>900</v>
-      </c>
-      <c r="G3791">
-        <v>6300</v>
-      </c>
-      <c r="H3791" t="s">
-        <v>462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3792" spans="1:8" x14ac:dyDescent="0.25">
@@ -72830,19 +72827,22 @@
         <v>24</v>
       </c>
       <c r="C3792">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3792">
         <v>1</v>
       </c>
       <c r="E3792">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3792">
-        <v>4500</v>
+        <v>900</v>
       </c>
       <c r="G3792">
-        <v>7200</v>
+        <v>6300</v>
+      </c>
+      <c r="H3792" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="3793" spans="1:8" x14ac:dyDescent="0.25">
@@ -72850,19 +72850,22 @@
         <v>455</v>
       </c>
       <c r="B3793">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3793">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3793">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3793">
-        <v>0</v>
-      </c>
-      <c r="H3793" t="s">
-        <v>456</v>
+        <v>4</v>
+      </c>
+      <c r="F3793">
+        <v>4500</v>
+      </c>
+      <c r="G3793">
+        <v>7200</v>
       </c>
     </row>
     <row r="3794" spans="1:8" x14ac:dyDescent="0.25">
@@ -72870,7 +72873,7 @@
         <v>455</v>
       </c>
       <c r="B3794">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3794">
         <v>0</v>
@@ -72890,7 +72893,7 @@
         <v>455</v>
       </c>
       <c r="B3795">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3795">
         <v>0</v>
@@ -72910,7 +72913,7 @@
         <v>455</v>
       </c>
       <c r="B3796">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3796">
         <v>0</v>
@@ -72920,6 +72923,9 @@
       </c>
       <c r="E3796">
         <v>0</v>
+      </c>
+      <c r="H3796" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3797" spans="1:8" x14ac:dyDescent="0.25">
@@ -72930,16 +72936,13 @@
         <v>28</v>
       </c>
       <c r="C3797">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3797">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3797">
-        <v>3</v>
-      </c>
-      <c r="H3797" t="s">
-        <v>463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3798" spans="1:8" x14ac:dyDescent="0.25">
@@ -72947,16 +72950,19 @@
         <v>455</v>
       </c>
       <c r="B3798">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3798">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3798">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3798">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H3798" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="3799" spans="1:8" x14ac:dyDescent="0.25">
@@ -72967,19 +72973,13 @@
         <v>29</v>
       </c>
       <c r="C3799">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3799">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3799">
-        <v>3</v>
-      </c>
-      <c r="F3799">
-        <v>900</v>
-      </c>
-      <c r="G3799">
-        <v>13500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3800" spans="1:8" x14ac:dyDescent="0.25">
@@ -72987,16 +72987,22 @@
         <v>455</v>
       </c>
       <c r="B3800">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3800">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3800">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3800">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3800">
+        <v>900</v>
+      </c>
+      <c r="G3800">
+        <v>13500</v>
       </c>
     </row>
     <row r="3801" spans="1:8" x14ac:dyDescent="0.25">
@@ -73007,13 +73013,13 @@
         <v>30</v>
       </c>
       <c r="C3801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3801">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3802" spans="1:8" x14ac:dyDescent="0.25">
@@ -73021,16 +73027,16 @@
         <v>455</v>
       </c>
       <c r="B3802">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3802">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3802">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3802">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3803" spans="1:8" x14ac:dyDescent="0.25">
@@ -73041,16 +73047,13 @@
         <v>31</v>
       </c>
       <c r="C3803">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3803">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3803">
-        <v>3</v>
-      </c>
-      <c r="F3803">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3804" spans="1:8" x14ac:dyDescent="0.25">
@@ -73058,16 +73061,19 @@
         <v>455</v>
       </c>
       <c r="B3804">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3804">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3804">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3804">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3804">
+        <v>7200</v>
       </c>
     </row>
     <row r="3805" spans="1:8" x14ac:dyDescent="0.25">
@@ -73078,19 +73084,13 @@
         <v>32</v>
       </c>
       <c r="C3805">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3805">
         <v>0</v>
       </c>
       <c r="E3805">
-        <v>2</v>
-      </c>
-      <c r="F3805">
-        <v>2700</v>
-      </c>
-      <c r="G3805">
-        <v>6300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3806" spans="1:8" x14ac:dyDescent="0.25">
@@ -73101,10 +73101,10 @@
         <v>32</v>
       </c>
       <c r="C3806">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3806">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3806">
         <v>2</v>
@@ -73113,7 +73113,7 @@
         <v>2700</v>
       </c>
       <c r="G3806">
-        <v>4500</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="3807" spans="1:8" x14ac:dyDescent="0.25">
@@ -73121,19 +73121,22 @@
         <v>455</v>
       </c>
       <c r="B3807">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3807">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3807">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3807">
-        <v>0</v>
-      </c>
-      <c r="H3807" t="s">
-        <v>456</v>
+        <v>2</v>
+      </c>
+      <c r="F3807">
+        <v>2700</v>
+      </c>
+      <c r="G3807">
+        <v>4500</v>
       </c>
     </row>
     <row r="3808" spans="1:8" x14ac:dyDescent="0.25">
@@ -73141,7 +73144,7 @@
         <v>455</v>
       </c>
       <c r="B3808">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3808">
         <v>0</v>
@@ -73161,7 +73164,7 @@
         <v>455</v>
       </c>
       <c r="B3809">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3809">
         <v>0</v>
@@ -73171,6 +73174,9 @@
       </c>
       <c r="E3809">
         <v>0</v>
+      </c>
+      <c r="H3809" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3810" spans="1:8" x14ac:dyDescent="0.25">
@@ -73181,19 +73187,13 @@
         <v>35</v>
       </c>
       <c r="C3810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3810">
         <v>0</v>
       </c>
       <c r="E3810">
-        <v>4</v>
-      </c>
-      <c r="F3810">
-        <v>900</v>
-      </c>
-      <c r="H3810" t="s">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3811" spans="1:8" x14ac:dyDescent="0.25">
@@ -73201,19 +73201,22 @@
         <v>455</v>
       </c>
       <c r="B3811">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3811">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3811">
         <v>0</v>
       </c>
       <c r="E3811">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3811">
+        <v>900</v>
       </c>
       <c r="H3811" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3812" spans="1:8" x14ac:dyDescent="0.25">
@@ -73221,7 +73224,7 @@
         <v>455</v>
       </c>
       <c r="B3812">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3812">
         <v>0</v>
@@ -73231,6 +73234,9 @@
       </c>
       <c r="E3812">
         <v>0</v>
+      </c>
+      <c r="H3812" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3813" spans="1:8" x14ac:dyDescent="0.25">
@@ -73241,19 +73247,13 @@
         <v>37</v>
       </c>
       <c r="C3813">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3813">
         <v>0</v>
       </c>
       <c r="E3813">
-        <v>4</v>
-      </c>
-      <c r="F3813">
-        <v>7200</v>
-      </c>
-      <c r="H3813" t="s">
-        <v>458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3814" spans="1:8" x14ac:dyDescent="0.25">
@@ -73261,16 +73261,22 @@
         <v>455</v>
       </c>
       <c r="B3814">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3814">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3814">
         <v>0</v>
       </c>
       <c r="E3814">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3814">
+        <v>7200</v>
+      </c>
+      <c r="H3814" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="3815" spans="1:8" x14ac:dyDescent="0.25">
@@ -73281,16 +73287,13 @@
         <v>38</v>
       </c>
       <c r="C3815">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3815">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3815">
-        <v>3</v>
-      </c>
-      <c r="F3815">
-        <v>11700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3816" spans="1:8" x14ac:dyDescent="0.25">
@@ -73298,19 +73301,19 @@
         <v>455</v>
       </c>
       <c r="B3816">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3816">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3816">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3816">
-        <v>0</v>
-      </c>
-      <c r="H3816" t="s">
-        <v>456</v>
+        <v>3</v>
+      </c>
+      <c r="F3816">
+        <v>11700</v>
       </c>
     </row>
     <row r="3817" spans="1:8" x14ac:dyDescent="0.25">
@@ -73318,7 +73321,7 @@
         <v>455</v>
       </c>
       <c r="B3817">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3817">
         <v>0</v>
@@ -73338,7 +73341,7 @@
         <v>455</v>
       </c>
       <c r="B3818">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3818">
         <v>0</v>
@@ -73358,7 +73361,7 @@
         <v>455</v>
       </c>
       <c r="B3819">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3819">
         <v>0</v>
@@ -73368,6 +73371,9 @@
       </c>
       <c r="E3819">
         <v>0</v>
+      </c>
+      <c r="H3819" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3820" spans="1:8" x14ac:dyDescent="0.25">
@@ -73378,19 +73384,13 @@
         <v>42</v>
       </c>
       <c r="C3820">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3820">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3820">
-        <v>3</v>
-      </c>
-      <c r="F3820">
-        <v>2700</v>
-      </c>
-      <c r="G3820">
-        <v>9900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3821" spans="1:8" x14ac:dyDescent="0.25">
@@ -73398,19 +73398,22 @@
         <v>455</v>
       </c>
       <c r="B3821">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3821">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3821">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3821">
-        <v>0</v>
-      </c>
-      <c r="H3821" t="s">
-        <v>456</v>
+        <v>3</v>
+      </c>
+      <c r="F3821">
+        <v>2700</v>
+      </c>
+      <c r="G3821">
+        <v>9900</v>
       </c>
     </row>
     <row r="3822" spans="1:8" x14ac:dyDescent="0.25">
@@ -73418,7 +73421,7 @@
         <v>455</v>
       </c>
       <c r="B3822">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3822">
         <v>0</v>
@@ -73438,7 +73441,7 @@
         <v>455</v>
       </c>
       <c r="B3823">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3823">
         <v>0</v>
@@ -73448,6 +73451,9 @@
       </c>
       <c r="E3823">
         <v>0</v>
+      </c>
+      <c r="H3823" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3824" spans="1:8" x14ac:dyDescent="0.25">
@@ -73458,19 +73464,13 @@
         <v>45</v>
       </c>
       <c r="C3824">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3824">
         <v>0</v>
       </c>
       <c r="E3824">
-        <v>2</v>
-      </c>
-      <c r="F3824">
-        <v>12600</v>
-      </c>
-      <c r="H3824" t="s">
-        <v>459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3825" spans="1:8" x14ac:dyDescent="0.25">
@@ -73478,16 +73478,22 @@
         <v>455</v>
       </c>
       <c r="B3825">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3825">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3825">
         <v>0</v>
       </c>
       <c r="E3825">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3825">
+        <v>12600</v>
+      </c>
+      <c r="H3825" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="3826" spans="1:8" x14ac:dyDescent="0.25">
@@ -73498,19 +73504,13 @@
         <v>46</v>
       </c>
       <c r="C3826">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3826">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3826">
-        <v>4</v>
-      </c>
-      <c r="G3826">
-        <v>3600</v>
-      </c>
-      <c r="H3826" t="s">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3827" spans="1:8" x14ac:dyDescent="0.25">
@@ -73521,22 +73521,19 @@
         <v>46</v>
       </c>
       <c r="C3827">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3827">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3827">
-        <v>2</v>
-      </c>
-      <c r="F3827">
-        <v>9900</v>
+        <v>4</v>
       </c>
       <c r="G3827">
-        <v>15300</v>
+        <v>3600</v>
       </c>
       <c r="H3827" t="s">
-        <v>339</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3828" spans="1:8" x14ac:dyDescent="0.25">
@@ -73544,19 +73541,25 @@
         <v>455</v>
       </c>
       <c r="B3828">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3828">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3828">
         <v>0</v>
       </c>
       <c r="E3828">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F3828">
+        <v>9900</v>
+      </c>
+      <c r="G3828">
+        <v>15300</v>
       </c>
       <c r="H3828" t="s">
-        <v>456</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3829" spans="1:8" x14ac:dyDescent="0.25">
@@ -73564,7 +73567,7 @@
         <v>455</v>
       </c>
       <c r="B3829">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3829">
         <v>0</v>
@@ -73584,7 +73587,7 @@
         <v>455</v>
       </c>
       <c r="B3830">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3830">
         <v>0</v>
@@ -73604,7 +73607,7 @@
         <v>455</v>
       </c>
       <c r="B3831">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3831">
         <v>0</v>
@@ -73624,7 +73627,7 @@
         <v>455</v>
       </c>
       <c r="B3832">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3832">
         <v>0</v>
@@ -73634,6 +73637,9 @@
       </c>
       <c r="E3832">
         <v>0</v>
+      </c>
+      <c r="H3832" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3833" spans="1:8" x14ac:dyDescent="0.25">
@@ -73644,22 +73650,13 @@
         <v>51</v>
       </c>
       <c r="C3833">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3833">
         <v>0</v>
       </c>
       <c r="E3833">
-        <v>4</v>
-      </c>
-      <c r="F3833">
-        <v>4500</v>
-      </c>
-      <c r="G3833">
-        <v>9900</v>
-      </c>
-      <c r="H3833" t="s">
-        <v>414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3834" spans="1:8" x14ac:dyDescent="0.25">
@@ -73667,16 +73664,25 @@
         <v>455</v>
       </c>
       <c r="B3834">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3834">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3834">
         <v>0</v>
       </c>
       <c r="E3834">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F3834">
+        <v>4500</v>
+      </c>
+      <c r="G3834">
+        <v>9900</v>
+      </c>
+      <c r="H3834" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="3835" spans="1:8" x14ac:dyDescent="0.25">
@@ -73687,19 +73693,13 @@
         <v>52</v>
       </c>
       <c r="C3835">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3835">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3835">
-        <v>4</v>
-      </c>
-      <c r="F3835">
-        <v>900</v>
-      </c>
-      <c r="G3835">
-        <v>7200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3836" spans="1:8" x14ac:dyDescent="0.25">
@@ -73707,19 +73707,22 @@
         <v>455</v>
       </c>
       <c r="B3836">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3836">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3836">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3836">
-        <v>0</v>
-      </c>
-      <c r="H3836" t="s">
-        <v>456</v>
+        <v>4</v>
+      </c>
+      <c r="F3836">
+        <v>900</v>
+      </c>
+      <c r="G3836">
+        <v>7200</v>
       </c>
     </row>
     <row r="3837" spans="1:8" x14ac:dyDescent="0.25">
@@ -73727,7 +73730,7 @@
         <v>455</v>
       </c>
       <c r="B3837">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3837">
         <v>0</v>
@@ -73737,6 +73740,9 @@
       </c>
       <c r="E3837">
         <v>0</v>
+      </c>
+      <c r="H3837" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3838" spans="1:8" x14ac:dyDescent="0.25">
@@ -73747,16 +73753,13 @@
         <v>54</v>
       </c>
       <c r="C3838">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3838">
         <v>0</v>
       </c>
       <c r="E3838">
-        <v>4</v>
-      </c>
-      <c r="G3838">
-        <v>9900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3839" spans="1:8" x14ac:dyDescent="0.25">
@@ -73767,19 +73770,16 @@
         <v>54</v>
       </c>
       <c r="C3839">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3839">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3839">
-        <v>3</v>
-      </c>
-      <c r="F3839">
+        <v>4</v>
+      </c>
+      <c r="G3839">
         <v>9900</v>
-      </c>
-      <c r="G3839">
-        <v>12600</v>
       </c>
     </row>
     <row r="3840" spans="1:8" x14ac:dyDescent="0.25">
@@ -73787,16 +73787,22 @@
         <v>455</v>
       </c>
       <c r="B3840">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3840">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3840">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3840">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3840">
+        <v>9900</v>
+      </c>
+      <c r="G3840">
+        <v>12600</v>
       </c>
     </row>
     <row r="3841" spans="1:8" x14ac:dyDescent="0.25">
@@ -73807,19 +73813,13 @@
         <v>55</v>
       </c>
       <c r="C3841">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3841">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3841">
-        <v>3</v>
-      </c>
-      <c r="G3841">
-        <v>13500</v>
-      </c>
-      <c r="H3841" t="s">
-        <v>457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3842" spans="1:8" x14ac:dyDescent="0.25">
@@ -73830,16 +73830,19 @@
         <v>55</v>
       </c>
       <c r="C3842">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3842">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3842">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G3842">
+        <v>13500</v>
       </c>
       <c r="H3842" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3843" spans="1:8" x14ac:dyDescent="0.25">
@@ -73847,19 +73850,19 @@
         <v>455</v>
       </c>
       <c r="B3843">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3843">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3843">
         <v>0</v>
       </c>
       <c r="E3843">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3843" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3844" spans="1:8" x14ac:dyDescent="0.25">
@@ -73867,7 +73870,7 @@
         <v>455</v>
       </c>
       <c r="B3844">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3844">
         <v>0</v>
@@ -73877,6 +73880,9 @@
       </c>
       <c r="E3844">
         <v>0</v>
+      </c>
+      <c r="H3844" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3845" spans="1:8" x14ac:dyDescent="0.25">
@@ -73887,19 +73893,13 @@
         <v>57</v>
       </c>
       <c r="C3845">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3845">
         <v>0</v>
       </c>
       <c r="E3845">
-        <v>4</v>
-      </c>
-      <c r="G3845">
-        <v>4500</v>
-      </c>
-      <c r="H3845" t="s">
-        <v>394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3846" spans="1:8" x14ac:dyDescent="0.25">
@@ -73907,19 +73907,22 @@
         <v>455</v>
       </c>
       <c r="B3846">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3846">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3846">
         <v>0</v>
       </c>
       <c r="E3846">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G3846">
+        <v>4500</v>
       </c>
       <c r="H3846" t="s">
-        <v>456</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3847" spans="1:8" x14ac:dyDescent="0.25">
@@ -73927,7 +73930,7 @@
         <v>455</v>
       </c>
       <c r="B3847">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3847">
         <v>0</v>
@@ -73937,6 +73940,9 @@
       </c>
       <c r="E3847">
         <v>0</v>
+      </c>
+      <c r="H3847" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3848" spans="1:8" x14ac:dyDescent="0.25">
@@ -73947,16 +73953,13 @@
         <v>59</v>
       </c>
       <c r="C3848">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3848">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3848">
-        <v>4</v>
-      </c>
-      <c r="F3848">
-        <v>3600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3849" spans="1:8" x14ac:dyDescent="0.25">
@@ -73964,19 +73967,19 @@
         <v>455</v>
       </c>
       <c r="B3849">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3849">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3849">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3849">
-        <v>0</v>
-      </c>
-      <c r="H3849" t="s">
-        <v>456</v>
+        <v>4</v>
+      </c>
+      <c r="F3849">
+        <v>3600</v>
       </c>
     </row>
     <row r="3850" spans="1:8" x14ac:dyDescent="0.25">
@@ -73984,7 +73987,7 @@
         <v>455</v>
       </c>
       <c r="B3850">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3850">
         <v>0</v>
@@ -73994,6 +73997,9 @@
       </c>
       <c r="E3850">
         <v>0</v>
+      </c>
+      <c r="H3850" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="3851" spans="1:8" x14ac:dyDescent="0.25">
@@ -74004,22 +74010,13 @@
         <v>61</v>
       </c>
       <c r="C3851">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3851">
         <v>0</v>
       </c>
       <c r="E3851">
-        <v>3</v>
-      </c>
-      <c r="F3851">
-        <v>900</v>
-      </c>
-      <c r="G3851">
-        <v>4500</v>
-      </c>
-      <c r="H3851" t="s">
-        <v>394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3852" spans="1:8" x14ac:dyDescent="0.25">
@@ -74027,16 +74024,25 @@
         <v>455</v>
       </c>
       <c r="B3852">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3852">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3852">
         <v>0</v>
       </c>
       <c r="E3852">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3852">
+        <v>900</v>
+      </c>
+      <c r="G3852">
+        <v>4500</v>
+      </c>
+      <c r="H3852" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="3853" spans="1:8" x14ac:dyDescent="0.25">
@@ -74047,16 +74053,13 @@
         <v>62</v>
       </c>
       <c r="C3853">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3853">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3853">
-        <v>4</v>
-      </c>
-      <c r="G3853">
-        <v>8100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3854" spans="1:8" x14ac:dyDescent="0.25">
@@ -74064,19 +74067,19 @@
         <v>455</v>
       </c>
       <c r="B3854">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3854">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3854">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3854">
-        <v>0</v>
-      </c>
-      <c r="H3854" t="s">
-        <v>456</v>
+        <v>4</v>
+      </c>
+      <c r="G3854">
+        <v>8100</v>
       </c>
     </row>
     <row r="3855" spans="1:8" x14ac:dyDescent="0.25">
@@ -74084,18 +74087,38 @@
         <v>455</v>
       </c>
       <c r="B3855">
+        <v>63</v>
+      </c>
+      <c r="C3855">
+        <v>0</v>
+      </c>
+      <c r="D3855">
+        <v>0</v>
+      </c>
+      <c r="E3855">
+        <v>0</v>
+      </c>
+      <c r="H3855" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3856">
         <v>64</v>
       </c>
-      <c r="C3855">
-        <v>0</v>
-      </c>
-      <c r="D3855">
-        <v>0</v>
-      </c>
-      <c r="E3855">
-        <v>0</v>
-      </c>
-      <c r="H3855" t="s">
+      <c r="C3856">
+        <v>0</v>
+      </c>
+      <c r="D3856">
+        <v>0</v>
+      </c>
+      <c r="E3856">
+        <v>0</v>
+      </c>
+      <c r="H3856" t="s">
         <v>456</v>
       </c>
     </row>

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A29B27B-9152-48CA-8981-5B4BB167CC73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210F25DF-C7F9-4DDD-9F3B-C32B49F61E20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="495" windowWidth="18015" windowHeight="14955" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
+    <workbookView xWindow="135" yWindow="330" windowWidth="18015" windowHeight="14955" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5554" uniqueCount="483">
   <si>
     <t>Session</t>
   </si>
@@ -1431,6 +1431,57 @@
   <si>
     <t>Super sparse</t>
   </si>
+  <si>
+    <t>F20171101</t>
+  </si>
+  <si>
+    <t>May be axon because of early positivity</t>
+  </si>
+  <si>
+    <t>May be axon. Trough to peak duration 175 ms</t>
+  </si>
+  <si>
+    <t>Sharp triphasic, trough to peak duration 100 ms</t>
+  </si>
+  <si>
+    <t>Broad trough or double trough, combined early and late</t>
+  </si>
+  <si>
+    <t>Could be axon, trough to peak duration 175 ms, kinda sharp</t>
+  </si>
+  <si>
+    <t>Sharp triphasic trough to peak duration 150 ms</t>
+  </si>
+  <si>
+    <t>Broad triphasic</t>
+  </si>
+  <si>
+    <t>Kinda triphasic but trough to peak duration is 200 ms and first peak is low</t>
+  </si>
+  <si>
+    <t>Trough to peak duration 160 ms, low amplitude</t>
+  </si>
+  <si>
+    <t>F20171106</t>
+  </si>
+  <si>
+    <t>Double trough, early, left separate from b</t>
+  </si>
+  <si>
+    <t>Double trough, late</t>
+  </si>
+  <si>
+    <t>Short trough to peak duration and slightly triphasic. More likely NS but possibly axon</t>
+  </si>
+  <si>
+    <t>Slightly triphasic but long trough to peak time so more likely NS</t>
+  </si>
+  <si>
+    <t>No clear unit except in first 900 s</t>
+  </si>
+  <si>
+    <t>Biphasic, but too sharp, trough to peak duration 150 ms</t>
+  </si>
 </sst>
 </file>
 
@@ -1793,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
-  <dimension ref="A1:H3856"/>
+  <dimension ref="A1:H4069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3393" workbookViewId="0">
-      <selection activeCell="E3421" sqref="E3421"/>
+    <sheetView tabSelected="1" topLeftCell="A3936" workbookViewId="0">
+      <selection activeCell="A3956" sqref="A3956:A4069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74120,6 +74171,4275 @@
       </c>
       <c r="H3856" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3857">
+        <v>1</v>
+      </c>
+      <c r="C3857">
+        <v>0</v>
+      </c>
+      <c r="D3857">
+        <v>0</v>
+      </c>
+      <c r="E3857">
+        <v>0</v>
+      </c>
+      <c r="H3857" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3858">
+        <v>2</v>
+      </c>
+      <c r="C3858">
+        <v>0</v>
+      </c>
+      <c r="D3858">
+        <v>0</v>
+      </c>
+      <c r="E3858">
+        <v>0</v>
+      </c>
+      <c r="H3858" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3859">
+        <v>3</v>
+      </c>
+      <c r="C3859">
+        <v>0</v>
+      </c>
+      <c r="D3859">
+        <v>0</v>
+      </c>
+      <c r="E3859">
+        <v>0</v>
+      </c>
+      <c r="H3859" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3860">
+        <v>4</v>
+      </c>
+      <c r="C3860">
+        <v>0</v>
+      </c>
+      <c r="D3860">
+        <v>0</v>
+      </c>
+      <c r="E3860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3861">
+        <v>4</v>
+      </c>
+      <c r="C3861">
+        <v>1</v>
+      </c>
+      <c r="D3861">
+        <v>1</v>
+      </c>
+      <c r="E3861">
+        <v>3</v>
+      </c>
+      <c r="G3861">
+        <v>1800</v>
+      </c>
+      <c r="H3861" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3862" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3862">
+        <v>5</v>
+      </c>
+      <c r="C3862">
+        <v>0</v>
+      </c>
+      <c r="D3862">
+        <v>0</v>
+      </c>
+      <c r="E3862">
+        <v>0</v>
+      </c>
+      <c r="H3862" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3863">
+        <v>6</v>
+      </c>
+      <c r="C3863">
+        <v>0</v>
+      </c>
+      <c r="D3863">
+        <v>0</v>
+      </c>
+      <c r="E3863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3864">
+        <v>6</v>
+      </c>
+      <c r="C3864">
+        <v>1</v>
+      </c>
+      <c r="D3864">
+        <v>1</v>
+      </c>
+      <c r="E3864">
+        <v>4</v>
+      </c>
+      <c r="F3864">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3865">
+        <v>6</v>
+      </c>
+      <c r="C3865">
+        <v>2</v>
+      </c>
+      <c r="D3865">
+        <v>1</v>
+      </c>
+      <c r="E3865">
+        <v>5</v>
+      </c>
+      <c r="F3865">
+        <v>900</v>
+      </c>
+      <c r="G3865">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3866">
+        <v>6</v>
+      </c>
+      <c r="C3866">
+        <v>3</v>
+      </c>
+      <c r="D3866">
+        <v>1</v>
+      </c>
+      <c r="E3866">
+        <v>3</v>
+      </c>
+      <c r="F3866">
+        <v>6300</v>
+      </c>
+      <c r="H3866" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3867">
+        <v>7</v>
+      </c>
+      <c r="C3867">
+        <v>0</v>
+      </c>
+      <c r="D3867">
+        <v>0</v>
+      </c>
+      <c r="E3867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3868">
+        <v>7</v>
+      </c>
+      <c r="C3868">
+        <v>1</v>
+      </c>
+      <c r="D3868">
+        <v>1</v>
+      </c>
+      <c r="E3868">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3869">
+        <v>8</v>
+      </c>
+      <c r="C3869">
+        <v>0</v>
+      </c>
+      <c r="D3869">
+        <v>0</v>
+      </c>
+      <c r="E3869">
+        <v>0</v>
+      </c>
+      <c r="H3869" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3870">
+        <v>9</v>
+      </c>
+      <c r="C3870">
+        <v>0</v>
+      </c>
+      <c r="D3870">
+        <v>0</v>
+      </c>
+      <c r="E3870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3871">
+        <v>9</v>
+      </c>
+      <c r="C3871">
+        <v>1</v>
+      </c>
+      <c r="D3871">
+        <v>1</v>
+      </c>
+      <c r="E3871">
+        <v>4</v>
+      </c>
+      <c r="F3871">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3872">
+        <v>10</v>
+      </c>
+      <c r="C3872">
+        <v>0</v>
+      </c>
+      <c r="D3872">
+        <v>0</v>
+      </c>
+      <c r="E3872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3873">
+        <v>10</v>
+      </c>
+      <c r="C3873">
+        <v>1</v>
+      </c>
+      <c r="D3873">
+        <v>1</v>
+      </c>
+      <c r="E3873">
+        <v>2</v>
+      </c>
+      <c r="F3873">
+        <v>9000</v>
+      </c>
+      <c r="H3873" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3874">
+        <v>11</v>
+      </c>
+      <c r="C3874">
+        <v>0</v>
+      </c>
+      <c r="D3874">
+        <v>0</v>
+      </c>
+      <c r="E3874">
+        <v>0</v>
+      </c>
+      <c r="H3874" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3875">
+        <v>12</v>
+      </c>
+      <c r="C3875">
+        <v>0</v>
+      </c>
+      <c r="D3875">
+        <v>0</v>
+      </c>
+      <c r="E3875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3876" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3876">
+        <v>12</v>
+      </c>
+      <c r="C3876">
+        <v>1</v>
+      </c>
+      <c r="D3876">
+        <v>1</v>
+      </c>
+      <c r="E3876">
+        <v>3</v>
+      </c>
+      <c r="F3876">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3877" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3877">
+        <v>13</v>
+      </c>
+      <c r="C3877">
+        <v>0</v>
+      </c>
+      <c r="D3877">
+        <v>0</v>
+      </c>
+      <c r="E3877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3878" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3878">
+        <v>13</v>
+      </c>
+      <c r="C3878">
+        <v>1</v>
+      </c>
+      <c r="D3878">
+        <v>1</v>
+      </c>
+      <c r="E3878">
+        <v>2</v>
+      </c>
+      <c r="F3878">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3879" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3879">
+        <v>14</v>
+      </c>
+      <c r="C3879">
+        <v>0</v>
+      </c>
+      <c r="D3879">
+        <v>0</v>
+      </c>
+      <c r="E3879">
+        <v>0</v>
+      </c>
+      <c r="H3879" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3880" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3880">
+        <v>15</v>
+      </c>
+      <c r="C3880">
+        <v>0</v>
+      </c>
+      <c r="D3880">
+        <v>0</v>
+      </c>
+      <c r="E3880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3881" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3881">
+        <v>15</v>
+      </c>
+      <c r="C3881">
+        <v>1</v>
+      </c>
+      <c r="D3881">
+        <v>1</v>
+      </c>
+      <c r="E3881">
+        <v>3</v>
+      </c>
+      <c r="F3881">
+        <v>900</v>
+      </c>
+      <c r="G3881">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3882" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3882">
+        <v>15</v>
+      </c>
+      <c r="C3882">
+        <v>2</v>
+      </c>
+      <c r="D3882">
+        <v>1</v>
+      </c>
+      <c r="E3882">
+        <v>1</v>
+      </c>
+      <c r="F3882">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3883" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3883">
+        <v>16</v>
+      </c>
+      <c r="C3883">
+        <v>0</v>
+      </c>
+      <c r="D3883">
+        <v>0</v>
+      </c>
+      <c r="E3883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3884" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3884">
+        <v>16</v>
+      </c>
+      <c r="C3884">
+        <v>1</v>
+      </c>
+      <c r="D3884">
+        <v>0</v>
+      </c>
+      <c r="E3884">
+        <v>3</v>
+      </c>
+      <c r="F3884">
+        <v>900</v>
+      </c>
+      <c r="G3884">
+        <v>7200</v>
+      </c>
+      <c r="H3884" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3885" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3885">
+        <v>17</v>
+      </c>
+      <c r="C3885">
+        <v>0</v>
+      </c>
+      <c r="D3885">
+        <v>0</v>
+      </c>
+      <c r="E3885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3886" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3886">
+        <v>17</v>
+      </c>
+      <c r="C3886">
+        <v>1</v>
+      </c>
+      <c r="D3886">
+        <v>1</v>
+      </c>
+      <c r="E3886">
+        <v>3</v>
+      </c>
+      <c r="F3886">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3887" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3887">
+        <v>18</v>
+      </c>
+      <c r="C3887">
+        <v>0</v>
+      </c>
+      <c r="D3887">
+        <v>0</v>
+      </c>
+      <c r="E3887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3888" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3888">
+        <v>18</v>
+      </c>
+      <c r="C3888">
+        <v>1</v>
+      </c>
+      <c r="D3888">
+        <v>0</v>
+      </c>
+      <c r="E3888">
+        <v>5</v>
+      </c>
+      <c r="F3888">
+        <v>900</v>
+      </c>
+      <c r="G3888">
+        <v>4500</v>
+      </c>
+      <c r="H3888" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3889" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3889">
+        <v>19</v>
+      </c>
+      <c r="C3889">
+        <v>0</v>
+      </c>
+      <c r="D3889">
+        <v>0</v>
+      </c>
+      <c r="E3889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3890" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3890">
+        <v>19</v>
+      </c>
+      <c r="C3890">
+        <v>1</v>
+      </c>
+      <c r="D3890">
+        <v>1</v>
+      </c>
+      <c r="E3890">
+        <v>4</v>
+      </c>
+      <c r="F3890">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3891" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3891">
+        <v>19</v>
+      </c>
+      <c r="C3891">
+        <v>2</v>
+      </c>
+      <c r="D3891">
+        <v>1</v>
+      </c>
+      <c r="E3891">
+        <v>3</v>
+      </c>
+      <c r="G3891">
+        <v>9000</v>
+      </c>
+      <c r="H3891" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3892" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3892">
+        <v>20</v>
+      </c>
+      <c r="C3892">
+        <v>0</v>
+      </c>
+      <c r="D3892">
+        <v>0</v>
+      </c>
+      <c r="E3892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3893" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3893">
+        <v>20</v>
+      </c>
+      <c r="C3893">
+        <v>1</v>
+      </c>
+      <c r="D3893">
+        <v>1</v>
+      </c>
+      <c r="E3893">
+        <v>3</v>
+      </c>
+      <c r="F3893">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3894" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3894">
+        <v>21</v>
+      </c>
+      <c r="C3894">
+        <v>0</v>
+      </c>
+      <c r="D3894">
+        <v>0</v>
+      </c>
+      <c r="E3894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3895" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3895">
+        <v>21</v>
+      </c>
+      <c r="C3895">
+        <v>1</v>
+      </c>
+      <c r="D3895">
+        <v>1</v>
+      </c>
+      <c r="E3895">
+        <v>2</v>
+      </c>
+      <c r="F3895">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3896" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3896">
+        <v>22</v>
+      </c>
+      <c r="C3896">
+        <v>0</v>
+      </c>
+      <c r="D3896">
+        <v>0</v>
+      </c>
+      <c r="E3896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3897" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3897">
+        <v>22</v>
+      </c>
+      <c r="C3897">
+        <v>1</v>
+      </c>
+      <c r="D3897">
+        <v>1</v>
+      </c>
+      <c r="E3897">
+        <v>3</v>
+      </c>
+      <c r="F3897">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3898" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3898">
+        <v>23</v>
+      </c>
+      <c r="C3898">
+        <v>0</v>
+      </c>
+      <c r="D3898">
+        <v>0</v>
+      </c>
+      <c r="E3898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3899" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3899">
+        <v>23</v>
+      </c>
+      <c r="C3899">
+        <v>1</v>
+      </c>
+      <c r="D3899">
+        <v>1</v>
+      </c>
+      <c r="E3899">
+        <v>3</v>
+      </c>
+      <c r="F3899">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3900" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3900">
+        <v>24</v>
+      </c>
+      <c r="C3900">
+        <v>0</v>
+      </c>
+      <c r="D3900">
+        <v>0</v>
+      </c>
+      <c r="E3900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3901" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3901">
+        <v>24</v>
+      </c>
+      <c r="C3901">
+        <v>1</v>
+      </c>
+      <c r="D3901">
+        <v>0</v>
+      </c>
+      <c r="E3901">
+        <v>3</v>
+      </c>
+      <c r="F3901">
+        <v>2700</v>
+      </c>
+      <c r="H3901" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3902" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3902">
+        <v>24</v>
+      </c>
+      <c r="C3902">
+        <v>2</v>
+      </c>
+      <c r="D3902">
+        <v>1</v>
+      </c>
+      <c r="E3902">
+        <v>2</v>
+      </c>
+      <c r="F3902">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3903" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3903">
+        <v>25</v>
+      </c>
+      <c r="C3903">
+        <v>0</v>
+      </c>
+      <c r="D3903">
+        <v>0</v>
+      </c>
+      <c r="E3903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3904" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3904">
+        <v>25</v>
+      </c>
+      <c r="C3904">
+        <v>1</v>
+      </c>
+      <c r="D3904">
+        <v>1</v>
+      </c>
+      <c r="E3904">
+        <v>5</v>
+      </c>
+      <c r="F3904">
+        <v>900</v>
+      </c>
+      <c r="H3904" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3905" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3905">
+        <v>26</v>
+      </c>
+      <c r="C3905">
+        <v>0</v>
+      </c>
+      <c r="D3905">
+        <v>0</v>
+      </c>
+      <c r="E3905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3906" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3906">
+        <v>26</v>
+      </c>
+      <c r="C3906">
+        <v>1</v>
+      </c>
+      <c r="D3906">
+        <v>1</v>
+      </c>
+      <c r="E3906">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3907" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3907">
+        <v>27</v>
+      </c>
+      <c r="C3907">
+        <v>0</v>
+      </c>
+      <c r="D3907">
+        <v>0</v>
+      </c>
+      <c r="E3907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3908" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3908">
+        <v>27</v>
+      </c>
+      <c r="C3908">
+        <v>1</v>
+      </c>
+      <c r="D3908">
+        <v>1</v>
+      </c>
+      <c r="E3908">
+        <v>3</v>
+      </c>
+      <c r="F3908">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3909" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3909">
+        <v>28</v>
+      </c>
+      <c r="C3909">
+        <v>0</v>
+      </c>
+      <c r="D3909">
+        <v>0</v>
+      </c>
+      <c r="E3909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3910" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3910">
+        <v>28</v>
+      </c>
+      <c r="C3910">
+        <v>1</v>
+      </c>
+      <c r="D3910">
+        <v>1</v>
+      </c>
+      <c r="E3910">
+        <v>2</v>
+      </c>
+      <c r="F3910">
+        <v>1800</v>
+      </c>
+      <c r="G3910">
+        <v>8100</v>
+      </c>
+      <c r="H3910" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3911" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3911">
+        <v>29</v>
+      </c>
+      <c r="C3911">
+        <v>0</v>
+      </c>
+      <c r="D3911">
+        <v>0</v>
+      </c>
+      <c r="E3911">
+        <v>0</v>
+      </c>
+      <c r="H3911" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3912" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3912">
+        <v>30</v>
+      </c>
+      <c r="C3912">
+        <v>0</v>
+      </c>
+      <c r="D3912">
+        <v>0</v>
+      </c>
+      <c r="E3912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3913" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3913">
+        <v>30</v>
+      </c>
+      <c r="C3913">
+        <v>1</v>
+      </c>
+      <c r="D3913">
+        <v>0</v>
+      </c>
+      <c r="E3913">
+        <v>5</v>
+      </c>
+      <c r="F3913">
+        <v>4500</v>
+      </c>
+      <c r="G3913">
+        <v>13500</v>
+      </c>
+      <c r="H3913" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3914" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3914">
+        <v>31</v>
+      </c>
+      <c r="C3914">
+        <v>0</v>
+      </c>
+      <c r="D3914">
+        <v>0</v>
+      </c>
+      <c r="E3914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3915" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3915">
+        <v>31</v>
+      </c>
+      <c r="C3915">
+        <v>1</v>
+      </c>
+      <c r="D3915">
+        <v>0</v>
+      </c>
+      <c r="E3915">
+        <v>5</v>
+      </c>
+      <c r="H3915" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3916" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3916">
+        <v>32</v>
+      </c>
+      <c r="C3916">
+        <v>0</v>
+      </c>
+      <c r="D3916">
+        <v>0</v>
+      </c>
+      <c r="E3916">
+        <v>0</v>
+      </c>
+      <c r="H3916" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3917" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3917">
+        <v>33</v>
+      </c>
+      <c r="C3917">
+        <v>0</v>
+      </c>
+      <c r="D3917">
+        <v>0</v>
+      </c>
+      <c r="E3917">
+        <v>0</v>
+      </c>
+      <c r="H3917" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3918" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3918">
+        <v>34</v>
+      </c>
+      <c r="C3918">
+        <v>0</v>
+      </c>
+      <c r="D3918">
+        <v>0</v>
+      </c>
+      <c r="E3918">
+        <v>0</v>
+      </c>
+      <c r="H3918" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3919" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3919">
+        <v>35</v>
+      </c>
+      <c r="C3919">
+        <v>0</v>
+      </c>
+      <c r="D3919">
+        <v>0</v>
+      </c>
+      <c r="E3919">
+        <v>0</v>
+      </c>
+      <c r="H3919" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3920" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3920">
+        <v>36</v>
+      </c>
+      <c r="C3920">
+        <v>0</v>
+      </c>
+      <c r="D3920">
+        <v>0</v>
+      </c>
+      <c r="E3920">
+        <v>0</v>
+      </c>
+      <c r="H3920" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3921" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3921">
+        <v>37</v>
+      </c>
+      <c r="C3921">
+        <v>0</v>
+      </c>
+      <c r="D3921">
+        <v>0</v>
+      </c>
+      <c r="E3921">
+        <v>0</v>
+      </c>
+      <c r="H3921" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3922" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3922">
+        <v>37</v>
+      </c>
+      <c r="C3922">
+        <v>1</v>
+      </c>
+      <c r="D3922">
+        <v>0</v>
+      </c>
+      <c r="E3922">
+        <v>3</v>
+      </c>
+      <c r="F3922">
+        <v>900</v>
+      </c>
+      <c r="H3922" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3923" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3923">
+        <v>38</v>
+      </c>
+      <c r="C3923">
+        <v>0</v>
+      </c>
+      <c r="D3923">
+        <v>0</v>
+      </c>
+      <c r="E3923">
+        <v>0</v>
+      </c>
+      <c r="H3923" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3924" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3924">
+        <v>39</v>
+      </c>
+      <c r="C3924">
+        <v>0</v>
+      </c>
+      <c r="D3924">
+        <v>0</v>
+      </c>
+      <c r="E3924">
+        <v>0</v>
+      </c>
+      <c r="H3924" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3925" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3925">
+        <v>40</v>
+      </c>
+      <c r="C3925">
+        <v>0</v>
+      </c>
+      <c r="D3925">
+        <v>0</v>
+      </c>
+      <c r="E3925">
+        <v>0</v>
+      </c>
+      <c r="H3925" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3926" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3926">
+        <v>41</v>
+      </c>
+      <c r="C3926">
+        <v>0</v>
+      </c>
+      <c r="D3926">
+        <v>0</v>
+      </c>
+      <c r="E3926">
+        <v>0</v>
+      </c>
+      <c r="H3926" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3927" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3927">
+        <v>42</v>
+      </c>
+      <c r="C3927">
+        <v>0</v>
+      </c>
+      <c r="D3927">
+        <v>0</v>
+      </c>
+      <c r="E3927">
+        <v>0</v>
+      </c>
+      <c r="H3927" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3928" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3928">
+        <v>43</v>
+      </c>
+      <c r="C3928">
+        <v>0</v>
+      </c>
+      <c r="D3928">
+        <v>0</v>
+      </c>
+      <c r="E3928">
+        <v>0</v>
+      </c>
+      <c r="H3928" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3929" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3929">
+        <v>44</v>
+      </c>
+      <c r="C3929">
+        <v>0</v>
+      </c>
+      <c r="D3929">
+        <v>0</v>
+      </c>
+      <c r="E3929">
+        <v>0</v>
+      </c>
+      <c r="H3929" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3930" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3930">
+        <v>45</v>
+      </c>
+      <c r="C3930">
+        <v>0</v>
+      </c>
+      <c r="D3930">
+        <v>0</v>
+      </c>
+      <c r="E3930">
+        <v>0</v>
+      </c>
+      <c r="H3930" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3931" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3931">
+        <v>46</v>
+      </c>
+      <c r="C3931">
+        <v>0</v>
+      </c>
+      <c r="D3931">
+        <v>0</v>
+      </c>
+      <c r="E3931">
+        <v>0</v>
+      </c>
+      <c r="H3931" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3932" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3932">
+        <v>47</v>
+      </c>
+      <c r="C3932">
+        <v>0</v>
+      </c>
+      <c r="D3932">
+        <v>0</v>
+      </c>
+      <c r="E3932">
+        <v>0</v>
+      </c>
+      <c r="H3932" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3933" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3933">
+        <v>47</v>
+      </c>
+      <c r="C3933">
+        <v>1</v>
+      </c>
+      <c r="D3933">
+        <v>1</v>
+      </c>
+      <c r="E3933">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3934" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3934">
+        <v>48</v>
+      </c>
+      <c r="C3934">
+        <v>0</v>
+      </c>
+      <c r="D3934">
+        <v>0</v>
+      </c>
+      <c r="E3934">
+        <v>0</v>
+      </c>
+      <c r="H3934" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3935" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3935">
+        <v>49</v>
+      </c>
+      <c r="C3935">
+        <v>0</v>
+      </c>
+      <c r="D3935">
+        <v>0</v>
+      </c>
+      <c r="E3935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3936" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3936">
+        <v>49</v>
+      </c>
+      <c r="C3936">
+        <v>1</v>
+      </c>
+      <c r="D3936">
+        <v>1</v>
+      </c>
+      <c r="E3936">
+        <v>3</v>
+      </c>
+      <c r="F3936">
+        <v>2700</v>
+      </c>
+      <c r="H3936" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3937" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3937">
+        <v>50</v>
+      </c>
+      <c r="C3937">
+        <v>0</v>
+      </c>
+      <c r="D3937">
+        <v>0</v>
+      </c>
+      <c r="E3937">
+        <v>0</v>
+      </c>
+      <c r="H3937" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3938" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3938">
+        <v>51</v>
+      </c>
+      <c r="C3938">
+        <v>0</v>
+      </c>
+      <c r="D3938">
+        <v>0</v>
+      </c>
+      <c r="E3938">
+        <v>0</v>
+      </c>
+      <c r="H3938" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3939" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3939">
+        <v>52</v>
+      </c>
+      <c r="C3939">
+        <v>0</v>
+      </c>
+      <c r="D3939">
+        <v>0</v>
+      </c>
+      <c r="E3939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3940" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3940">
+        <v>53</v>
+      </c>
+      <c r="C3940">
+        <v>0</v>
+      </c>
+      <c r="D3940">
+        <v>0</v>
+      </c>
+      <c r="E3940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3941" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3941">
+        <v>53</v>
+      </c>
+      <c r="C3941">
+        <v>1</v>
+      </c>
+      <c r="D3941">
+        <v>0</v>
+      </c>
+      <c r="E3941">
+        <v>2</v>
+      </c>
+      <c r="F3941">
+        <v>7200</v>
+      </c>
+      <c r="H3941" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3942" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3942">
+        <v>54</v>
+      </c>
+      <c r="C3942">
+        <v>0</v>
+      </c>
+      <c r="D3942">
+        <v>0</v>
+      </c>
+      <c r="E3942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3943" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3943">
+        <v>54</v>
+      </c>
+      <c r="C3943">
+        <v>1</v>
+      </c>
+      <c r="D3943">
+        <v>1</v>
+      </c>
+      <c r="E3943">
+        <v>4</v>
+      </c>
+      <c r="F3943">
+        <v>11700</v>
+      </c>
+      <c r="H3943" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3944" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3944">
+        <v>55</v>
+      </c>
+      <c r="C3944">
+        <v>0</v>
+      </c>
+      <c r="D3944">
+        <v>0</v>
+      </c>
+      <c r="E3944">
+        <v>0</v>
+      </c>
+      <c r="H3944" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3945" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3945">
+        <v>56</v>
+      </c>
+      <c r="C3945">
+        <v>0</v>
+      </c>
+      <c r="D3945">
+        <v>0</v>
+      </c>
+      <c r="E3945">
+        <v>0</v>
+      </c>
+      <c r="H3945" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3946" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3946">
+        <v>57</v>
+      </c>
+      <c r="C3946">
+        <v>0</v>
+      </c>
+      <c r="D3946">
+        <v>0</v>
+      </c>
+      <c r="E3946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3947" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3947">
+        <v>57</v>
+      </c>
+      <c r="C3947">
+        <v>1</v>
+      </c>
+      <c r="D3947">
+        <v>1</v>
+      </c>
+      <c r="E3947">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3948" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3948">
+        <v>58</v>
+      </c>
+      <c r="C3948">
+        <v>0</v>
+      </c>
+      <c r="D3948">
+        <v>0</v>
+      </c>
+      <c r="E3948">
+        <v>0</v>
+      </c>
+      <c r="H3948" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3949" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3949">
+        <v>59</v>
+      </c>
+      <c r="C3949">
+        <v>0</v>
+      </c>
+      <c r="D3949">
+        <v>0</v>
+      </c>
+      <c r="E3949">
+        <v>0</v>
+      </c>
+      <c r="H3949" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3950" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3950">
+        <v>60</v>
+      </c>
+      <c r="C3950">
+        <v>0</v>
+      </c>
+      <c r="D3950">
+        <v>0</v>
+      </c>
+      <c r="E3950">
+        <v>0</v>
+      </c>
+      <c r="H3950" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3951" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3951">
+        <v>61</v>
+      </c>
+      <c r="C3951">
+        <v>0</v>
+      </c>
+      <c r="D3951">
+        <v>0</v>
+      </c>
+      <c r="E3951">
+        <v>0</v>
+      </c>
+      <c r="H3951" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3952" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3952">
+        <v>62</v>
+      </c>
+      <c r="C3952">
+        <v>0</v>
+      </c>
+      <c r="D3952">
+        <v>0</v>
+      </c>
+      <c r="E3952">
+        <v>0</v>
+      </c>
+      <c r="H3952" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3953" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3953">
+        <v>63</v>
+      </c>
+      <c r="C3953">
+        <v>0</v>
+      </c>
+      <c r="D3953">
+        <v>0</v>
+      </c>
+      <c r="E3953">
+        <v>0</v>
+      </c>
+      <c r="H3953" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3954" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3954">
+        <v>64</v>
+      </c>
+      <c r="C3954">
+        <v>0</v>
+      </c>
+      <c r="D3954">
+        <v>0</v>
+      </c>
+      <c r="E3954">
+        <v>0</v>
+      </c>
+      <c r="H3954" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3955" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3955">
+        <v>64</v>
+      </c>
+      <c r="C3955">
+        <v>1</v>
+      </c>
+      <c r="D3955">
+        <v>1</v>
+      </c>
+      <c r="E3955">
+        <v>3</v>
+      </c>
+      <c r="F3955">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3956" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3956">
+        <v>1</v>
+      </c>
+      <c r="C3956">
+        <v>0</v>
+      </c>
+      <c r="D3956">
+        <v>0</v>
+      </c>
+      <c r="E3956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3957" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3957">
+        <v>1</v>
+      </c>
+      <c r="C3957">
+        <v>1</v>
+      </c>
+      <c r="D3957">
+        <v>0</v>
+      </c>
+      <c r="E3957">
+        <v>2</v>
+      </c>
+      <c r="F3957">
+        <v>12600</v>
+      </c>
+      <c r="H3957" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3958" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3958">
+        <v>2</v>
+      </c>
+      <c r="C3958">
+        <v>0</v>
+      </c>
+      <c r="D3958">
+        <v>0</v>
+      </c>
+      <c r="E3958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3959" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3959">
+        <v>2</v>
+      </c>
+      <c r="C3959">
+        <v>1</v>
+      </c>
+      <c r="D3959">
+        <v>0</v>
+      </c>
+      <c r="E3959">
+        <v>4</v>
+      </c>
+      <c r="F3959">
+        <v>1800</v>
+      </c>
+      <c r="H3959" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3960" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3960">
+        <v>3</v>
+      </c>
+      <c r="C3960">
+        <v>0</v>
+      </c>
+      <c r="D3960">
+        <v>0</v>
+      </c>
+      <c r="E3960">
+        <v>0</v>
+      </c>
+      <c r="H3960" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3961" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3961">
+        <v>4</v>
+      </c>
+      <c r="C3961">
+        <v>0</v>
+      </c>
+      <c r="D3961">
+        <v>0</v>
+      </c>
+      <c r="E3961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3962" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3962">
+        <v>4</v>
+      </c>
+      <c r="C3962">
+        <v>1</v>
+      </c>
+      <c r="D3962">
+        <v>1</v>
+      </c>
+      <c r="E3962">
+        <v>3</v>
+      </c>
+      <c r="F3962">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3963" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3963">
+        <v>5</v>
+      </c>
+      <c r="C3963">
+        <v>0</v>
+      </c>
+      <c r="D3963">
+        <v>0</v>
+      </c>
+      <c r="E3963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3964" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3964">
+        <v>5</v>
+      </c>
+      <c r="C3964">
+        <v>1</v>
+      </c>
+      <c r="D3964">
+        <v>1</v>
+      </c>
+      <c r="E3964">
+        <v>2</v>
+      </c>
+      <c r="F3964">
+        <v>900</v>
+      </c>
+      <c r="G3964">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3965" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3965">
+        <v>6</v>
+      </c>
+      <c r="C3965">
+        <v>0</v>
+      </c>
+      <c r="D3965">
+        <v>0</v>
+      </c>
+      <c r="E3965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3966" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3966">
+        <v>6</v>
+      </c>
+      <c r="C3966">
+        <v>1</v>
+      </c>
+      <c r="D3966">
+        <v>1</v>
+      </c>
+      <c r="E3966">
+        <v>4</v>
+      </c>
+      <c r="F3966">
+        <v>900</v>
+      </c>
+      <c r="G3966">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3967" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3967">
+        <v>7</v>
+      </c>
+      <c r="C3967">
+        <v>0</v>
+      </c>
+      <c r="D3967">
+        <v>0</v>
+      </c>
+      <c r="E3967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3968" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3968">
+        <v>7</v>
+      </c>
+      <c r="C3968">
+        <v>1</v>
+      </c>
+      <c r="D3968">
+        <v>1</v>
+      </c>
+      <c r="E3968">
+        <v>4</v>
+      </c>
+      <c r="F3968">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3969" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3969">
+        <v>8</v>
+      </c>
+      <c r="C3969">
+        <v>0</v>
+      </c>
+      <c r="D3969">
+        <v>0</v>
+      </c>
+      <c r="E3969">
+        <v>0</v>
+      </c>
+      <c r="H3969" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3970" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3970">
+        <v>9</v>
+      </c>
+      <c r="C3970">
+        <v>0</v>
+      </c>
+      <c r="D3970">
+        <v>0</v>
+      </c>
+      <c r="E3970">
+        <v>0</v>
+      </c>
+      <c r="H3970" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3971" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3971">
+        <v>10</v>
+      </c>
+      <c r="C3971">
+        <v>0</v>
+      </c>
+      <c r="D3971">
+        <v>0</v>
+      </c>
+      <c r="E3971">
+        <v>0</v>
+      </c>
+      <c r="H3971" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3972" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3972">
+        <v>11</v>
+      </c>
+      <c r="C3972">
+        <v>0</v>
+      </c>
+      <c r="D3972">
+        <v>0</v>
+      </c>
+      <c r="E3972">
+        <v>0</v>
+      </c>
+      <c r="H3972" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3973" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3973">
+        <v>12</v>
+      </c>
+      <c r="C3973">
+        <v>0</v>
+      </c>
+      <c r="D3973">
+        <v>0</v>
+      </c>
+      <c r="E3973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3974" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3974">
+        <v>12</v>
+      </c>
+      <c r="C3974">
+        <v>1</v>
+      </c>
+      <c r="D3974">
+        <v>1</v>
+      </c>
+      <c r="E3974">
+        <v>4</v>
+      </c>
+      <c r="F3974">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3975" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3975">
+        <v>13</v>
+      </c>
+      <c r="C3975">
+        <v>0</v>
+      </c>
+      <c r="D3975">
+        <v>0</v>
+      </c>
+      <c r="E3975">
+        <v>0</v>
+      </c>
+      <c r="H3975" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3976" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3976">
+        <v>14</v>
+      </c>
+      <c r="C3976">
+        <v>0</v>
+      </c>
+      <c r="D3976">
+        <v>0</v>
+      </c>
+      <c r="E3976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3977" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3977">
+        <v>14</v>
+      </c>
+      <c r="C3977">
+        <v>1</v>
+      </c>
+      <c r="D3977">
+        <v>1</v>
+      </c>
+      <c r="E3977">
+        <v>3</v>
+      </c>
+      <c r="G3977">
+        <v>5400</v>
+      </c>
+      <c r="H3977" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3978" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3978">
+        <v>15</v>
+      </c>
+      <c r="C3978">
+        <v>0</v>
+      </c>
+      <c r="D3978">
+        <v>0</v>
+      </c>
+      <c r="E3978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3979" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3979">
+        <v>15</v>
+      </c>
+      <c r="C3979">
+        <v>1</v>
+      </c>
+      <c r="D3979">
+        <v>1</v>
+      </c>
+      <c r="E3979">
+        <v>3</v>
+      </c>
+      <c r="G3979">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3980" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3980">
+        <v>16</v>
+      </c>
+      <c r="C3980">
+        <v>0</v>
+      </c>
+      <c r="D3980">
+        <v>0</v>
+      </c>
+      <c r="E3980">
+        <v>0</v>
+      </c>
+      <c r="H3980" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3981" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3981">
+        <v>17</v>
+      </c>
+      <c r="C3981">
+        <v>0</v>
+      </c>
+      <c r="D3981">
+        <v>0</v>
+      </c>
+      <c r="E3981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3982" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3982">
+        <v>17</v>
+      </c>
+      <c r="C3982">
+        <v>1</v>
+      </c>
+      <c r="D3982">
+        <v>1</v>
+      </c>
+      <c r="E3982">
+        <v>3</v>
+      </c>
+      <c r="F3982">
+        <v>900</v>
+      </c>
+      <c r="G3982">
+        <v>5400</v>
+      </c>
+      <c r="H3982" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3983" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3983">
+        <v>18</v>
+      </c>
+      <c r="C3983">
+        <v>0</v>
+      </c>
+      <c r="D3983">
+        <v>0</v>
+      </c>
+      <c r="E3983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3984" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3984">
+        <v>18</v>
+      </c>
+      <c r="C3984">
+        <v>1</v>
+      </c>
+      <c r="D3984">
+        <v>1</v>
+      </c>
+      <c r="E3984">
+        <v>4</v>
+      </c>
+      <c r="F3984">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3985" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3985">
+        <v>19</v>
+      </c>
+      <c r="C3985">
+        <v>0</v>
+      </c>
+      <c r="D3985">
+        <v>0</v>
+      </c>
+      <c r="E3985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3986" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3986">
+        <v>19</v>
+      </c>
+      <c r="C3986">
+        <v>1</v>
+      </c>
+      <c r="D3986">
+        <v>1</v>
+      </c>
+      <c r="E3986">
+        <v>2</v>
+      </c>
+      <c r="F3986">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3987" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3987">
+        <v>20</v>
+      </c>
+      <c r="C3987">
+        <v>0</v>
+      </c>
+      <c r="D3987">
+        <v>0</v>
+      </c>
+      <c r="E3987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3988" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3988">
+        <v>20</v>
+      </c>
+      <c r="C3988">
+        <v>1</v>
+      </c>
+      <c r="D3988">
+        <v>1</v>
+      </c>
+      <c r="E3988">
+        <v>3</v>
+      </c>
+      <c r="F3988">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3989" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3989">
+        <v>20</v>
+      </c>
+      <c r="C3989">
+        <v>2</v>
+      </c>
+      <c r="D3989">
+        <v>1</v>
+      </c>
+      <c r="E3989">
+        <v>3</v>
+      </c>
+      <c r="F3989">
+        <v>9000</v>
+      </c>
+      <c r="G3989">
+        <v>14400</v>
+      </c>
+      <c r="H3989" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3990" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3990">
+        <v>21</v>
+      </c>
+      <c r="C3990">
+        <v>0</v>
+      </c>
+      <c r="D3990">
+        <v>0</v>
+      </c>
+      <c r="E3990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3991" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3991">
+        <v>21</v>
+      </c>
+      <c r="C3991">
+        <v>1</v>
+      </c>
+      <c r="D3991">
+        <v>1</v>
+      </c>
+      <c r="E3991">
+        <v>2</v>
+      </c>
+      <c r="F3991">
+        <v>1800</v>
+      </c>
+      <c r="G3991">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3992" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3992">
+        <v>22</v>
+      </c>
+      <c r="C3992">
+        <v>0</v>
+      </c>
+      <c r="D3992">
+        <v>0</v>
+      </c>
+      <c r="E3992">
+        <v>0</v>
+      </c>
+      <c r="H3992" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3993" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3993">
+        <v>23</v>
+      </c>
+      <c r="C3993">
+        <v>0</v>
+      </c>
+      <c r="D3993">
+        <v>0</v>
+      </c>
+      <c r="E3993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3994" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3994">
+        <v>23</v>
+      </c>
+      <c r="C3994">
+        <v>1</v>
+      </c>
+      <c r="D3994">
+        <v>1</v>
+      </c>
+      <c r="E3994">
+        <v>2</v>
+      </c>
+      <c r="F3994">
+        <v>11700</v>
+      </c>
+      <c r="H3994" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3995" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3995">
+        <v>24</v>
+      </c>
+      <c r="C3995">
+        <v>0</v>
+      </c>
+      <c r="D3995">
+        <v>0</v>
+      </c>
+      <c r="E3995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3996" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3996">
+        <v>24</v>
+      </c>
+      <c r="C3996">
+        <v>1</v>
+      </c>
+      <c r="D3996">
+        <v>1</v>
+      </c>
+      <c r="E3996">
+        <v>4</v>
+      </c>
+      <c r="F3996">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3997" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3997">
+        <v>24</v>
+      </c>
+      <c r="C3997">
+        <v>2</v>
+      </c>
+      <c r="D3997">
+        <v>1</v>
+      </c>
+      <c r="E3997">
+        <v>2</v>
+      </c>
+      <c r="F3997">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3998" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3998">
+        <v>25</v>
+      </c>
+      <c r="C3998">
+        <v>0</v>
+      </c>
+      <c r="D3998">
+        <v>0</v>
+      </c>
+      <c r="E3998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3999" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3999">
+        <v>25</v>
+      </c>
+      <c r="C3999">
+        <v>1</v>
+      </c>
+      <c r="D3999">
+        <v>0</v>
+      </c>
+      <c r="E3999">
+        <v>3</v>
+      </c>
+      <c r="F3999">
+        <v>1800</v>
+      </c>
+      <c r="G3999">
+        <v>9000</v>
+      </c>
+      <c r="H3999" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4000" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4000">
+        <v>26</v>
+      </c>
+      <c r="C4000">
+        <v>0</v>
+      </c>
+      <c r="D4000">
+        <v>0</v>
+      </c>
+      <c r="E4000">
+        <v>0</v>
+      </c>
+      <c r="H4000" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4001" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4001">
+        <v>27</v>
+      </c>
+      <c r="C4001">
+        <v>0</v>
+      </c>
+      <c r="D4001">
+        <v>0</v>
+      </c>
+      <c r="E4001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4002" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4002">
+        <v>27</v>
+      </c>
+      <c r="C4002">
+        <v>1</v>
+      </c>
+      <c r="D4002">
+        <v>0</v>
+      </c>
+      <c r="E4002">
+        <v>3</v>
+      </c>
+      <c r="F4002">
+        <v>6300</v>
+      </c>
+      <c r="H4002" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4003" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4003">
+        <v>27</v>
+      </c>
+      <c r="C4003">
+        <v>2</v>
+      </c>
+      <c r="D4003">
+        <v>0</v>
+      </c>
+      <c r="E4003">
+        <v>4</v>
+      </c>
+      <c r="F4003">
+        <v>2700</v>
+      </c>
+      <c r="G4003">
+        <v>4500</v>
+      </c>
+      <c r="H4003" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4004" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4004">
+        <v>27</v>
+      </c>
+      <c r="C4004">
+        <v>3</v>
+      </c>
+      <c r="D4004">
+        <v>0</v>
+      </c>
+      <c r="E4004">
+        <v>3</v>
+      </c>
+      <c r="F4004">
+        <v>1800</v>
+      </c>
+      <c r="G4004">
+        <v>2700</v>
+      </c>
+      <c r="H4004" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4005" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4005">
+        <v>28</v>
+      </c>
+      <c r="C4005">
+        <v>0</v>
+      </c>
+      <c r="D4005">
+        <v>0</v>
+      </c>
+      <c r="E4005">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4006" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4006">
+        <v>28</v>
+      </c>
+      <c r="C4006">
+        <v>1</v>
+      </c>
+      <c r="D4006">
+        <v>0</v>
+      </c>
+      <c r="E4006">
+        <v>3</v>
+      </c>
+      <c r="F4006">
+        <v>900</v>
+      </c>
+      <c r="G4006">
+        <v>6300</v>
+      </c>
+      <c r="H4006" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4007" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4007">
+        <v>29</v>
+      </c>
+      <c r="C4007">
+        <v>0</v>
+      </c>
+      <c r="D4007">
+        <v>0</v>
+      </c>
+      <c r="E4007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4008" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4008">
+        <v>29</v>
+      </c>
+      <c r="C4008">
+        <v>1</v>
+      </c>
+      <c r="D4008">
+        <v>0</v>
+      </c>
+      <c r="E4008">
+        <v>5</v>
+      </c>
+      <c r="G4008">
+        <v>8100</v>
+      </c>
+      <c r="H4008" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4009" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4009">
+        <v>29</v>
+      </c>
+      <c r="C4009">
+        <v>2</v>
+      </c>
+      <c r="D4009">
+        <v>0</v>
+      </c>
+      <c r="E4009">
+        <v>5</v>
+      </c>
+      <c r="G4009">
+        <v>3600</v>
+      </c>
+      <c r="H4009" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4010" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4010">
+        <v>30</v>
+      </c>
+      <c r="C4010">
+        <v>0</v>
+      </c>
+      <c r="D4010">
+        <v>0</v>
+      </c>
+      <c r="E4010">
+        <v>0</v>
+      </c>
+      <c r="H4010" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4011" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4011">
+        <v>31</v>
+      </c>
+      <c r="C4011">
+        <v>0</v>
+      </c>
+      <c r="D4011">
+        <v>0</v>
+      </c>
+      <c r="E4011">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4012" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4012">
+        <v>31</v>
+      </c>
+      <c r="C4012">
+        <v>1</v>
+      </c>
+      <c r="D4012">
+        <v>0</v>
+      </c>
+      <c r="E4012">
+        <v>3</v>
+      </c>
+      <c r="F4012">
+        <v>2700</v>
+      </c>
+      <c r="G4012">
+        <v>7200</v>
+      </c>
+      <c r="H4012" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4013" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4013">
+        <v>31</v>
+      </c>
+      <c r="C4013">
+        <v>2</v>
+      </c>
+      <c r="D4013">
+        <v>1</v>
+      </c>
+      <c r="E4013">
+        <v>3</v>
+      </c>
+      <c r="F4013">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4014" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4014">
+        <v>32</v>
+      </c>
+      <c r="C4014">
+        <v>0</v>
+      </c>
+      <c r="D4014">
+        <v>0</v>
+      </c>
+      <c r="E4014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4015" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4015">
+        <v>32</v>
+      </c>
+      <c r="C4015">
+        <v>1</v>
+      </c>
+      <c r="D4015">
+        <v>1</v>
+      </c>
+      <c r="E4015">
+        <v>3</v>
+      </c>
+      <c r="H4015" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4016" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4016">
+        <v>33</v>
+      </c>
+      <c r="C4016">
+        <v>0</v>
+      </c>
+      <c r="D4016">
+        <v>0</v>
+      </c>
+      <c r="E4016">
+        <v>0</v>
+      </c>
+      <c r="H4016" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4017" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4017">
+        <v>34</v>
+      </c>
+      <c r="C4017">
+        <v>0</v>
+      </c>
+      <c r="D4017">
+        <v>0</v>
+      </c>
+      <c r="E4017">
+        <v>0</v>
+      </c>
+      <c r="H4017" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4018" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4018">
+        <v>35</v>
+      </c>
+      <c r="C4018">
+        <v>0</v>
+      </c>
+      <c r="D4018">
+        <v>0</v>
+      </c>
+      <c r="E4018">
+        <v>0</v>
+      </c>
+      <c r="H4018" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4019" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4019">
+        <v>36</v>
+      </c>
+      <c r="C4019">
+        <v>0</v>
+      </c>
+      <c r="D4019">
+        <v>0</v>
+      </c>
+      <c r="E4019">
+        <v>0</v>
+      </c>
+      <c r="H4019" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4020" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4020">
+        <v>37</v>
+      </c>
+      <c r="C4020">
+        <v>0</v>
+      </c>
+      <c r="D4020">
+        <v>0</v>
+      </c>
+      <c r="E4020">
+        <v>0</v>
+      </c>
+      <c r="H4020" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4021" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4021">
+        <v>38</v>
+      </c>
+      <c r="C4021">
+        <v>0</v>
+      </c>
+      <c r="D4021">
+        <v>0</v>
+      </c>
+      <c r="E4021">
+        <v>0</v>
+      </c>
+      <c r="H4021" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4022" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4022">
+        <v>39</v>
+      </c>
+      <c r="C4022">
+        <v>0</v>
+      </c>
+      <c r="D4022">
+        <v>0</v>
+      </c>
+      <c r="E4022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4023" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4023">
+        <v>39</v>
+      </c>
+      <c r="C4023">
+        <v>1</v>
+      </c>
+      <c r="D4023">
+        <v>0</v>
+      </c>
+      <c r="E4023">
+        <v>3</v>
+      </c>
+      <c r="F4023">
+        <v>3600</v>
+      </c>
+      <c r="H4023" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4024" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4024">
+        <v>40</v>
+      </c>
+      <c r="C4024">
+        <v>0</v>
+      </c>
+      <c r="D4024">
+        <v>0</v>
+      </c>
+      <c r="E4024">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4025" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4025">
+        <v>40</v>
+      </c>
+      <c r="C4025">
+        <v>1</v>
+      </c>
+      <c r="D4025">
+        <v>1</v>
+      </c>
+      <c r="E4025">
+        <v>3</v>
+      </c>
+      <c r="G4025">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4026" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4026">
+        <v>41</v>
+      </c>
+      <c r="C4026">
+        <v>0</v>
+      </c>
+      <c r="D4026">
+        <v>0</v>
+      </c>
+      <c r="E4026">
+        <v>0</v>
+      </c>
+      <c r="H4026" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4027" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4027">
+        <v>42</v>
+      </c>
+      <c r="C4027">
+        <v>0</v>
+      </c>
+      <c r="D4027">
+        <v>0</v>
+      </c>
+      <c r="E4027">
+        <v>0</v>
+      </c>
+      <c r="H4027" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4028" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4028">
+        <v>43</v>
+      </c>
+      <c r="C4028">
+        <v>0</v>
+      </c>
+      <c r="D4028">
+        <v>0</v>
+      </c>
+      <c r="E4028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4029" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4029">
+        <v>43</v>
+      </c>
+      <c r="C4029">
+        <v>1</v>
+      </c>
+      <c r="D4029">
+        <v>1</v>
+      </c>
+      <c r="E4029">
+        <v>4</v>
+      </c>
+      <c r="G4029">
+        <v>6300</v>
+      </c>
+      <c r="H4029" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4030" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4030">
+        <v>43</v>
+      </c>
+      <c r="C4030">
+        <v>2</v>
+      </c>
+      <c r="D4030">
+        <v>1</v>
+      </c>
+      <c r="E4030">
+        <v>5</v>
+      </c>
+      <c r="G4030">
+        <v>2700</v>
+      </c>
+      <c r="H4030" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4031" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4031">
+        <v>43</v>
+      </c>
+      <c r="C4031">
+        <v>3</v>
+      </c>
+      <c r="D4031">
+        <v>1</v>
+      </c>
+      <c r="E4031">
+        <v>3</v>
+      </c>
+      <c r="F4031">
+        <v>2700</v>
+      </c>
+      <c r="G4031">
+        <v>5400</v>
+      </c>
+      <c r="H4031" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4032" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4032">
+        <v>43</v>
+      </c>
+      <c r="C4032">
+        <v>4</v>
+      </c>
+      <c r="D4032">
+        <v>0</v>
+      </c>
+      <c r="E4032">
+        <v>3</v>
+      </c>
+      <c r="F4032">
+        <v>2700</v>
+      </c>
+      <c r="G4032">
+        <v>5400</v>
+      </c>
+      <c r="H4032" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4033" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4033">
+        <v>44</v>
+      </c>
+      <c r="C4033">
+        <v>0</v>
+      </c>
+      <c r="D4033">
+        <v>0</v>
+      </c>
+      <c r="E4033">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4034" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4034">
+        <v>44</v>
+      </c>
+      <c r="C4034">
+        <v>1</v>
+      </c>
+      <c r="D4034">
+        <v>1</v>
+      </c>
+      <c r="E4034">
+        <v>2</v>
+      </c>
+      <c r="G4034">
+        <v>6300</v>
+      </c>
+      <c r="H4034" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4035" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4035">
+        <v>45</v>
+      </c>
+      <c r="C4035">
+        <v>0</v>
+      </c>
+      <c r="D4035">
+        <v>0</v>
+      </c>
+      <c r="E4035">
+        <v>0</v>
+      </c>
+      <c r="H4035" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4036" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4036">
+        <v>46</v>
+      </c>
+      <c r="C4036">
+        <v>0</v>
+      </c>
+      <c r="D4036">
+        <v>0</v>
+      </c>
+      <c r="E4036">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4037" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4037">
+        <v>46</v>
+      </c>
+      <c r="C4037">
+        <v>1</v>
+      </c>
+      <c r="D4037">
+        <v>1</v>
+      </c>
+      <c r="E4037">
+        <v>2</v>
+      </c>
+      <c r="G4037">
+        <v>14400</v>
+      </c>
+      <c r="H4037" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4038" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4038">
+        <v>47</v>
+      </c>
+      <c r="C4038">
+        <v>0</v>
+      </c>
+      <c r="D4038">
+        <v>0</v>
+      </c>
+      <c r="E4038">
+        <v>0</v>
+      </c>
+      <c r="H4038" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4039" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4039">
+        <v>48</v>
+      </c>
+      <c r="C4039">
+        <v>0</v>
+      </c>
+      <c r="D4039">
+        <v>0</v>
+      </c>
+      <c r="E4039">
+        <v>0</v>
+      </c>
+      <c r="H4039" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4040" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4040">
+        <v>49</v>
+      </c>
+      <c r="C4040">
+        <v>0</v>
+      </c>
+      <c r="D4040">
+        <v>0</v>
+      </c>
+      <c r="E4040">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4041" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4041">
+        <v>49</v>
+      </c>
+      <c r="C4041">
+        <v>1</v>
+      </c>
+      <c r="D4041">
+        <v>1</v>
+      </c>
+      <c r="E4041">
+        <v>2</v>
+      </c>
+      <c r="F4041">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4042" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4042">
+        <v>50</v>
+      </c>
+      <c r="C4042">
+        <v>0</v>
+      </c>
+      <c r="D4042">
+        <v>0</v>
+      </c>
+      <c r="E4042">
+        <v>0</v>
+      </c>
+      <c r="H4042" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4043" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4043">
+        <v>51</v>
+      </c>
+      <c r="C4043">
+        <v>0</v>
+      </c>
+      <c r="D4043">
+        <v>0</v>
+      </c>
+      <c r="E4043">
+        <v>0</v>
+      </c>
+      <c r="H4043" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4044" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4044">
+        <v>52</v>
+      </c>
+      <c r="C4044">
+        <v>0</v>
+      </c>
+      <c r="D4044">
+        <v>0</v>
+      </c>
+      <c r="E4044">
+        <v>0</v>
+      </c>
+      <c r="H4044" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4045" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4045">
+        <v>53</v>
+      </c>
+      <c r="C4045">
+        <v>0</v>
+      </c>
+      <c r="D4045">
+        <v>0</v>
+      </c>
+      <c r="E4045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4046" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4046">
+        <v>53</v>
+      </c>
+      <c r="C4046">
+        <v>1</v>
+      </c>
+      <c r="D4046">
+        <v>1</v>
+      </c>
+      <c r="E4046">
+        <v>3</v>
+      </c>
+      <c r="F4046">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4047" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4047">
+        <v>54</v>
+      </c>
+      <c r="C4047">
+        <v>0</v>
+      </c>
+      <c r="D4047">
+        <v>0</v>
+      </c>
+      <c r="E4047">
+        <v>0</v>
+      </c>
+      <c r="H4047" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4048" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4048">
+        <v>55</v>
+      </c>
+      <c r="C4048">
+        <v>0</v>
+      </c>
+      <c r="D4048">
+        <v>0</v>
+      </c>
+      <c r="E4048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4049" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4049">
+        <v>55</v>
+      </c>
+      <c r="C4049">
+        <v>1</v>
+      </c>
+      <c r="D4049">
+        <v>1</v>
+      </c>
+      <c r="E4049">
+        <v>3</v>
+      </c>
+      <c r="F4049">
+        <v>900</v>
+      </c>
+      <c r="G4049">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4050" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4050">
+        <v>55</v>
+      </c>
+      <c r="C4050">
+        <v>2</v>
+      </c>
+      <c r="D4050">
+        <v>0</v>
+      </c>
+      <c r="E4050">
+        <v>4</v>
+      </c>
+      <c r="F4050">
+        <v>1800</v>
+      </c>
+      <c r="G4050">
+        <v>9900</v>
+      </c>
+      <c r="H4050" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4051" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4051">
+        <v>55</v>
+      </c>
+      <c r="C4051">
+        <v>3</v>
+      </c>
+      <c r="D4051">
+        <v>0</v>
+      </c>
+      <c r="E4051">
+        <v>3</v>
+      </c>
+      <c r="F4051">
+        <v>1800</v>
+      </c>
+      <c r="G4051">
+        <v>4500</v>
+      </c>
+      <c r="H4051" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4052" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4052">
+        <v>55</v>
+      </c>
+      <c r="C4052">
+        <v>4</v>
+      </c>
+      <c r="D4052">
+        <v>0</v>
+      </c>
+      <c r="E4052">
+        <v>2</v>
+      </c>
+      <c r="F4052">
+        <v>1800</v>
+      </c>
+      <c r="G4052">
+        <v>4500</v>
+      </c>
+      <c r="H4052" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4053" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4053">
+        <v>55</v>
+      </c>
+      <c r="C4053">
+        <v>5</v>
+      </c>
+      <c r="D4053">
+        <v>0</v>
+      </c>
+      <c r="E4053">
+        <v>4</v>
+      </c>
+      <c r="F4053">
+        <v>5400</v>
+      </c>
+      <c r="G4053">
+        <v>9000</v>
+      </c>
+      <c r="H4053" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4054" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4054">
+        <v>56</v>
+      </c>
+      <c r="C4054">
+        <v>0</v>
+      </c>
+      <c r="D4054">
+        <v>0</v>
+      </c>
+      <c r="E4054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4055" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4055">
+        <v>56</v>
+      </c>
+      <c r="C4055">
+        <v>1</v>
+      </c>
+      <c r="D4055">
+        <v>1</v>
+      </c>
+      <c r="E4055">
+        <v>3</v>
+      </c>
+      <c r="F4055">
+        <v>1800</v>
+      </c>
+      <c r="G4055">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4056" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4056">
+        <v>57</v>
+      </c>
+      <c r="C4056">
+        <v>0</v>
+      </c>
+      <c r="D4056">
+        <v>0</v>
+      </c>
+      <c r="E4056">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4057" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4057">
+        <v>57</v>
+      </c>
+      <c r="C4057">
+        <v>1</v>
+      </c>
+      <c r="D4057">
+        <v>0</v>
+      </c>
+      <c r="E4057">
+        <v>5</v>
+      </c>
+      <c r="G4057">
+        <v>9000</v>
+      </c>
+      <c r="H4057" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4058" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4058">
+        <v>58</v>
+      </c>
+      <c r="C4058">
+        <v>0</v>
+      </c>
+      <c r="D4058">
+        <v>0</v>
+      </c>
+      <c r="E4058">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4059" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4059">
+        <v>58</v>
+      </c>
+      <c r="C4059">
+        <v>1</v>
+      </c>
+      <c r="D4059">
+        <v>0</v>
+      </c>
+      <c r="E4059">
+        <v>3</v>
+      </c>
+      <c r="F4059">
+        <v>2700</v>
+      </c>
+      <c r="G4059">
+        <v>6300</v>
+      </c>
+      <c r="H4059" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4060" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4060">
+        <v>58</v>
+      </c>
+      <c r="C4060">
+        <v>2</v>
+      </c>
+      <c r="D4060">
+        <v>0</v>
+      </c>
+      <c r="E4060">
+        <v>3</v>
+      </c>
+      <c r="F4060">
+        <v>5400</v>
+      </c>
+      <c r="H4060" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4061" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4061">
+        <v>59</v>
+      </c>
+      <c r="C4061">
+        <v>0</v>
+      </c>
+      <c r="D4061">
+        <v>0</v>
+      </c>
+      <c r="E4061">
+        <v>0</v>
+      </c>
+      <c r="H4061" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4062" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4062">
+        <v>60</v>
+      </c>
+      <c r="C4062">
+        <v>0</v>
+      </c>
+      <c r="D4062">
+        <v>0</v>
+      </c>
+      <c r="E4062">
+        <v>0</v>
+      </c>
+      <c r="H4062" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4063" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4063">
+        <v>61</v>
+      </c>
+      <c r="C4063">
+        <v>0</v>
+      </c>
+      <c r="D4063">
+        <v>0</v>
+      </c>
+      <c r="E4063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4064" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4064">
+        <v>61</v>
+      </c>
+      <c r="C4064">
+        <v>1</v>
+      </c>
+      <c r="D4064">
+        <v>1</v>
+      </c>
+      <c r="E4064">
+        <v>3</v>
+      </c>
+      <c r="G4064">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4065" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4065">
+        <v>62</v>
+      </c>
+      <c r="C4065">
+        <v>0</v>
+      </c>
+      <c r="D4065">
+        <v>0</v>
+      </c>
+      <c r="E4065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4066" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4066">
+        <v>62</v>
+      </c>
+      <c r="C4066">
+        <v>1</v>
+      </c>
+      <c r="D4066">
+        <v>0</v>
+      </c>
+      <c r="E4066">
+        <v>5</v>
+      </c>
+      <c r="F4066">
+        <v>3600</v>
+      </c>
+      <c r="H4066" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4067" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4067">
+        <v>62</v>
+      </c>
+      <c r="C4067">
+        <v>2</v>
+      </c>
+      <c r="D4067">
+        <v>1</v>
+      </c>
+      <c r="E4067">
+        <v>2</v>
+      </c>
+      <c r="F4067">
+        <v>5400</v>
+      </c>
+      <c r="G4067">
+        <v>8100</v>
+      </c>
+      <c r="H4067" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4068" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4068">
+        <v>63</v>
+      </c>
+      <c r="C4068">
+        <v>0</v>
+      </c>
+      <c r="D4068">
+        <v>0</v>
+      </c>
+      <c r="E4068">
+        <v>0</v>
+      </c>
+      <c r="H4068" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4069" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4069">
+        <v>64</v>
+      </c>
+      <c r="C4069">
+        <v>0</v>
+      </c>
+      <c r="D4069">
+        <v>0</v>
+      </c>
+      <c r="E4069">
+        <v>0</v>
+      </c>
+      <c r="H4069" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210F25DF-C7F9-4DDD-9F3B-C32B49F61E20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971762E1-8974-4697-AA18-05DAA8641D64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="330" windowWidth="18015" windowHeight="14955" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
+    <workbookView xWindow="135" yWindow="330" windowWidth="22485" windowHeight="14955" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Info" sheetId="1" r:id="rId1"/>
@@ -1534,7 +1534,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1846,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
   <dimension ref="A1:H4069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3936" workbookViewId="0">
-      <selection activeCell="A3956" sqref="A3956:A4069"/>
+    <sheetView tabSelected="1" topLeftCell="A2885" workbookViewId="0">
+      <selection activeCell="H3021" sqref="H3021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC30241E-CA4A-4EC2-8811-CEA4A6C4DAFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB729E88-D0BF-4FA9-9786-9E627808CBC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="645" windowWidth="22485" windowHeight="14955" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
@@ -1524,12 +1524,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1847,12 +1849,13 @@
   <dimension ref="A1:H4069"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="4"/>
     <col min="8" max="8" width="70.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1872,10 +1875,10 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>279</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1896,6 +1899,12 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>0</v>
       </c>
       <c r="H2" t="s">

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7916FBB-D39F-405D-A9CB-C90EEC247ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3358D2-821E-4CDF-8A41-83E286A7DD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
+    <workbookView xWindow="3780" yWindow="240" windowWidth="24660" windowHeight="14550" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Info" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1885,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
   <dimension ref="A1:H4069"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2810" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2684" workbookViewId="0">
+      <selection activeCell="F2719" sqref="F2719:G2719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51800,12 +51806,6 @@
       </c>
       <c r="E2719">
         <v>4</v>
-      </c>
-      <c r="F2719">
-        <v>1800</v>
-      </c>
-      <c r="G2719">
-        <v>2700</v>
       </c>
     </row>
     <row r="2720" spans="1:8" x14ac:dyDescent="0.25">
@@ -78492,7 +78492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C959004D-4D9F-441D-939C-D0A39F61DFAD}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -78575,7 +78575,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:J9" si="0">D3+E3+F3</f>
+        <f t="shared" ref="H3:H9" si="0">D3+E3+F3</f>
         <v>3</v>
       </c>
       <c r="I3">
@@ -78763,7 +78763,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:J8" si="3">D8+E8+F8</f>
+        <f t="shared" ref="H8" si="3">D8+E8+F8</f>
         <v>29</v>
       </c>
       <c r="I8">
@@ -78840,7 +78840,7 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:J15" si="4">D10+E10+F10</f>
+        <f t="shared" ref="H10:H15" si="4">D10+E10+F10</f>
         <v>15</v>
       </c>
       <c r="I10">
@@ -79068,7 +79068,7 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:J16" si="5">D16+E16+F16</f>
+        <f t="shared" ref="H16" si="5">D16+E16+F16</f>
         <v>89</v>
       </c>
       <c r="I16">
@@ -79108,7 +79108,7 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:J17" si="6">D17+E17+F17</f>
+        <f t="shared" ref="H17" si="6">D17+E17+F17</f>
         <v>80</v>
       </c>
       <c r="I17">
@@ -79148,7 +79148,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:J21" si="7">D18+E18+F18</f>
+        <f t="shared" ref="H18:H21" si="7">D18+E18+F18</f>
         <v>36</v>
       </c>
       <c r="I18">
@@ -79302,7 +79302,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H22:J33" si="8">D22+E22+F22</f>
+        <f t="shared" ref="H22:H33" si="8">D22+E22+F22</f>
         <v>6</v>
       </c>
       <c r="I22">

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3358D2-821E-4CDF-8A41-83E286A7DD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E0609-5EE6-4DC8-BAD4-4A84E9EE574F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="240" windowWidth="24660" windowHeight="14550" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
   <dimension ref="A1:H4069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2684" workbookViewId="0">
-      <selection activeCell="F2719" sqref="F2719:G2719"/>
+    <sheetView tabSelected="1" topLeftCell="A2558" workbookViewId="0">
+      <selection activeCell="G2563" sqref="G2563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46729,9 +46729,6 @@
       <c r="E2454">
         <v>3</v>
       </c>
-      <c r="G2454">
-        <v>3600</v>
-      </c>
     </row>
     <row r="2455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2455" t="s">
@@ -48863,9 +48860,6 @@
       </c>
       <c r="E2563">
         <v>4</v>
-      </c>
-      <c r="G2563">
-        <v>5400</v>
       </c>
     </row>
     <row r="2564" spans="1:8" x14ac:dyDescent="0.25">

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E0609-5EE6-4DC8-BAD4-4A84E9EE574F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B97E1-0334-4FFF-948A-5D71B4657628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="240" windowWidth="24660" windowHeight="14550" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
@@ -1892,7 +1892,7 @@
   <dimension ref="A1:H4069"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2558" workbookViewId="0">
-      <selection activeCell="G2563" sqref="G2563"/>
+      <selection activeCell="F2564" sqref="F2564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48877,9 +48877,6 @@
       </c>
       <c r="E2564">
         <v>3</v>
-      </c>
-      <c r="F2564">
-        <v>9900</v>
       </c>
     </row>
     <row r="2565" spans="1:8" x14ac:dyDescent="0.25">

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B97E1-0334-4FFF-948A-5D71B4657628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA24F13-7155-443F-A86C-7CE45C9F9E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="240" windowWidth="24660" windowHeight="14550" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
@@ -1891,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
   <dimension ref="A1:H4069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2558" workbookViewId="0">
-      <selection activeCell="F2564" sqref="F2564"/>
+    <sheetView tabSelected="1" topLeftCell="A2878" workbookViewId="0">
+      <selection activeCell="F2891" sqref="F2891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55135,9 +55135,6 @@
       </c>
       <c r="E2891">
         <v>3</v>
-      </c>
-      <c r="F2891">
-        <v>11700</v>
       </c>
     </row>
     <row r="2892" spans="1:8" x14ac:dyDescent="0.25">

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA24F13-7155-443F-A86C-7CE45C9F9E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398384B6-2A08-44AE-B9D2-733228B1ECBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="240" windowWidth="24660" windowHeight="14550" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1579,7 +1581,146 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1891,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
   <dimension ref="A1:H4069"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2878" workbookViewId="0">
-      <selection activeCell="F2891" sqref="F2891"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78471,6 +78612,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A4069" xr:uid="{44851FFE-30DC-4E12-8296-FFBBC3B7B99C}"/>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+      <formula>2.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($D1=1,$E1&gt;2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/spikeSortingNotes.xlsx
+++ b/spikeSortingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\MATLAB\gratings-task-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398384B6-2A08-44AE-B9D2-733228B1ECBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB365F42-7276-4C73-A3C3-D0250EBCBFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5215BA6-879C-42E2-A238-7256D4555DD7}"/>
   </bookViews>
@@ -1581,122 +1581,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2032,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F1F63-41CC-4425-B140-2A823B1406A8}">
   <dimension ref="A1:H4069"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A3105" workbookViewId="0">
+      <selection activeCell="F3136" sqref="F3136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60054,9 +59943,6 @@
       <c r="E3136">
         <v>4</v>
       </c>
-      <c r="F3136">
-        <v>3600</v>
-      </c>
     </row>
     <row r="3137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3137" t="s">
@@ -78613,12 +78499,12 @@
   </sheetData>
   <autoFilter ref="A1:A4069" xr:uid="{44851FFE-30DC-4E12-8296-FFBBC3B7B99C}"/>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>2.5</formula>
     </cfRule>
   </conditionalFormatting>
